--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21103" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21104" uniqueCount="1167">
   <si>
     <t>Path</t>
   </si>
@@ -1242,7 +1242,10 @@
     <t>Some insurers need a declaration of the type of relationship.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/RelatedClaimVS</t>
+    <t>Relationship of this claim to a related Claim.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.related.reference</t>
@@ -1647,7 +1650,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/InformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.id</t>
@@ -1657,9 +1660,6 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.coding</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.text</t>
@@ -3149,7 +3149,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -11087,11 +11087,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -11138,7 +11140,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -11164,16 +11166,16 @@
         <v>159</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -11222,7 +11224,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -11251,7 +11253,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -11274,17 +11276,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -11333,7 +11335,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -11362,7 +11364,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -11385,19 +11387,19 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11446,7 +11448,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -11475,7 +11477,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11501,16 +11503,16 @@
         <v>374</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11559,7 +11561,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11588,7 +11590,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11697,7 +11699,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11808,7 +11810,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11921,7 +11923,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11947,14 +11949,14 @@
         <v>180</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -11983,7 +11985,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>43</v>
@@ -12001,7 +12003,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -12030,7 +12032,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -12053,19 +12055,19 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
@@ -12114,7 +12116,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -12143,7 +12145,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -12166,19 +12168,19 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -12227,7 +12229,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -12245,7 +12247,7 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
@@ -12256,7 +12258,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -12279,17 +12281,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -12338,7 +12340,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -12353,10 +12355,10 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -12367,7 +12369,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12393,14 +12395,14 @@
         <v>387</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12449,7 +12451,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -12467,7 +12469,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -12478,7 +12480,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12501,17 +12503,17 @@
         <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12560,7 +12562,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12589,7 +12591,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12615,16 +12617,16 @@
         <v>126</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -12652,10 +12654,10 @@
         <v>174</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
@@ -12673,7 +12675,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>50</v>
@@ -12702,7 +12704,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12728,14 +12730,14 @@
         <v>52</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12784,7 +12786,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12813,7 +12815,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12839,16 +12841,16 @@
         <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12897,7 +12899,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12926,7 +12928,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12952,16 +12954,16 @@
         <v>207</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -13010,7 +13012,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -13039,7 +13041,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -13065,14 +13067,14 @@
         <v>374</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -13121,7 +13123,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -13150,7 +13152,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -13259,7 +13261,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -13370,7 +13372,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13483,7 +13485,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13506,17 +13508,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13565,7 +13567,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13594,7 +13596,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13617,17 +13619,17 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13676,7 +13678,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>50</v>
@@ -13694,7 +13696,7 @@
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -13705,7 +13707,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13731,16 +13733,16 @@
         <v>284</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13789,7 +13791,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13818,7 +13820,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13844,16 +13846,16 @@
         <v>180</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13882,7 +13884,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
@@ -13900,7 +13902,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13929,7 +13931,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13955,14 +13957,14 @@
         <v>180</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13990,10 +13992,10 @@
         <v>116</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -14011,7 +14013,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -14040,7 +14042,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -14066,16 +14068,16 @@
         <v>374</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -14112,7 +14114,7 @@
         <v>43</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>164</v>
@@ -14124,7 +14126,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -14153,7 +14155,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14262,7 +14264,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14373,7 +14375,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14486,7 +14488,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14509,17 +14511,17 @@
         <v>43</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14568,7 +14570,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>50</v>
@@ -14597,7 +14599,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14623,16 +14625,16 @@
         <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14661,7 +14663,7 @@
       </c>
       <c r="X98" s="2"/>
       <c r="Y98" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>43</v>
@@ -14679,7 +14681,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -14708,7 +14710,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14817,7 +14819,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14928,7 +14930,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14992,7 +14994,7 @@
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>43</v>
@@ -15600,7 +15602,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>556</v>
@@ -15631,13 +15633,13 @@
         <v>557</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15686,7 +15688,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -15715,7 +15717,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15824,7 +15826,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15935,7 +15937,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -16048,7 +16050,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -16071,17 +16073,17 @@
         <v>43</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -16130,7 +16132,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>50</v>
@@ -16159,7 +16161,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16185,16 +16187,16 @@
         <v>180</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>43</v>
@@ -16223,7 +16225,7 @@
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -16241,7 +16243,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>50</v>
@@ -16270,7 +16272,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16379,7 +16381,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16490,7 +16492,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16554,7 +16556,7 @@
       </c>
       <c r="X115" s="2"/>
       <c r="Y115" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>43</v>
@@ -17939,7 +17941,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>566</v>
@@ -17970,13 +17972,13 @@
         <v>567</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -18025,7 +18027,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -18054,7 +18056,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18163,7 +18165,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18274,7 +18276,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18387,7 +18389,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18410,17 +18412,17 @@
         <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18469,7 +18471,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>50</v>
@@ -18498,7 +18500,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18524,16 +18526,16 @@
         <v>180</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18562,7 +18564,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18580,7 +18582,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>50</v>
@@ -18609,7 +18611,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18718,7 +18720,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18829,7 +18831,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18893,7 +18895,7 @@
       </c>
       <c r="X136" s="2"/>
       <c r="Y136" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>43</v>
@@ -20278,7 +20280,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>568</v>
@@ -20309,13 +20311,13 @@
         <v>567</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -20364,7 +20366,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20393,7 +20395,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20502,7 +20504,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20613,7 +20615,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20726,7 +20728,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20749,17 +20751,17 @@
         <v>43</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20808,7 +20810,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20837,7 +20839,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20863,16 +20865,16 @@
         <v>180</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20901,7 +20903,7 @@
       </c>
       <c r="X154" s="2"/>
       <c r="Y154" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
@@ -20919,7 +20921,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>50</v>
@@ -20948,7 +20950,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21057,7 +21059,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -21168,7 +21170,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21232,7 +21234,7 @@
       </c>
       <c r="X157" s="2"/>
       <c r="Y157" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>43</v>
@@ -22617,7 +22619,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>569</v>
@@ -22648,13 +22650,13 @@
         <v>570</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22703,7 +22705,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22732,7 +22734,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22841,7 +22843,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22952,7 +22954,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23065,7 +23067,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23088,17 +23090,17 @@
         <v>43</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -23147,7 +23149,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>50</v>
@@ -23176,7 +23178,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23202,16 +23204,16 @@
         <v>180</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -23240,7 +23242,7 @@
       </c>
       <c r="X175" s="2"/>
       <c r="Y175" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
@@ -23258,7 +23260,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>50</v>
@@ -23287,7 +23289,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23396,7 +23398,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23507,7 +23509,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23571,7 +23573,7 @@
       </c>
       <c r="X178" s="2"/>
       <c r="Y178" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -24958,7 +24960,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>572</v>
@@ -24989,13 +24991,13 @@
         <v>573</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -25044,7 +25046,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -25073,7 +25075,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25182,7 +25184,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25293,7 +25295,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25406,7 +25408,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25429,17 +25431,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25488,7 +25490,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>50</v>
@@ -25517,7 +25519,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25543,16 +25545,16 @@
         <v>180</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25581,7 +25583,7 @@
       </c>
       <c r="X196" s="2"/>
       <c r="Y196" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>43</v>
@@ -25599,7 +25601,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>50</v>
@@ -25628,7 +25630,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25737,7 +25739,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25848,7 +25850,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25912,7 +25914,7 @@
       </c>
       <c r="X199" s="2"/>
       <c r="Y199" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z199" t="s" s="2">
         <v>43</v>
@@ -27297,7 +27299,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>575</v>
@@ -27328,13 +27330,13 @@
         <v>576</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27383,7 +27385,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27412,7 +27414,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27521,7 +27523,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27632,7 +27634,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27745,7 +27747,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27768,17 +27770,17 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27827,7 +27829,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>50</v>
@@ -27856,7 +27858,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27882,16 +27884,16 @@
         <v>180</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27920,7 +27922,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27938,7 +27940,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>50</v>
@@ -27967,7 +27969,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -28076,7 +28078,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -28187,7 +28189,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28251,7 +28253,7 @@
       </c>
       <c r="X220" s="2"/>
       <c r="Y220" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
@@ -29636,7 +29638,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>579</v>
@@ -29667,13 +29669,13 @@
         <v>580</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29722,7 +29724,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29751,7 +29753,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29860,7 +29862,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29971,7 +29973,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -30084,7 +30086,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30107,17 +30109,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30166,7 +30168,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>50</v>
@@ -30195,7 +30197,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30221,16 +30223,16 @@
         <v>180</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30259,7 +30261,7 @@
       </c>
       <c r="X238" s="2"/>
       <c r="Y238" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z238" t="s" s="2">
         <v>43</v>
@@ -30277,7 +30279,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>50</v>
@@ -30306,7 +30308,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30415,7 +30417,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30526,7 +30528,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30590,7 +30592,7 @@
       </c>
       <c r="X241" s="2"/>
       <c r="Y241" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
@@ -31975,7 +31977,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>582</v>
@@ -32006,13 +32008,13 @@
         <v>583</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -32061,7 +32063,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -32090,7 +32092,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -32199,7 +32201,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32310,7 +32312,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32423,7 +32425,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32446,17 +32448,17 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32505,7 +32507,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>50</v>
@@ -32534,7 +32536,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32560,16 +32562,16 @@
         <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32598,7 +32600,7 @@
       </c>
       <c r="X259" s="2"/>
       <c r="Y259" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32616,7 +32618,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>50</v>
@@ -32645,7 +32647,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32754,7 +32756,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32865,7 +32867,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32929,7 +32931,7 @@
       </c>
       <c r="X262" s="2"/>
       <c r="Y262" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
@@ -34314,7 +34316,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>585</v>
@@ -34345,13 +34347,13 @@
         <v>586</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34400,7 +34402,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34429,7 +34431,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34538,7 +34540,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34649,7 +34651,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34762,7 +34764,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34785,17 +34787,17 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34844,7 +34846,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>50</v>
@@ -34873,7 +34875,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34899,16 +34901,16 @@
         <v>180</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34937,7 +34939,7 @@
       </c>
       <c r="X280" s="2"/>
       <c r="Y280" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
@@ -34955,7 +34957,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>50</v>
@@ -34984,7 +34986,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -35093,7 +35095,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35204,7 +35206,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35268,7 +35270,7 @@
       </c>
       <c r="X283" s="2"/>
       <c r="Y283" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
@@ -37120,7 +37122,7 @@
         <v>43</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K300" t="s" s="2">
         <v>596</v>
@@ -38119,7 +38121,7 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K309" t="s" s="2">
         <v>631</v>
@@ -38672,7 +38674,7 @@
         <v>43</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K314" t="s" s="2">
         <v>653</v>
@@ -42359,7 +42361,7 @@
         <v>43</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K347" t="s" s="2">
         <v>719</v>
@@ -42470,7 +42472,7 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>723</v>
@@ -42581,7 +42583,7 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K349" t="s" s="2">
         <v>727</v>
@@ -42692,7 +42694,7 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K350" t="s" s="2">
         <v>731</v>
@@ -42803,7 +42805,7 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K351" t="s" s="2">
         <v>735</v>
@@ -43659,7 +43661,7 @@
         <v>43</v>
       </c>
       <c r="AK358" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL358" t="s" s="2">
         <v>43</v>
@@ -44587,7 +44589,7 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K367" t="s" s="2">
         <v>821</v>
@@ -44745,7 +44747,7 @@
         <v>43</v>
       </c>
       <c r="AA368" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB368" t="s" s="2">
         <v>164</v>
@@ -51170,7 +51172,7 @@
         <v>43</v>
       </c>
       <c r="J426" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K426" t="s" s="2">
         <v>712</v>
@@ -52403,7 +52405,7 @@
         <v>43</v>
       </c>
       <c r="J437" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K437" t="s" s="2">
         <v>821</v>
@@ -53065,7 +53067,7 @@
         <v>43</v>
       </c>
       <c r="J443" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K443" t="s" s="2">
         <v>712</v>
@@ -54298,7 +54300,7 @@
         <v>43</v>
       </c>
       <c r="J454" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K454" t="s" s="2">
         <v>821</v>
@@ -54962,7 +54964,7 @@
         <v>43</v>
       </c>
       <c r="J460" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K460" t="s" s="2">
         <v>931</v>
@@ -55073,7 +55075,7 @@
         <v>43</v>
       </c>
       <c r="J461" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K461" t="s" s="2">
         <v>935</v>
@@ -55184,7 +55186,7 @@
         <v>43</v>
       </c>
       <c r="J462" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K462" t="s" s="2">
         <v>939</v>
@@ -55295,7 +55297,7 @@
         <v>43</v>
       </c>
       <c r="J463" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K463" t="s" s="2">
         <v>943</v>
@@ -55933,7 +55935,7 @@
         <v>43</v>
       </c>
       <c r="AK468" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL468" t="s" s="2">
         <v>43</v>
@@ -56639,7 +56641,7 @@
         <v>43</v>
       </c>
       <c r="J475" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K475" t="s" s="2">
         <v>821</v>
@@ -57975,7 +57977,7 @@
         <v>43</v>
       </c>
       <c r="J487" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K487" t="s" s="2">
         <v>821</v>
@@ -59311,7 +59313,7 @@
         <v>43</v>
       </c>
       <c r="J499" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K499" t="s" s="2">
         <v>821</v>
@@ -59578,7 +59580,7 @@
         <v>43</v>
       </c>
       <c r="AA501" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AB501" t="s" s="2">
         <v>164</v>
@@ -68009,7 +68011,7 @@
         <v>43</v>
       </c>
       <c r="J577" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K577" t="s" s="2">
         <v>1083</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -17617,7 +17617,7 @@
         <v>41</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>51</v>
@@ -17726,7 +17726,7 @@
         <v>41</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>51</v>
@@ -19956,7 +19956,7 @@
         <v>41</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>51</v>
@@ -20065,7 +20065,7 @@
         <v>41</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>51</v>
@@ -22295,7 +22295,7 @@
         <v>41</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>51</v>
@@ -22404,7 +22404,7 @@
         <v>41</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>51</v>
@@ -24745,7 +24745,7 @@
         <v>41</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>51</v>
@@ -26975,7 +26975,7 @@
         <v>41</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>51</v>
@@ -27084,7 +27084,7 @@
         <v>41</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>51</v>
@@ -29314,7 +29314,7 @@
         <v>41</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>51</v>
@@ -29423,7 +29423,7 @@
         <v>41</v>
       </c>
       <c r="F231" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>51</v>
@@ -31653,7 +31653,7 @@
         <v>41</v>
       </c>
       <c r="F251" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>51</v>
@@ -31762,7 +31762,7 @@
         <v>41</v>
       </c>
       <c r="F252" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G252" t="s" s="2">
         <v>51</v>
@@ -33992,7 +33992,7 @@
         <v>41</v>
       </c>
       <c r="F272" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G272" t="s" s="2">
         <v>51</v>
@@ -34101,7 +34101,7 @@
         <v>41</v>
       </c>
       <c r="F273" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G273" t="s" s="2">
         <v>51</v>
@@ -36331,7 +36331,7 @@
         <v>41</v>
       </c>
       <c r="F293" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G293" t="s" s="2">
         <v>51</v>
@@ -36440,7 +36440,7 @@
         <v>41</v>
       </c>
       <c r="F294" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G294" t="s" s="2">
         <v>51</v>
@@ -46139,7 +46139,7 @@
         <v>41</v>
       </c>
       <c r="F381" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G381" t="s" s="2">
         <v>43</v>
@@ -46365,7 +46365,7 @@
         <v>41</v>
       </c>
       <c r="F383" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G383" t="s" s="2">
         <v>43</v>
@@ -48371,7 +48371,7 @@
         <v>41</v>
       </c>
       <c r="F401" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G401" t="s" s="2">
         <v>43</v>
@@ -48484,7 +48484,7 @@
         <v>41</v>
       </c>
       <c r="F402" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G402" t="s" s="2">
         <v>43</v>
@@ -50379,7 +50379,7 @@
         <v>41</v>
       </c>
       <c r="F419" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G419" t="s" s="2">
         <v>43</v>
@@ -50492,7 +50492,7 @@
         <v>41</v>
       </c>
       <c r="F420" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G420" t="s" s="2">
         <v>43</v>
@@ -60972,7 +60972,7 @@
         <v>41</v>
       </c>
       <c r="F514" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G514" t="s" s="2">
         <v>43</v>
@@ -61198,7 +61198,7 @@
         <v>41</v>
       </c>
       <c r="F516" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G516" t="s" s="2">
         <v>43</v>
@@ -63204,7 +63204,7 @@
         <v>41</v>
       </c>
       <c r="F534" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G534" t="s" s="2">
         <v>43</v>
@@ -63317,7 +63317,7 @@
         <v>41</v>
       </c>
       <c r="F535" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G535" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -2648,7 +2648,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjustmentAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationPayerValueCodesVS</t>
   </si>
   <si>
     <t>denialreason</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -1899,7 +1899,7 @@
     <t>Often required to capture a particular diagnosis, for example: primary or discharge.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/DiagnosisTypeFacilityVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInpatientfacilitydiagnosistype</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.onAdmission</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20544" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20545" uniqueCount="1166">
   <si>
     <t>Path</t>
   </si>
@@ -2020,10 +2020,16 @@
     <t>This identifies the actual clinical procedure.</t>
   </si>
   <si>
+    <t>ICD10 Procedure codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/icd-10-procedures</t>
+  </si>
+  <si>
+    <t>procedureCodeableConcept</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCSVS</t>
-  </si>
-  <si>
-    <t>procedureCodeableConcept</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
@@ -36790,7 +36796,7 @@
         <v>50</v>
       </c>
       <c r="G297" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H297" t="s" s="2">
         <v>43</v>
@@ -36883,7 +36889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
         <v>599</v>
       </c>
@@ -36895,13 +36901,13 @@
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F298" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G298" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H298" t="s" s="2">
         <v>43</v>
@@ -38164,11 +38170,13 @@
         <v>43</v>
       </c>
       <c r="W309" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X309" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X309" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="Y309" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
@@ -38216,14 +38224,14 @@
         <v>646</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C310" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F310" t="s" s="2">
         <v>50</v>
@@ -38277,7 +38285,7 @@
       </c>
       <c r="X310" s="2"/>
       <c r="Y310" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="Z310" t="s" s="2">
         <v>43</v>
@@ -38324,7 +38332,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38347,17 +38355,17 @@
         <v>43</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -38406,7 +38414,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38435,7 +38443,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38461,14 +38469,14 @@
         <v>483</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38517,7 +38525,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38546,7 +38554,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38572,16 +38580,16 @@
         <v>374</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38630,7 +38638,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>50</v>
@@ -38651,7 +38659,7 @@
         <v>43</v>
       </c>
       <c r="AL313" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AM313" t="s" s="2">
         <v>43</v>
@@ -38659,7 +38667,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38768,7 +38776,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38879,7 +38887,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38992,7 +39000,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -39018,16 +39026,16 @@
         <v>284</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -39076,7 +39084,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>50</v>
@@ -39105,7 +39113,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39128,17 +39136,17 @@
         <v>51</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39187,7 +39195,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>50</v>
@@ -39216,7 +39224,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39242,16 +39250,16 @@
         <v>52</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39300,7 +39308,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39329,7 +39337,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39355,14 +39363,14 @@
         <v>374</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39411,7 +39419,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39440,7 +39448,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39549,7 +39557,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39660,7 +39668,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39773,7 +39781,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39799,16 +39807,16 @@
         <v>570</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39857,7 +39865,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39886,7 +39894,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39912,14 +39920,14 @@
         <v>180</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39947,10 +39955,10 @@
         <v>108</v>
       </c>
       <c r="X325" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
@@ -39968,7 +39976,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39997,7 +40005,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -40020,17 +40028,17 @@
         <v>43</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -40079,7 +40087,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -40108,7 +40116,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40134,14 +40142,14 @@
         <v>374</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40190,7 +40198,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40219,7 +40227,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40328,7 +40336,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40439,7 +40447,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40552,7 +40560,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40578,14 +40586,14 @@
         <v>483</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40634,7 +40642,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>50</v>
@@ -40663,7 +40671,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40689,14 +40697,14 @@
         <v>483</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40745,7 +40753,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40774,7 +40782,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40800,14 +40808,14 @@
         <v>483</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40856,7 +40864,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40885,7 +40893,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40911,14 +40919,14 @@
         <v>483</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M334" s="2"/>
       <c r="N334" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40967,7 +40975,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40996,7 +41004,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -41022,14 +41030,14 @@
         <v>483</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M335" s="2"/>
       <c r="N335" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -41078,7 +41086,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -41107,7 +41115,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41133,14 +41141,14 @@
         <v>180</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41169,7 +41177,7 @@
       </c>
       <c r="X336" s="2"/>
       <c r="Y336" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="Z336" t="s" s="2">
         <v>43</v>
@@ -41187,7 +41195,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41216,7 +41224,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41242,16 +41250,16 @@
         <v>180</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41279,10 +41287,10 @@
         <v>116</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41300,7 +41308,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41329,11 +41337,11 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -41355,16 +41363,16 @@
         <v>180</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41393,7 +41401,7 @@
       </c>
       <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -41411,7 +41419,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>50</v>
@@ -41440,7 +41448,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41466,16 +41474,16 @@
         <v>180</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41504,7 +41512,7 @@
       </c>
       <c r="X339" s="2"/>
       <c r="Y339" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="Z339" t="s" s="2">
         <v>43</v>
@@ -41522,7 +41530,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41551,7 +41559,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41577,16 +41585,16 @@
         <v>180</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41614,10 +41622,10 @@
         <v>116</v>
       </c>
       <c r="X340" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="Y340" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="Z340" t="s" s="2">
         <v>43</v>
@@ -41635,7 +41643,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41664,7 +41672,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41690,14 +41698,14 @@
         <v>535</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41746,7 +41754,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41775,7 +41783,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41798,17 +41806,17 @@
         <v>43</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41836,10 +41844,10 @@
         <v>116</v>
       </c>
       <c r="X342" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="Y342" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="Z342" t="s" s="2">
         <v>43</v>
@@ -41857,7 +41865,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41886,7 +41894,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41909,17 +41917,17 @@
         <v>43</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41968,7 +41976,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41997,7 +42005,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -42020,17 +42028,17 @@
         <v>43</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -42079,7 +42087,7 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
@@ -42108,7 +42116,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42131,19 +42139,19 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42192,7 +42200,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -42221,7 +42229,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42244,19 +42252,19 @@
         <v>43</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42305,7 +42313,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -42334,7 +42342,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42357,17 +42365,17 @@
         <v>43</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42416,7 +42424,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42445,7 +42453,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42471,16 +42479,16 @@
         <v>180</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42508,10 +42516,10 @@
         <v>116</v>
       </c>
       <c r="X348" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42529,7 +42537,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42558,7 +42566,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42584,14 +42592,14 @@
         <v>180</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42619,10 +42627,10 @@
         <v>116</v>
       </c>
       <c r="X349" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42640,7 +42648,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42669,7 +42677,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42692,17 +42700,17 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42751,7 +42759,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42780,7 +42788,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42806,14 +42814,14 @@
         <v>483</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42862,7 +42870,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42891,7 +42899,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42917,14 +42925,14 @@
         <v>374</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42973,7 +42981,7 @@
         <v>606</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -43002,7 +43010,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -43111,7 +43119,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43222,7 +43230,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43335,7 +43343,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43361,16 +43369,16 @@
         <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43399,7 +43407,7 @@
       </c>
       <c r="X356" s="2"/>
       <c r="Y356" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43417,7 +43425,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43446,7 +43454,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43472,16 +43480,16 @@
         <v>180</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43509,10 +43517,10 @@
         <v>116</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43530,7 +43538,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43559,7 +43567,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43582,19 +43590,19 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43643,7 +43651,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43672,7 +43680,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43695,19 +43703,19 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43756,7 +43764,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43785,10 +43793,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C360" t="s" s="2">
         <v>43</v>
@@ -43813,14 +43821,14 @@
         <v>374</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43869,7 +43877,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43898,7 +43906,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -44007,7 +44015,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -44118,7 +44126,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44231,7 +44239,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44257,16 +44265,16 @@
         <v>180</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44295,7 +44303,7 @@
       </c>
       <c r="X364" s="2"/>
       <c r="Y364" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="Z364" t="s" s="2">
         <v>43</v>
@@ -44313,7 +44321,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>50</v>
@@ -44342,7 +44350,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44368,16 +44376,16 @@
         <v>180</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44405,10 +44413,10 @@
         <v>116</v>
       </c>
       <c r="X365" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Y365" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44426,7 +44434,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44455,7 +44463,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44478,19 +44486,19 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44539,7 +44547,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44568,7 +44576,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44591,19 +44599,19 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44652,7 +44660,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
@@ -44681,10 +44689,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C368" t="s" s="2">
         <v>43</v>
@@ -44709,14 +44717,14 @@
         <v>374</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M368" s="2"/>
       <c r="N368" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44765,7 +44773,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44794,7 +44802,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44903,7 +44911,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -45014,7 +45022,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -45127,7 +45135,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45153,16 +45161,16 @@
         <v>180</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45191,7 +45199,7 @@
       </c>
       <c r="X372" s="2"/>
       <c r="Y372" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="Z372" t="s" s="2">
         <v>43</v>
@@ -45209,7 +45217,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>50</v>
@@ -45238,7 +45246,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45347,7 +45355,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45458,7 +45466,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45571,7 +45579,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45680,7 +45688,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45791,7 +45799,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45904,7 +45912,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -46015,7 +46023,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -46058,7 +46066,7 @@
         <v>43</v>
       </c>
       <c r="R380" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="S380" t="s" s="2">
         <v>43</v>
@@ -46126,7 +46134,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46237,7 +46245,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46350,7 +46358,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46463,7 +46471,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46489,16 +46497,16 @@
         <v>180</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46527,7 +46535,7 @@
       </c>
       <c r="X384" s="2"/>
       <c r="Y384" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="Z384" t="s" s="2">
         <v>43</v>
@@ -46545,7 +46553,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46574,7 +46582,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46597,19 +46605,19 @@
         <v>43</v>
       </c>
       <c r="J385" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46658,7 +46666,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46687,7 +46695,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46710,19 +46718,19 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46771,7 +46779,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46800,10 +46808,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C387" t="s" s="2">
         <v>43</v>
@@ -46828,14 +46836,14 @@
         <v>374</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46884,7 +46892,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46913,7 +46921,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -47022,7 +47030,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -47133,7 +47141,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47246,7 +47254,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47272,16 +47280,16 @@
         <v>180</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47310,7 +47318,7 @@
       </c>
       <c r="X391" s="2"/>
       <c r="Y391" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="Z391" t="s" s="2">
         <v>43</v>
@@ -47328,7 +47336,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>50</v>
@@ -47357,7 +47365,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47466,7 +47474,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47577,7 +47585,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47690,7 +47698,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47799,7 +47807,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47910,7 +47918,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -48023,7 +48031,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -48134,7 +48142,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48177,7 +48185,7 @@
         <v>43</v>
       </c>
       <c r="R399" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="S399" t="s" s="2">
         <v>43</v>
@@ -48245,7 +48253,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48356,7 +48364,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48469,7 +48477,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48582,7 +48590,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48608,16 +48616,16 @@
         <v>180</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48645,10 +48653,10 @@
         <v>116</v>
       </c>
       <c r="X403" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Y403" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Z403" t="s" s="2">
         <v>43</v>
@@ -48666,7 +48674,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48695,7 +48703,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48718,19 +48726,19 @@
         <v>43</v>
       </c>
       <c r="J404" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48779,7 +48787,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48808,7 +48816,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48831,19 +48839,19 @@
         <v>43</v>
       </c>
       <c r="J405" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48892,7 +48900,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48921,7 +48929,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48947,10 +48955,10 @@
         <v>374</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="M406" s="2"/>
       <c r="N406" s="2"/>
@@ -49001,7 +49009,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -49030,7 +49038,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -49139,7 +49147,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49250,7 +49258,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49363,7 +49371,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49389,14 +49397,14 @@
         <v>483</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="M410" s="2"/>
       <c r="N410" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -49445,7 +49453,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>50</v>
@@ -49474,7 +49482,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49500,14 +49508,14 @@
         <v>180</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M411" s="2"/>
       <c r="N411" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49535,28 +49543,28 @@
         <v>116</v>
       </c>
       <c r="X411" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="Y411" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE411" t="s" s="2">
         <v>880</v>
-      </c>
-      <c r="Z411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD411" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE411" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
@@ -49585,7 +49593,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49611,16 +49619,16 @@
         <v>180</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49648,10 +49656,10 @@
         <v>116</v>
       </c>
       <c r="X412" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="Y412" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Z412" t="s" s="2">
         <v>43</v>
@@ -49669,7 +49677,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49698,11 +49706,11 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
@@ -49724,16 +49732,16 @@
         <v>180</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M413" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N413" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49761,28 +49769,28 @@
         <v>116</v>
       </c>
       <c r="X413" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="Y413" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE413" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="Z413" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA413" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB413" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC413" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD413" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE413" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>50</v>
@@ -49811,7 +49819,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49837,16 +49845,16 @@
         <v>180</v>
       </c>
       <c r="K414" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M414" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N414" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O414" t="s" s="2">
         <v>43</v>
@@ -49874,28 +49882,28 @@
         <v>116</v>
       </c>
       <c r="X414" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="Y414" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="Z414" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA414" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB414" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC414" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD414" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE414" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="Y414" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="Z414" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA414" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB414" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC414" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD414" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE414" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
@@ -49924,7 +49932,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49950,16 +49958,16 @@
         <v>180</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N415" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O415" t="s" s="2">
         <v>43</v>
@@ -49987,10 +49995,10 @@
         <v>116</v>
       </c>
       <c r="X415" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="Y415" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="Z415" t="s" s="2">
         <v>43</v>
@@ -50008,7 +50016,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -50037,7 +50045,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
@@ -50060,17 +50068,17 @@
         <v>43</v>
       </c>
       <c r="J416" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K416" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M416" s="2"/>
       <c r="N416" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O416" t="s" s="2">
         <v>43</v>
@@ -50119,7 +50127,7 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>41</v>
@@ -50148,7 +50156,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50171,17 +50179,17 @@
         <v>43</v>
       </c>
       <c r="J417" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M417" s="2"/>
       <c r="N417" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="O417" t="s" s="2">
         <v>43</v>
@@ -50230,7 +50238,7 @@
         <v>43</v>
       </c>
       <c r="AE417" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="AF417" t="s" s="2">
         <v>41</v>
@@ -50259,7 +50267,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50282,19 +50290,19 @@
         <v>43</v>
       </c>
       <c r="J418" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K418" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M418" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N418" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O418" t="s" s="2">
         <v>43</v>
@@ -50343,7 +50351,7 @@
         <v>43</v>
       </c>
       <c r="AE418" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="AF418" t="s" s="2">
         <v>41</v>
@@ -50372,7 +50380,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
@@ -50395,19 +50403,19 @@
         <v>43</v>
       </c>
       <c r="J419" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K419" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O419" t="s" s="2">
         <v>43</v>
@@ -50456,7 +50464,7 @@
         <v>43</v>
       </c>
       <c r="AE419" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="AF419" t="s" s="2">
         <v>41</v>
@@ -50485,7 +50493,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50508,17 +50516,17 @@
         <v>43</v>
       </c>
       <c r="J420" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M420" s="2"/>
       <c r="N420" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O420" t="s" s="2">
         <v>43</v>
@@ -50567,7 +50575,7 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="AF420" t="s" s="2">
         <v>41</v>
@@ -50596,7 +50604,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50622,14 +50630,14 @@
         <v>483</v>
       </c>
       <c r="K421" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M421" s="2"/>
       <c r="N421" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
@@ -50678,7 +50686,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50707,7 +50715,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50733,10 +50741,10 @@
         <v>43</v>
       </c>
       <c r="K422" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="M422" s="2"/>
       <c r="N422" s="2"/>
@@ -50787,7 +50795,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
@@ -50816,7 +50824,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
@@ -50842,10 +50850,10 @@
         <v>374</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="M423" s="2"/>
       <c r="N423" s="2"/>
@@ -50896,7 +50904,7 @@
         <v>43</v>
       </c>
       <c r="AE423" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="AF423" t="s" s="2">
         <v>41</v>
@@ -50925,7 +50933,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -51034,7 +51042,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
@@ -51145,7 +51153,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
@@ -51258,7 +51266,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
@@ -51284,14 +51292,14 @@
         <v>483</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="M427" s="2"/>
       <c r="N427" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O427" t="s" s="2">
         <v>43</v>
@@ -51340,7 +51348,7 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>50</v>
@@ -51369,7 +51377,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
@@ -51395,14 +51403,14 @@
         <v>180</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M428" s="2"/>
       <c r="N428" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O428" t="s" s="2">
         <v>43</v>
@@ -51430,10 +51438,10 @@
         <v>116</v>
       </c>
       <c r="X428" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="Y428" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="Z428" t="s" s="2">
         <v>43</v>
@@ -51451,7 +51459,7 @@
         <v>43</v>
       </c>
       <c r="AE428" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AF428" t="s" s="2">
         <v>41</v>
@@ -51480,7 +51488,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51506,16 +51514,16 @@
         <v>180</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="O429" t="s" s="2">
         <v>43</v>
@@ -51543,10 +51551,10 @@
         <v>116</v>
       </c>
       <c r="X429" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="Y429" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Z429" t="s" s="2">
         <v>43</v>
@@ -51564,7 +51572,7 @@
         <v>43</v>
       </c>
       <c r="AE429" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="AF429" t="s" s="2">
         <v>41</v>
@@ -51593,11 +51601,11 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
@@ -51619,16 +51627,16 @@
         <v>180</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M430" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N430" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O430" t="s" s="2">
         <v>43</v>
@@ -51656,10 +51664,10 @@
         <v>116</v>
       </c>
       <c r="X430" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="Y430" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="Z430" t="s" s="2">
         <v>43</v>
@@ -51677,7 +51685,7 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="AF430" t="s" s="2">
         <v>50</v>
@@ -51706,7 +51714,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51732,16 +51740,16 @@
         <v>180</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M431" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="N431" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O431" t="s" s="2">
         <v>43</v>
@@ -51769,10 +51777,10 @@
         <v>116</v>
       </c>
       <c r="X431" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="Y431" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="Z431" t="s" s="2">
         <v>43</v>
@@ -51790,7 +51798,7 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>41</v>
@@ -51819,7 +51827,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" t="s" s="2">
@@ -51845,16 +51853,16 @@
         <v>180</v>
       </c>
       <c r="K432" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M432" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N432" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O432" t="s" s="2">
         <v>43</v>
@@ -51882,10 +51890,10 @@
         <v>116</v>
       </c>
       <c r="X432" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="Y432" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="Z432" t="s" s="2">
         <v>43</v>
@@ -51903,7 +51911,7 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
@@ -51932,7 +51940,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
@@ -51955,17 +51963,17 @@
         <v>43</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M433" s="2"/>
       <c r="N433" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O433" t="s" s="2">
         <v>43</v>
@@ -52014,7 +52022,7 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>
@@ -52043,7 +52051,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" t="s" s="2">
@@ -52066,17 +52074,17 @@
         <v>43</v>
       </c>
       <c r="J434" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K434" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M434" s="2"/>
       <c r="N434" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="O434" t="s" s="2">
         <v>43</v>
@@ -52125,7 +52133,7 @@
         <v>43</v>
       </c>
       <c r="AE434" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="AF434" t="s" s="2">
         <v>41</v>
@@ -52154,7 +52162,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" t="s" s="2">
@@ -52177,19 +52185,19 @@
         <v>43</v>
       </c>
       <c r="J435" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K435" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N435" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O435" t="s" s="2">
         <v>43</v>
@@ -52238,7 +52246,7 @@
         <v>43</v>
       </c>
       <c r="AE435" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="AF435" t="s" s="2">
         <v>41</v>
@@ -52267,7 +52275,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B436" s="2"/>
       <c r="C436" t="s" s="2">
@@ -52290,19 +52298,19 @@
         <v>43</v>
       </c>
       <c r="J436" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K436" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O436" t="s" s="2">
         <v>43</v>
@@ -52351,7 +52359,7 @@
         <v>43</v>
       </c>
       <c r="AE436" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="AF436" t="s" s="2">
         <v>41</v>
@@ -52380,7 +52388,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B437" s="2"/>
       <c r="C437" t="s" s="2">
@@ -52403,17 +52411,17 @@
         <v>43</v>
       </c>
       <c r="J437" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M437" s="2"/>
       <c r="N437" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O437" t="s" s="2">
         <v>43</v>
@@ -52462,7 +52470,7 @@
         <v>43</v>
       </c>
       <c r="AE437" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="AF437" t="s" s="2">
         <v>41</v>
@@ -52491,7 +52499,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B438" s="2"/>
       <c r="C438" t="s" s="2">
@@ -52517,14 +52525,14 @@
         <v>483</v>
       </c>
       <c r="K438" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M438" s="2"/>
       <c r="N438" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O438" t="s" s="2">
         <v>43</v>
@@ -52573,7 +52581,7 @@
         <v>43</v>
       </c>
       <c r="AE438" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="AF438" t="s" s="2">
         <v>41</v>
@@ -52602,7 +52610,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" t="s" s="2">
@@ -52628,10 +52636,10 @@
         <v>43</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="M439" s="2"/>
       <c r="N439" s="2"/>
@@ -52682,7 +52690,7 @@
         <v>43</v>
       </c>
       <c r="AE439" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AF439" t="s" s="2">
         <v>41</v>
@@ -52711,7 +52719,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B440" s="2"/>
       <c r="C440" t="s" s="2">
@@ -52737,14 +52745,14 @@
         <v>374</v>
       </c>
       <c r="K440" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="M440" s="2"/>
       <c r="N440" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="O440" t="s" s="2">
         <v>43</v>
@@ -52793,7 +52801,7 @@
         <v>43</v>
       </c>
       <c r="AE440" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="AF440" t="s" s="2">
         <v>41</v>
@@ -52822,7 +52830,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" t="s" s="2">
@@ -52931,7 +52939,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" t="s" s="2">
@@ -53042,7 +53050,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" t="s" s="2">
@@ -53155,7 +53163,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B444" s="2"/>
       <c r="C444" t="s" s="2">
@@ -53181,14 +53189,14 @@
         <v>483</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M444" s="2"/>
       <c r="N444" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="O444" t="s" s="2">
         <v>43</v>
@@ -53237,7 +53245,7 @@
         <v>43</v>
       </c>
       <c r="AE444" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="AF444" t="s" s="2">
         <v>41</v>
@@ -53266,7 +53274,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B445" s="2"/>
       <c r="C445" t="s" s="2">
@@ -53292,14 +53300,14 @@
         <v>483</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="M445" s="2"/>
       <c r="N445" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="O445" t="s" s="2">
         <v>43</v>
@@ -53348,7 +53356,7 @@
         <v>43</v>
       </c>
       <c r="AE445" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="AF445" t="s" s="2">
         <v>41</v>
@@ -53377,7 +53385,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B446" s="2"/>
       <c r="C446" t="s" s="2">
@@ -53403,14 +53411,14 @@
         <v>483</v>
       </c>
       <c r="K446" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="M446" s="2"/>
       <c r="N446" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="O446" t="s" s="2">
         <v>43</v>
@@ -53459,7 +53467,7 @@
         <v>43</v>
       </c>
       <c r="AE446" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="AF446" t="s" s="2">
         <v>41</v>
@@ -53488,7 +53496,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" t="s" s="2">
@@ -53514,14 +53522,14 @@
         <v>488</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="M447" s="2"/>
       <c r="N447" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="O447" t="s" s="2">
         <v>43</v>
@@ -53570,7 +53578,7 @@
         <v>43</v>
       </c>
       <c r="AE447" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="AF447" t="s" s="2">
         <v>41</v>
@@ -53599,11 +53607,11 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B448" s="2"/>
       <c r="C448" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" t="s" s="2">
@@ -53625,16 +53633,16 @@
         <v>180</v>
       </c>
       <c r="K448" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M448" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N448" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O448" t="s" s="2">
         <v>43</v>
@@ -53662,10 +53670,10 @@
         <v>116</v>
       </c>
       <c r="X448" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="Y448" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="Z448" t="s" s="2">
         <v>43</v>
@@ -53683,7 +53691,7 @@
         <v>43</v>
       </c>
       <c r="AE448" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="AF448" t="s" s="2">
         <v>50</v>
@@ -53712,7 +53720,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s" s="2">
@@ -53738,16 +53746,16 @@
         <v>180</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M449" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N449" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O449" t="s" s="2">
         <v>43</v>
@@ -53775,10 +53783,10 @@
         <v>116</v>
       </c>
       <c r="X449" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="Y449" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="Z449" t="s" s="2">
         <v>43</v>
@@ -53796,7 +53804,7 @@
         <v>43</v>
       </c>
       <c r="AE449" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="AF449" t="s" s="2">
         <v>41</v>
@@ -53825,7 +53833,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" t="s" s="2">
@@ -53851,16 +53859,16 @@
         <v>180</v>
       </c>
       <c r="K450" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N450" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O450" t="s" s="2">
         <v>43</v>
@@ -53888,10 +53896,10 @@
         <v>116</v>
       </c>
       <c r="X450" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="Y450" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="Z450" t="s" s="2">
         <v>43</v>
@@ -53909,7 +53917,7 @@
         <v>43</v>
       </c>
       <c r="AE450" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="AF450" t="s" s="2">
         <v>41</v>
@@ -53938,7 +53946,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B451" s="2"/>
       <c r="C451" t="s" s="2">
@@ -53964,14 +53972,14 @@
         <v>535</v>
       </c>
       <c r="K451" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M451" s="2"/>
       <c r="N451" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="O451" t="s" s="2">
         <v>43</v>
@@ -54020,7 +54028,7 @@
         <v>43</v>
       </c>
       <c r="AE451" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="AF451" t="s" s="2">
         <v>41</v>
@@ -54049,7 +54057,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" t="s" s="2">
@@ -54072,17 +54080,17 @@
         <v>43</v>
       </c>
       <c r="J452" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="K452" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M452" s="2"/>
       <c r="N452" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O452" t="s" s="2">
         <v>43</v>
@@ -54110,10 +54118,10 @@
         <v>116</v>
       </c>
       <c r="X452" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="Y452" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="Z452" t="s" s="2">
         <v>43</v>
@@ -54131,7 +54139,7 @@
         <v>43</v>
       </c>
       <c r="AE452" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="AF452" t="s" s="2">
         <v>41</v>
@@ -54160,7 +54168,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B453" s="2"/>
       <c r="C453" t="s" s="2">
@@ -54183,17 +54191,17 @@
         <v>43</v>
       </c>
       <c r="J453" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K453" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L453" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M453" s="2"/>
       <c r="N453" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O453" t="s" s="2">
         <v>43</v>
@@ -54242,7 +54250,7 @@
         <v>43</v>
       </c>
       <c r="AE453" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="AF453" t="s" s="2">
         <v>41</v>
@@ -54271,7 +54279,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B454" s="2"/>
       <c r="C454" t="s" s="2">
@@ -54294,17 +54302,17 @@
         <v>43</v>
       </c>
       <c r="J454" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K454" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M454" s="2"/>
       <c r="N454" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="O454" t="s" s="2">
         <v>43</v>
@@ -54353,7 +54361,7 @@
         <v>43</v>
       </c>
       <c r="AE454" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="AF454" t="s" s="2">
         <v>41</v>
@@ -54382,7 +54390,7 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" t="s" s="2">
@@ -54405,19 +54413,19 @@
         <v>43</v>
       </c>
       <c r="J455" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O455" t="s" s="2">
         <v>43</v>
@@ -54466,7 +54474,7 @@
         <v>43</v>
       </c>
       <c r="AE455" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="AF455" t="s" s="2">
         <v>41</v>
@@ -54495,7 +54503,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" t="s" s="2">
@@ -54518,19 +54526,19 @@
         <v>43</v>
       </c>
       <c r="J456" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K456" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O456" t="s" s="2">
         <v>43</v>
@@ -54579,7 +54587,7 @@
         <v>43</v>
       </c>
       <c r="AE456" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="AF456" t="s" s="2">
         <v>41</v>
@@ -54608,7 +54616,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B457" s="2"/>
       <c r="C457" t="s" s="2">
@@ -54634,16 +54642,16 @@
         <v>180</v>
       </c>
       <c r="K457" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M457" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="N457" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O457" t="s" s="2">
         <v>43</v>
@@ -54671,10 +54679,10 @@
         <v>116</v>
       </c>
       <c r="X457" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="Y457" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="Z457" t="s" s="2">
         <v>43</v>
@@ -54692,7 +54700,7 @@
         <v>43</v>
       </c>
       <c r="AE457" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="AF457" t="s" s="2">
         <v>41</v>
@@ -54721,7 +54729,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B458" s="2"/>
       <c r="C458" t="s" s="2">
@@ -54747,14 +54755,14 @@
         <v>180</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M458" s="2"/>
       <c r="N458" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O458" t="s" s="2">
         <v>43</v>
@@ -54782,10 +54790,10 @@
         <v>116</v>
       </c>
       <c r="X458" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="Y458" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="Z458" t="s" s="2">
         <v>43</v>
@@ -54803,7 +54811,7 @@
         <v>43</v>
       </c>
       <c r="AE458" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="AF458" t="s" s="2">
         <v>41</v>
@@ -54832,7 +54840,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" t="s" s="2">
@@ -54858,14 +54866,14 @@
         <v>483</v>
       </c>
       <c r="K459" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M459" s="2"/>
       <c r="N459" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O459" t="s" s="2">
         <v>43</v>
@@ -54914,7 +54922,7 @@
         <v>43</v>
       </c>
       <c r="AE459" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="AF459" t="s" s="2">
         <v>41</v>
@@ -54943,7 +54951,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B460" s="2"/>
       <c r="C460" t="s" s="2">
@@ -54969,10 +54977,10 @@
         <v>43</v>
       </c>
       <c r="K460" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="M460" s="2"/>
       <c r="N460" s="2"/>
@@ -55023,7 +55031,7 @@
         <v>43</v>
       </c>
       <c r="AE460" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="AF460" t="s" s="2">
         <v>41</v>
@@ -55052,7 +55060,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B461" s="2"/>
       <c r="C461" t="s" s="2">
@@ -55078,10 +55086,10 @@
         <v>374</v>
       </c>
       <c r="K461" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
@@ -55132,7 +55140,7 @@
         <v>43</v>
       </c>
       <c r="AE461" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="AF461" t="s" s="2">
         <v>41</v>
@@ -55161,7 +55169,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B462" s="2"/>
       <c r="C462" t="s" s="2">
@@ -55270,7 +55278,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B463" s="2"/>
       <c r="C463" t="s" s="2">
@@ -55381,7 +55389,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" t="s" s="2">
@@ -55494,11 +55502,11 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
@@ -55520,16 +55528,16 @@
         <v>180</v>
       </c>
       <c r="K465" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O465" t="s" s="2">
         <v>43</v>
@@ -55557,10 +55565,10 @@
         <v>116</v>
       </c>
       <c r="X465" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="Y465" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="Z465" t="s" s="2">
         <v>43</v>
@@ -55578,7 +55586,7 @@
         <v>43</v>
       </c>
       <c r="AE465" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AF465" t="s" s="2">
         <v>50</v>
@@ -55607,7 +55615,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B466" s="2"/>
       <c r="C466" t="s" s="2">
@@ -55633,16 +55641,16 @@
         <v>180</v>
       </c>
       <c r="K466" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M466" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N466" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O466" t="s" s="2">
         <v>43</v>
@@ -55670,10 +55678,10 @@
         <v>116</v>
       </c>
       <c r="X466" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="Y466" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="Z466" t="s" s="2">
         <v>43</v>
@@ -55691,7 +55699,7 @@
         <v>43</v>
       </c>
       <c r="AE466" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AF466" t="s" s="2">
         <v>41</v>
@@ -55720,7 +55728,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" t="s" s="2">
@@ -55743,17 +55751,17 @@
         <v>43</v>
       </c>
       <c r="J467" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K467" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M467" s="2"/>
       <c r="N467" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O467" t="s" s="2">
         <v>43</v>
@@ -55802,7 +55810,7 @@
         <v>43</v>
       </c>
       <c r="AE467" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="AF467" t="s" s="2">
         <v>41</v>
@@ -55831,7 +55839,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B468" s="2"/>
       <c r="C468" t="s" s="2">
@@ -55854,17 +55862,17 @@
         <v>43</v>
       </c>
       <c r="J468" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K468" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M468" s="2"/>
       <c r="N468" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="O468" t="s" s="2">
         <v>43</v>
@@ -55913,7 +55921,7 @@
         <v>43</v>
       </c>
       <c r="AE468" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="AF468" t="s" s="2">
         <v>41</v>
@@ -55942,7 +55950,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B469" s="2"/>
       <c r="C469" t="s" s="2">
@@ -55965,19 +55973,19 @@
         <v>43</v>
       </c>
       <c r="J469" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L469" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M469" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N469" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O469" t="s" s="2">
         <v>43</v>
@@ -56026,7 +56034,7 @@
         <v>43</v>
       </c>
       <c r="AE469" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="AF469" t="s" s="2">
         <v>41</v>
@@ -56055,7 +56063,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B470" s="2"/>
       <c r="C470" t="s" s="2">
@@ -56078,19 +56086,19 @@
         <v>43</v>
       </c>
       <c r="J470" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K470" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M470" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N470" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O470" t="s" s="2">
         <v>43</v>
@@ -56139,7 +56147,7 @@
         <v>43</v>
       </c>
       <c r="AE470" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="AF470" t="s" s="2">
         <v>41</v>
@@ -56168,7 +56176,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B471" s="2"/>
       <c r="C471" t="s" s="2">
@@ -56194,14 +56202,14 @@
         <v>483</v>
       </c>
       <c r="K471" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L471" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M471" s="2"/>
       <c r="N471" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O471" t="s" s="2">
         <v>43</v>
@@ -56250,7 +56258,7 @@
         <v>43</v>
       </c>
       <c r="AE471" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="AF471" t="s" s="2">
         <v>41</v>
@@ -56279,7 +56287,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" t="s" s="2">
@@ -56305,10 +56313,10 @@
         <v>43</v>
       </c>
       <c r="K472" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="L472" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="M472" s="2"/>
       <c r="N472" s="2"/>
@@ -56359,7 +56367,7 @@
         <v>43</v>
       </c>
       <c r="AE472" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="AF472" t="s" s="2">
         <v>41</v>
@@ -56388,7 +56396,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B473" s="2"/>
       <c r="C473" t="s" s="2">
@@ -56414,10 +56422,10 @@
         <v>374</v>
       </c>
       <c r="K473" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="M473" s="2"/>
       <c r="N473" s="2"/>
@@ -56468,7 +56476,7 @@
         <v>43</v>
       </c>
       <c r="AE473" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="AF473" t="s" s="2">
         <v>41</v>
@@ -56497,7 +56505,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B474" s="2"/>
       <c r="C474" t="s" s="2">
@@ -56606,7 +56614,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B475" s="2"/>
       <c r="C475" t="s" s="2">
@@ -56717,7 +56725,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B476" s="2"/>
       <c r="C476" t="s" s="2">
@@ -56830,11 +56838,11 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B477" s="2"/>
       <c r="C477" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" t="s" s="2">
@@ -56856,16 +56864,16 @@
         <v>180</v>
       </c>
       <c r="K477" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="L477" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M477" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N477" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="O477" t="s" s="2">
         <v>43</v>
@@ -56893,10 +56901,10 @@
         <v>116</v>
       </c>
       <c r="X477" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="Y477" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="Z477" t="s" s="2">
         <v>43</v>
@@ -56914,7 +56922,7 @@
         <v>43</v>
       </c>
       <c r="AE477" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="AF477" t="s" s="2">
         <v>50</v>
@@ -56943,7 +56951,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B478" s="2"/>
       <c r="C478" t="s" s="2">
@@ -56969,16 +56977,16 @@
         <v>180</v>
       </c>
       <c r="K478" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="L478" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M478" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N478" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O478" t="s" s="2">
         <v>43</v>
@@ -57006,10 +57014,10 @@
         <v>116</v>
       </c>
       <c r="X478" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="Y478" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="Z478" t="s" s="2">
         <v>43</v>
@@ -57027,7 +57035,7 @@
         <v>43</v>
       </c>
       <c r="AE478" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="AF478" t="s" s="2">
         <v>41</v>
@@ -57056,7 +57064,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" t="s" s="2">
@@ -57079,17 +57087,17 @@
         <v>43</v>
       </c>
       <c r="J479" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="K479" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="L479" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M479" s="2"/>
       <c r="N479" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O479" t="s" s="2">
         <v>43</v>
@@ -57138,7 +57146,7 @@
         <v>43</v>
       </c>
       <c r="AE479" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="AF479" t="s" s="2">
         <v>41</v>
@@ -57167,7 +57175,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" t="s" s="2">
@@ -57190,17 +57198,17 @@
         <v>43</v>
       </c>
       <c r="J480" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K480" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L480" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M480" s="2"/>
       <c r="N480" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="O480" t="s" s="2">
         <v>43</v>
@@ -57249,7 +57257,7 @@
         <v>43</v>
       </c>
       <c r="AE480" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="AF480" t="s" s="2">
         <v>41</v>
@@ -57278,7 +57286,7 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B481" s="2"/>
       <c r="C481" t="s" s="2">
@@ -57301,19 +57309,19 @@
         <v>43</v>
       </c>
       <c r="J481" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K481" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L481" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M481" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N481" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O481" t="s" s="2">
         <v>43</v>
@@ -57362,7 +57370,7 @@
         <v>43</v>
       </c>
       <c r="AE481" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="AF481" t="s" s="2">
         <v>41</v>
@@ -57391,7 +57399,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B482" s="2"/>
       <c r="C482" t="s" s="2">
@@ -57414,19 +57422,19 @@
         <v>43</v>
       </c>
       <c r="J482" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K482" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L482" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M482" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N482" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O482" t="s" s="2">
         <v>43</v>
@@ -57475,7 +57483,7 @@
         <v>43</v>
       </c>
       <c r="AE482" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="AF482" t="s" s="2">
         <v>41</v>
@@ -57504,7 +57512,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B483" s="2"/>
       <c r="C483" t="s" s="2">
@@ -57530,14 +57538,14 @@
         <v>483</v>
       </c>
       <c r="K483" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L483" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M483" s="2"/>
       <c r="N483" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O483" t="s" s="2">
         <v>43</v>
@@ -57586,7 +57594,7 @@
         <v>43</v>
       </c>
       <c r="AE483" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="AF483" t="s" s="2">
         <v>41</v>
@@ -57615,7 +57623,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B484" s="2"/>
       <c r="C484" t="s" s="2">
@@ -57641,10 +57649,10 @@
         <v>43</v>
       </c>
       <c r="K484" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="L484" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="M484" s="2"/>
       <c r="N484" s="2"/>
@@ -57695,7 +57703,7 @@
         <v>43</v>
       </c>
       <c r="AE484" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="AF484" t="s" s="2">
         <v>41</v>
@@ -57724,7 +57732,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B485" s="2"/>
       <c r="C485" t="s" s="2">
@@ -57750,14 +57758,14 @@
         <v>374</v>
       </c>
       <c r="K485" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="L485" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M485" s="2"/>
       <c r="N485" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="O485" t="s" s="2">
         <v>43</v>
@@ -57806,7 +57814,7 @@
         <v>606</v>
       </c>
       <c r="AE485" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="AF485" t="s" s="2">
         <v>41</v>
@@ -57835,7 +57843,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" t="s" s="2">
@@ -57944,7 +57952,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B487" s="2"/>
       <c r="C487" t="s" s="2">
@@ -58055,7 +58063,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B488" s="2"/>
       <c r="C488" t="s" s="2">
@@ -58168,7 +58176,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B489" s="2"/>
       <c r="C489" t="s" s="2">
@@ -58194,16 +58202,16 @@
         <v>180</v>
       </c>
       <c r="K489" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L489" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M489" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N489" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O489" t="s" s="2">
         <v>43</v>
@@ -58232,7 +58240,7 @@
       </c>
       <c r="X489" s="2"/>
       <c r="Y489" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="Z489" t="s" s="2">
         <v>43</v>
@@ -58250,7 +58258,7 @@
         <v>43</v>
       </c>
       <c r="AE489" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF489" t="s" s="2">
         <v>50</v>
@@ -58279,7 +58287,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B490" s="2"/>
       <c r="C490" t="s" s="2">
@@ -58305,16 +58313,16 @@
         <v>180</v>
       </c>
       <c r="K490" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L490" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M490" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N490" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O490" t="s" s="2">
         <v>43</v>
@@ -58342,10 +58350,10 @@
         <v>116</v>
       </c>
       <c r="X490" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Y490" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Z490" t="s" s="2">
         <v>43</v>
@@ -58363,7 +58371,7 @@
         <v>43</v>
       </c>
       <c r="AE490" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF490" t="s" s="2">
         <v>41</v>
@@ -58392,7 +58400,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B491" s="2"/>
       <c r="C491" t="s" s="2">
@@ -58415,19 +58423,19 @@
         <v>43</v>
       </c>
       <c r="J491" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K491" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M491" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N491" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O491" t="s" s="2">
         <v>43</v>
@@ -58476,7 +58484,7 @@
         <v>43</v>
       </c>
       <c r="AE491" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF491" t="s" s="2">
         <v>41</v>
@@ -58505,7 +58513,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B492" s="2"/>
       <c r="C492" t="s" s="2">
@@ -58528,19 +58536,19 @@
         <v>43</v>
       </c>
       <c r="J492" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K492" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L492" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M492" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N492" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O492" t="s" s="2">
         <v>43</v>
@@ -58589,7 +58597,7 @@
         <v>43</v>
       </c>
       <c r="AE492" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF492" t="s" s="2">
         <v>41</v>
@@ -58618,10 +58626,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C493" t="s" s="2">
         <v>43</v>
@@ -58646,14 +58654,14 @@
         <v>374</v>
       </c>
       <c r="K493" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="L493" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M493" s="2"/>
       <c r="N493" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="O493" t="s" s="2">
         <v>43</v>
@@ -58702,7 +58710,7 @@
         <v>43</v>
       </c>
       <c r="AE493" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="AF493" t="s" s="2">
         <v>41</v>
@@ -58731,7 +58739,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" t="s" s="2">
@@ -58840,7 +58848,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" t="s" s="2">
@@ -58951,7 +58959,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" t="s" s="2">
@@ -59064,7 +59072,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B497" s="2"/>
       <c r="C497" t="s" s="2">
@@ -59090,16 +59098,16 @@
         <v>180</v>
       </c>
       <c r="K497" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L497" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O497" t="s" s="2">
         <v>43</v>
@@ -59128,7 +59136,7 @@
       </c>
       <c r="X497" s="2"/>
       <c r="Y497" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="Z497" t="s" s="2">
         <v>43</v>
@@ -59146,7 +59154,7 @@
         <v>43</v>
       </c>
       <c r="AE497" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF497" t="s" s="2">
         <v>50</v>
@@ -59175,7 +59183,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" t="s" s="2">
@@ -59201,16 +59209,16 @@
         <v>180</v>
       </c>
       <c r="K498" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L498" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M498" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N498" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O498" t="s" s="2">
         <v>43</v>
@@ -59238,10 +59246,10 @@
         <v>116</v>
       </c>
       <c r="X498" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Y498" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Z498" t="s" s="2">
         <v>43</v>
@@ -59259,7 +59267,7 @@
         <v>43</v>
       </c>
       <c r="AE498" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF498" t="s" s="2">
         <v>41</v>
@@ -59288,7 +59296,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" t="s" s="2">
@@ -59311,19 +59319,19 @@
         <v>43</v>
       </c>
       <c r="J499" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K499" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L499" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M499" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N499" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O499" t="s" s="2">
         <v>43</v>
@@ -59372,7 +59380,7 @@
         <v>43</v>
       </c>
       <c r="AE499" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF499" t="s" s="2">
         <v>41</v>
@@ -59401,7 +59409,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" t="s" s="2">
@@ -59424,19 +59432,19 @@
         <v>43</v>
       </c>
       <c r="J500" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K500" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L500" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M500" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N500" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O500" t="s" s="2">
         <v>43</v>
@@ -59485,7 +59493,7 @@
         <v>43</v>
       </c>
       <c r="AE500" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF500" t="s" s="2">
         <v>41</v>
@@ -59514,10 +59522,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C501" t="s" s="2">
         <v>43</v>
@@ -59542,14 +59550,14 @@
         <v>374</v>
       </c>
       <c r="K501" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="L501" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M501" s="2"/>
       <c r="N501" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="O501" t="s" s="2">
         <v>43</v>
@@ -59598,7 +59606,7 @@
         <v>43</v>
       </c>
       <c r="AE501" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="AF501" t="s" s="2">
         <v>41</v>
@@ -59627,7 +59635,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" t="s" s="2">
@@ -59736,7 +59744,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B503" s="2"/>
       <c r="C503" t="s" s="2">
@@ -59847,7 +59855,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B504" s="2"/>
       <c r="C504" t="s" s="2">
@@ -59960,7 +59968,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" t="s" s="2">
@@ -59986,16 +59994,16 @@
         <v>180</v>
       </c>
       <c r="K505" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L505" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M505" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N505" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O505" t="s" s="2">
         <v>43</v>
@@ -60024,7 +60032,7 @@
       </c>
       <c r="X505" s="2"/>
       <c r="Y505" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="Z505" t="s" s="2">
         <v>43</v>
@@ -60042,7 +60050,7 @@
         <v>43</v>
       </c>
       <c r="AE505" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF505" t="s" s="2">
         <v>50</v>
@@ -60071,7 +60079,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" t="s" s="2">
@@ -60180,7 +60188,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B507" s="2"/>
       <c r="C507" t="s" s="2">
@@ -60291,7 +60299,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" t="s" s="2">
@@ -60404,7 +60412,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B509" s="2"/>
       <c r="C509" t="s" s="2">
@@ -60513,7 +60521,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B510" s="2"/>
       <c r="C510" t="s" s="2">
@@ -60624,7 +60632,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B511" s="2"/>
       <c r="C511" t="s" s="2">
@@ -60737,7 +60745,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B512" s="2"/>
       <c r="C512" t="s" s="2">
@@ -60848,7 +60856,7 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B513" s="2"/>
       <c r="C513" t="s" s="2">
@@ -60891,7 +60899,7 @@
         <v>43</v>
       </c>
       <c r="R513" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="S513" t="s" s="2">
         <v>43</v>
@@ -60959,7 +60967,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" t="s" s="2">
@@ -61070,7 +61078,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B515" s="2"/>
       <c r="C515" t="s" s="2">
@@ -61183,7 +61191,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B516" s="2"/>
       <c r="C516" t="s" s="2">
@@ -61296,7 +61304,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B517" s="2"/>
       <c r="C517" t="s" s="2">
@@ -61322,16 +61330,16 @@
         <v>180</v>
       </c>
       <c r="K517" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L517" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M517" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N517" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O517" t="s" s="2">
         <v>43</v>
@@ -61360,7 +61368,7 @@
       </c>
       <c r="X517" s="2"/>
       <c r="Y517" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="Z517" t="s" s="2">
         <v>43</v>
@@ -61378,7 +61386,7 @@
         <v>43</v>
       </c>
       <c r="AE517" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF517" t="s" s="2">
         <v>41</v>
@@ -61407,7 +61415,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B518" s="2"/>
       <c r="C518" t="s" s="2">
@@ -61430,19 +61438,19 @@
         <v>43</v>
       </c>
       <c r="J518" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K518" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L518" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M518" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N518" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O518" t="s" s="2">
         <v>43</v>
@@ -61491,7 +61499,7 @@
         <v>43</v>
       </c>
       <c r="AE518" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF518" t="s" s="2">
         <v>41</v>
@@ -61520,7 +61528,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B519" s="2"/>
       <c r="C519" t="s" s="2">
@@ -61543,19 +61551,19 @@
         <v>43</v>
       </c>
       <c r="J519" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K519" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L519" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M519" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O519" t="s" s="2">
         <v>43</v>
@@ -61604,7 +61612,7 @@
         <v>43</v>
       </c>
       <c r="AE519" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF519" t="s" s="2">
         <v>41</v>
@@ -61633,10 +61641,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C520" t="s" s="2">
         <v>43</v>
@@ -61661,14 +61669,14 @@
         <v>374</v>
       </c>
       <c r="K520" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="L520" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M520" s="2"/>
       <c r="N520" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="O520" t="s" s="2">
         <v>43</v>
@@ -61717,7 +61725,7 @@
         <v>43</v>
       </c>
       <c r="AE520" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="AF520" t="s" s="2">
         <v>41</v>
@@ -61746,7 +61754,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B521" s="2"/>
       <c r="C521" t="s" s="2">
@@ -61855,7 +61863,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B522" s="2"/>
       <c r="C522" t="s" s="2">
@@ -61966,7 +61974,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B523" s="2"/>
       <c r="C523" t="s" s="2">
@@ -62079,7 +62087,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B524" s="2"/>
       <c r="C524" t="s" s="2">
@@ -62105,16 +62113,16 @@
         <v>180</v>
       </c>
       <c r="K524" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L524" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M524" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N524" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O524" t="s" s="2">
         <v>43</v>
@@ -62143,7 +62151,7 @@
       </c>
       <c r="X524" s="2"/>
       <c r="Y524" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="Z524" t="s" s="2">
         <v>43</v>
@@ -62161,7 +62169,7 @@
         <v>43</v>
       </c>
       <c r="AE524" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF524" t="s" s="2">
         <v>50</v>
@@ -62190,7 +62198,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B525" s="2"/>
       <c r="C525" t="s" s="2">
@@ -62299,7 +62307,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B526" s="2"/>
       <c r="C526" t="s" s="2">
@@ -62410,7 +62418,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B527" s="2"/>
       <c r="C527" t="s" s="2">
@@ -62523,7 +62531,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" t="s" s="2">
@@ -62632,7 +62640,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B529" s="2"/>
       <c r="C529" t="s" s="2">
@@ -62743,7 +62751,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B530" s="2"/>
       <c r="C530" t="s" s="2">
@@ -62856,7 +62864,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" t="s" s="2">
@@ -62967,7 +62975,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B532" s="2"/>
       <c r="C532" t="s" s="2">
@@ -63010,7 +63018,7 @@
         <v>43</v>
       </c>
       <c r="R532" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="S532" t="s" s="2">
         <v>43</v>
@@ -63078,7 +63086,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B533" s="2"/>
       <c r="C533" t="s" s="2">
@@ -63189,7 +63197,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B534" s="2"/>
       <c r="C534" t="s" s="2">
@@ -63302,7 +63310,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B535" s="2"/>
       <c r="C535" t="s" s="2">
@@ -63415,7 +63423,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B536" s="2"/>
       <c r="C536" t="s" s="2">
@@ -63441,16 +63449,16 @@
         <v>180</v>
       </c>
       <c r="K536" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L536" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N536" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O536" t="s" s="2">
         <v>43</v>
@@ -63478,10 +63486,10 @@
         <v>116</v>
       </c>
       <c r="X536" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Y536" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="Z536" t="s" s="2">
         <v>43</v>
@@ -63499,7 +63507,7 @@
         <v>43</v>
       </c>
       <c r="AE536" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF536" t="s" s="2">
         <v>41</v>
@@ -63528,7 +63536,7 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B537" s="2"/>
       <c r="C537" t="s" s="2">
@@ -63551,19 +63559,19 @@
         <v>43</v>
       </c>
       <c r="J537" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K537" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L537" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O537" t="s" s="2">
         <v>43</v>
@@ -63612,7 +63620,7 @@
         <v>43</v>
       </c>
       <c r="AE537" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AF537" t="s" s="2">
         <v>41</v>
@@ -63641,7 +63649,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B538" s="2"/>
       <c r="C538" t="s" s="2">
@@ -63664,19 +63672,19 @@
         <v>43</v>
       </c>
       <c r="J538" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="K538" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O538" t="s" s="2">
         <v>43</v>
@@ -63725,7 +63733,7 @@
         <v>43</v>
       </c>
       <c r="AE538" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF538" t="s" s="2">
         <v>41</v>
@@ -63754,7 +63762,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" t="s" s="2">
@@ -63780,16 +63788,16 @@
         <v>374</v>
       </c>
       <c r="K539" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="N539" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="O539" t="s" s="2">
         <v>43</v>
@@ -63838,7 +63846,7 @@
         <v>43</v>
       </c>
       <c r="AE539" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="AF539" t="s" s="2">
         <v>41</v>
@@ -63867,7 +63875,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" t="s" s="2">
@@ -63976,7 +63984,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" t="s" s="2">
@@ -64087,7 +64095,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B542" s="2"/>
       <c r="C542" t="s" s="2">
@@ -64200,7 +64208,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B543" s="2"/>
       <c r="C543" t="s" s="2">
@@ -64226,16 +64234,16 @@
         <v>180</v>
       </c>
       <c r="K543" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="O543" t="s" s="2">
         <v>43</v>
@@ -64264,7 +64272,7 @@
       </c>
       <c r="X543" s="2"/>
       <c r="Y543" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="Z543" t="s" s="2">
         <v>43</v>
@@ -64282,7 +64290,7 @@
         <v>43</v>
       </c>
       <c r="AE543" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="AF543" t="s" s="2">
         <v>50</v>
@@ -64311,7 +64319,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B544" s="2"/>
       <c r="C544" t="s" s="2">
@@ -64334,17 +64342,17 @@
         <v>51</v>
       </c>
       <c r="J544" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K544" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="L544" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="M544" s="2"/>
       <c r="N544" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="O544" t="s" s="2">
         <v>43</v>
@@ -64393,7 +64401,7 @@
         <v>43</v>
       </c>
       <c r="AE544" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="AF544" t="s" s="2">
         <v>50</v>
@@ -64422,7 +64430,7 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B545" s="2"/>
       <c r="C545" t="s" s="2">
@@ -64448,14 +64456,14 @@
         <v>374</v>
       </c>
       <c r="K545" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="M545" s="2"/>
       <c r="N545" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="O545" t="s" s="2">
         <v>43</v>
@@ -64504,7 +64512,7 @@
         <v>43</v>
       </c>
       <c r="AE545" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="AF545" t="s" s="2">
         <v>41</v>
@@ -64533,7 +64541,7 @@
     </row>
     <row r="546" hidden="true">
       <c r="A546" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B546" s="2"/>
       <c r="C546" t="s" s="2">
@@ -64642,7 +64650,7 @@
     </row>
     <row r="547" hidden="true">
       <c r="A547" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B547" s="2"/>
       <c r="C547" t="s" s="2">
@@ -64753,7 +64761,7 @@
     </row>
     <row r="548" hidden="true">
       <c r="A548" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B548" s="2"/>
       <c r="C548" t="s" s="2">
@@ -64866,7 +64874,7 @@
     </row>
     <row r="549" hidden="true">
       <c r="A549" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B549" s="2"/>
       <c r="C549" t="s" s="2">
@@ -64892,14 +64900,14 @@
         <v>180</v>
       </c>
       <c r="K549" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="L549" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="M549" s="2"/>
       <c r="N549" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="O549" t="s" s="2">
         <v>43</v>
@@ -64928,7 +64936,7 @@
       </c>
       <c r="X549" s="2"/>
       <c r="Y549" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="Z549" t="s" s="2">
         <v>43</v>
@@ -64946,7 +64954,7 @@
         <v>43</v>
       </c>
       <c r="AE549" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="AF549" t="s" s="2">
         <v>41</v>
@@ -64975,7 +64983,7 @@
     </row>
     <row r="550" hidden="true">
       <c r="A550" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B550" s="2"/>
       <c r="C550" t="s" s="2">
@@ -64998,19 +65006,19 @@
         <v>43</v>
       </c>
       <c r="J550" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K550" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="L550" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M550" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="N550" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="O550" t="s" s="2">
         <v>43</v>
@@ -65059,7 +65067,7 @@
         <v>43</v>
       </c>
       <c r="AE550" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="AF550" t="s" s="2">
         <v>41</v>
@@ -65088,7 +65096,7 @@
     </row>
     <row r="551" hidden="true">
       <c r="A551" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B551" s="2"/>
       <c r="C551" t="s" s="2">
@@ -65114,14 +65122,14 @@
         <v>180</v>
       </c>
       <c r="K551" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="L551" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="M551" s="2"/>
       <c r="N551" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="O551" t="s" s="2">
         <v>43</v>
@@ -65150,7 +65158,7 @@
       </c>
       <c r="X551" s="2"/>
       <c r="Y551" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="Z551" t="s" s="2">
         <v>43</v>
@@ -65168,7 +65176,7 @@
         <v>43</v>
       </c>
       <c r="AE551" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="AF551" t="s" s="2">
         <v>41</v>
@@ -65197,7 +65205,7 @@
     </row>
     <row r="552" hidden="true">
       <c r="A552" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B552" s="2"/>
       <c r="C552" t="s" s="2">
@@ -65223,14 +65231,14 @@
         <v>570</v>
       </c>
       <c r="K552" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="L552" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="M552" s="2"/>
       <c r="N552" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="O552" t="s" s="2">
         <v>43</v>
@@ -65279,7 +65287,7 @@
         <v>43</v>
       </c>
       <c r="AE552" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="AF552" t="s" s="2">
         <v>41</v>
@@ -65308,7 +65316,7 @@
     </row>
     <row r="553" hidden="true">
       <c r="A553" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B553" s="2"/>
       <c r="C553" t="s" s="2">
@@ -65331,17 +65339,17 @@
         <v>43</v>
       </c>
       <c r="J553" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K553" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="L553" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="M553" s="2"/>
       <c r="N553" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="O553" t="s" s="2">
         <v>43</v>
@@ -65390,7 +65398,7 @@
         <v>43</v>
       </c>
       <c r="AE553" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="AF553" t="s" s="2">
         <v>41</v>
@@ -65419,7 +65427,7 @@
     </row>
     <row r="554" hidden="true">
       <c r="A554" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B554" s="2"/>
       <c r="C554" t="s" s="2">
@@ -65445,16 +65453,16 @@
         <v>159</v>
       </c>
       <c r="K554" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="L554" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="O554" t="s" s="2">
         <v>43</v>
@@ -65503,7 +65511,7 @@
         <v>43</v>
       </c>
       <c r="AE554" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="AF554" t="s" s="2">
         <v>41</v>
@@ -65532,7 +65540,7 @@
     </row>
     <row r="555" hidden="true">
       <c r="A555" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B555" s="2"/>
       <c r="C555" t="s" s="2">
@@ -65558,16 +65566,16 @@
         <v>180</v>
       </c>
       <c r="K555" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="L555" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="M555" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="O555" t="s" s="2">
         <v>43</v>
@@ -65595,10 +65603,10 @@
         <v>116</v>
       </c>
       <c r="X555" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="Y555" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="Z555" t="s" s="2">
         <v>43</v>
@@ -65616,7 +65624,7 @@
         <v>43</v>
       </c>
       <c r="AE555" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="AF555" t="s" s="2">
         <v>41</v>
@@ -65645,7 +65653,7 @@
     </row>
     <row r="556" hidden="true">
       <c r="A556" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B556" s="2"/>
       <c r="C556" t="s" s="2">
@@ -65668,19 +65676,19 @@
         <v>43</v>
       </c>
       <c r="J556" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="K556" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="L556" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="O556" t="s" s="2">
         <v>43</v>
@@ -65729,7 +65737,7 @@
         <v>43</v>
       </c>
       <c r="AE556" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="AF556" t="s" s="2">
         <v>41</v>
@@ -65758,7 +65766,7 @@
     </row>
     <row r="557" hidden="true">
       <c r="A557" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B557" s="2"/>
       <c r="C557" t="s" s="2">
@@ -65784,14 +65792,14 @@
         <v>374</v>
       </c>
       <c r="K557" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="L557" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="M557" s="2"/>
       <c r="N557" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="O557" t="s" s="2">
         <v>43</v>
@@ -65840,7 +65848,7 @@
         <v>43</v>
       </c>
       <c r="AE557" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="AF557" t="s" s="2">
         <v>41</v>
@@ -65869,7 +65877,7 @@
     </row>
     <row r="558" hidden="true">
       <c r="A558" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B558" s="2"/>
       <c r="C558" t="s" s="2">
@@ -65978,7 +65986,7 @@
     </row>
     <row r="559" hidden="true">
       <c r="A559" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B559" s="2"/>
       <c r="C559" t="s" s="2">
@@ -66089,7 +66097,7 @@
     </row>
     <row r="560" hidden="true">
       <c r="A560" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B560" s="2"/>
       <c r="C560" t="s" s="2">
@@ -66202,7 +66210,7 @@
     </row>
     <row r="561" hidden="true">
       <c r="A561" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B561" s="2"/>
       <c r="C561" t="s" s="2">
@@ -66228,14 +66236,14 @@
         <v>483</v>
       </c>
       <c r="K561" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="L561" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="M561" s="2"/>
       <c r="N561" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="O561" t="s" s="2">
         <v>43</v>
@@ -66284,7 +66292,7 @@
         <v>43</v>
       </c>
       <c r="AE561" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="AF561" t="s" s="2">
         <v>41</v>
@@ -66313,7 +66321,7 @@
     </row>
     <row r="562" hidden="true">
       <c r="A562" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B562" s="2"/>
       <c r="C562" t="s" s="2">
@@ -66339,14 +66347,14 @@
         <v>126</v>
       </c>
       <c r="K562" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="L562" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="M562" s="2"/>
       <c r="N562" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="O562" t="s" s="2">
         <v>43</v>
@@ -66374,10 +66382,10 @@
         <v>174</v>
       </c>
       <c r="X562" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="Y562" t="s" s="2">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="Z562" t="s" s="2">
         <v>43</v>
@@ -66395,7 +66403,7 @@
         <v>43</v>
       </c>
       <c r="AE562" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="AF562" t="s" s="2">
         <v>41</v>
@@ -66424,7 +66432,7 @@
     </row>
     <row r="563" hidden="true">
       <c r="A563" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B563" s="2"/>
       <c r="C563" t="s" s="2">
@@ -66450,14 +66458,14 @@
         <v>52</v>
       </c>
       <c r="K563" t="s" s="2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="L563" t="s" s="2">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="M563" s="2"/>
       <c r="N563" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="O563" t="s" s="2">
         <v>43</v>
@@ -66506,7 +66514,7 @@
         <v>43</v>
       </c>
       <c r="AE563" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="AF563" t="s" s="2">
         <v>41</v>
@@ -66535,7 +66543,7 @@
     </row>
     <row r="564" hidden="true">
       <c r="A564" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B564" s="2"/>
       <c r="C564" t="s" s="2">
@@ -66561,16 +66569,16 @@
         <v>180</v>
       </c>
       <c r="K564" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="L564" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="O564" t="s" s="2">
         <v>43</v>
@@ -66619,7 +66627,7 @@
         <v>43</v>
       </c>
       <c r="AE564" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="AF564" t="s" s="2">
         <v>41</v>
@@ -66648,7 +66656,7 @@
     </row>
     <row r="565" hidden="true">
       <c r="A565" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B565" s="2"/>
       <c r="C565" t="s" s="2">
@@ -66674,16 +66682,16 @@
         <v>207</v>
       </c>
       <c r="K565" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="L565" t="s" s="2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="M565" t="s" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="N565" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="O565" t="s" s="2">
         <v>43</v>
@@ -66732,7 +66740,7 @@
         <v>43</v>
       </c>
       <c r="AE565" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="AF565" t="s" s="2">
         <v>41</v>
@@ -66761,7 +66769,7 @@
     </row>
     <row r="566" hidden="true">
       <c r="A566" t="s" s="2">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B566" s="2"/>
       <c r="C566" t="s" s="2">
@@ -66787,10 +66795,10 @@
         <v>374</v>
       </c>
       <c r="K566" t="s" s="2">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="L566" t="s" s="2">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="M566" s="2"/>
       <c r="N566" s="2"/>
@@ -66841,7 +66849,7 @@
         <v>43</v>
       </c>
       <c r="AE566" t="s" s="2">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="AF566" t="s" s="2">
         <v>41</v>
@@ -66870,7 +66878,7 @@
     </row>
     <row r="567" hidden="true">
       <c r="A567" t="s" s="2">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B567" s="2"/>
       <c r="C567" t="s" s="2">
@@ -66979,7 +66987,7 @@
     </row>
     <row r="568" hidden="true">
       <c r="A568" t="s" s="2">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B568" s="2"/>
       <c r="C568" t="s" s="2">
@@ -67090,7 +67098,7 @@
     </row>
     <row r="569" hidden="true">
       <c r="A569" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B569" s="2"/>
       <c r="C569" t="s" s="2">
@@ -67203,7 +67211,7 @@
     </row>
     <row r="570" hidden="true">
       <c r="A570" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B570" s="2"/>
       <c r="C570" t="s" s="2">
@@ -67229,16 +67237,16 @@
         <v>180</v>
       </c>
       <c r="K570" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L570" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="O570" t="s" s="2">
         <v>43</v>
@@ -67266,10 +67274,10 @@
         <v>116</v>
       </c>
       <c r="X570" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="Y570" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Z570" t="s" s="2">
         <v>43</v>
@@ -67287,7 +67295,7 @@
         <v>43</v>
       </c>
       <c r="AE570" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="AF570" t="s" s="2">
         <v>50</v>
@@ -67316,7 +67324,7 @@
     </row>
     <row r="571" hidden="true">
       <c r="A571" t="s" s="2">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B571" s="2"/>
       <c r="C571" t="s" s="2">
@@ -67342,14 +67350,14 @@
         <v>284</v>
       </c>
       <c r="K571" t="s" s="2">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="L571" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="M571" s="2"/>
       <c r="N571" t="s" s="2">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="O571" t="s" s="2">
         <v>43</v>
@@ -67398,7 +67406,7 @@
         <v>43</v>
       </c>
       <c r="AE571" t="s" s="2">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="AF571" t="s" s="2">
         <v>41</v>
@@ -67427,7 +67435,7 @@
     </row>
     <row r="572" hidden="true">
       <c r="A572" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B572" s="2"/>
       <c r="C572" t="s" s="2">
@@ -67453,16 +67461,16 @@
         <v>52</v>
       </c>
       <c r="K572" t="s" s="2">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="L572" t="s" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="O572" t="s" s="2">
         <v>43</v>
@@ -67511,7 +67519,7 @@
         <v>43</v>
       </c>
       <c r="AE572" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="AF572" t="s" s="2">
         <v>41</v>
@@ -67540,7 +67548,7 @@
     </row>
     <row r="573" hidden="true">
       <c r="A573" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B573" s="2"/>
       <c r="C573" t="s" s="2">
@@ -67566,16 +67574,16 @@
         <v>52</v>
       </c>
       <c r="K573" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="L573" t="s" s="2">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="M573" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="N573" t="s" s="2">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="O573" t="s" s="2">
         <v>43</v>
@@ -67624,7 +67632,7 @@
         <v>43</v>
       </c>
       <c r="AE573" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="AF573" t="s" s="2">
         <v>41</v>
@@ -67653,7 +67661,7 @@
     </row>
     <row r="574" hidden="true">
       <c r="A574" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B574" s="2"/>
       <c r="C574" t="s" s="2">
@@ -67679,14 +67687,14 @@
         <v>180</v>
       </c>
       <c r="K574" t="s" s="2">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="L574" t="s" s="2">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="M574" s="2"/>
       <c r="N574" t="s" s="2">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="O574" t="s" s="2">
         <v>43</v>
@@ -67714,10 +67722,10 @@
         <v>116</v>
       </c>
       <c r="X574" t="s" s="2">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="Y574" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="Z574" t="s" s="2">
         <v>43</v>
@@ -67735,7 +67743,7 @@
         <v>43</v>
       </c>
       <c r="AE574" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="AF574" t="s" s="2">
         <v>41</v>
@@ -67764,7 +67772,7 @@
     </row>
     <row r="575" hidden="true">
       <c r="A575" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B575" s="2"/>
       <c r="C575" t="s" s="2">
@@ -67790,14 +67798,14 @@
         <v>180</v>
       </c>
       <c r="K575" t="s" s="2">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="L575" t="s" s="2">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="M575" s="2"/>
       <c r="N575" t="s" s="2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="O575" t="s" s="2">
         <v>43</v>
@@ -67825,10 +67833,10 @@
         <v>116</v>
       </c>
       <c r="X575" t="s" s="2">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="Y575" t="s" s="2">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="Z575" t="s" s="2">
         <v>43</v>
@@ -67846,7 +67854,7 @@
         <v>43</v>
       </c>
       <c r="AE575" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="AF575" t="s" s="2">
         <v>41</v>
@@ -67875,7 +67883,7 @@
     </row>
     <row r="576" hidden="true">
       <c r="A576" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B576" s="2"/>
       <c r="C576" t="s" s="2">
@@ -67901,14 +67909,14 @@
         <v>180</v>
       </c>
       <c r="K576" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="L576" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="M576" s="2"/>
       <c r="N576" t="s" s="2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="O576" t="s" s="2">
         <v>43</v>
@@ -67936,10 +67944,10 @@
         <v>116</v>
       </c>
       <c r="X576" t="s" s="2">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="Y576" t="s" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="Z576" t="s" s="2">
         <v>43</v>
@@ -67957,7 +67965,7 @@
         <v>43</v>
       </c>
       <c r="AE576" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="AF576" t="s" s="2">
         <v>41</v>
@@ -67986,7 +67994,7 @@
     </row>
     <row r="577" hidden="true">
       <c r="A577" t="s" s="2">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B577" s="2"/>
       <c r="C577" t="s" s="2">
@@ -68012,10 +68020,10 @@
         <v>374</v>
       </c>
       <c r="K577" t="s" s="2">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="L577" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="M577" s="2"/>
       <c r="N577" s="2"/>
@@ -68066,7 +68074,7 @@
         <v>43</v>
       </c>
       <c r="AE577" t="s" s="2">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="AF577" t="s" s="2">
         <v>41</v>
@@ -68095,7 +68103,7 @@
     </row>
     <row r="578" hidden="true">
       <c r="A578" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B578" s="2"/>
       <c r="C578" t="s" s="2">
@@ -68204,7 +68212,7 @@
     </row>
     <row r="579" hidden="true">
       <c r="A579" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B579" s="2"/>
       <c r="C579" t="s" s="2">
@@ -68315,7 +68323,7 @@
     </row>
     <row r="580" hidden="true">
       <c r="A580" t="s" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B580" s="2"/>
       <c r="C580" t="s" s="2">
@@ -68428,7 +68436,7 @@
     </row>
     <row r="581" hidden="true">
       <c r="A581" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B581" s="2"/>
       <c r="C581" t="s" s="2">
@@ -68454,16 +68462,16 @@
         <v>180</v>
       </c>
       <c r="K581" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L581" t="s" s="2">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="M581" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="N581" t="s" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="O581" t="s" s="2">
         <v>43</v>
@@ -68491,10 +68499,10 @@
         <v>116</v>
       </c>
       <c r="X581" t="s" s="2">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="Y581" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="Z581" t="s" s="2">
         <v>43</v>
@@ -68512,7 +68520,7 @@
         <v>43</v>
       </c>
       <c r="AE581" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="AF581" t="s" s="2">
         <v>50</v>
@@ -68541,7 +68549,7 @@
     </row>
     <row r="582" hidden="true">
       <c r="A582" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B582" s="2"/>
       <c r="C582" t="s" s="2">
@@ -68564,17 +68572,17 @@
         <v>43</v>
       </c>
       <c r="J582" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="K582" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="L582" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="M582" s="2"/>
       <c r="N582" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="O582" t="s" s="2">
         <v>43</v>
@@ -68623,7 +68631,7 @@
         <v>43</v>
       </c>
       <c r="AE582" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="AF582" t="s" s="2">
         <v>41</v>
@@ -68652,7 +68660,7 @@
     </row>
     <row r="583" hidden="true">
       <c r="A583" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B583" s="2"/>
       <c r="C583" t="s" s="2">
@@ -68675,17 +68683,17 @@
         <v>43</v>
       </c>
       <c r="J583" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="K583" t="s" s="2">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="L583" t="s" s="2">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="M583" s="2"/>
       <c r="N583" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="O583" t="s" s="2">
         <v>43</v>
@@ -68734,7 +68742,7 @@
         <v>43</v>
       </c>
       <c r="AE583" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="AF583" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -2570,7 +2570,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationPayerValueCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodesVS</t>
   </si>
   <si>
     <t>denialreason</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -766,13 +766,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/ValueSet/claim-type"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/claim-type"/&gt;
     &lt;code value="institutional"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
+    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15268" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15268" uniqueCount="1106">
   <si>
     <t>Path</t>
   </si>
@@ -2990,14 +2990,6 @@
   </si>
   <si>
     <t>Benefit Payment Status</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
-    &lt;code value="inoutnetwork"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
@@ -46544,7 +46536,7 @@
         <v>43</v>
       </c>
       <c r="R385" t="s" s="2">
-        <v>950</v>
+        <v>43</v>
       </c>
       <c r="S385" t="s" s="2">
         <v>43</v>
@@ -46563,7 +46555,7 @@
       </c>
       <c r="X385" s="2"/>
       <c r="Y385" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46949,7 +46941,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46975,16 +46967,16 @@
         <v>334</v>
       </c>
       <c r="K389" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="L389" t="s" s="2">
         <v>953</v>
       </c>
-      <c r="L389" t="s" s="2">
+      <c r="M389" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="M389" t="s" s="2">
+      <c r="N389" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="N389" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -47033,7 +47025,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -47062,7 +47054,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47171,7 +47163,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47282,7 +47274,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47395,7 +47387,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47424,13 +47416,13 @@
         <v>791</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M393" t="s" s="2">
         <v>793</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47459,7 +47451,7 @@
       </c>
       <c r="X393" s="2"/>
       <c r="Y393" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="Z393" t="s" s="2">
         <v>43</v>
@@ -47477,7 +47469,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>50</v>
@@ -47506,7 +47498,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47532,14 +47524,14 @@
         <v>746</v>
       </c>
       <c r="K394" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="L394" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="L394" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="M394" s="2"/>
       <c r="N394" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47588,7 +47580,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>50</v>
@@ -47617,7 +47609,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47643,14 +47635,14 @@
         <v>334</v>
       </c>
       <c r="K395" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="L395" t="s" s="2">
         <v>969</v>
-      </c>
-      <c r="L395" t="s" s="2">
-        <v>970</v>
       </c>
       <c r="M395" s="2"/>
       <c r="N395" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47699,7 +47691,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47728,7 +47720,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47837,7 +47829,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47948,7 +47940,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -48061,7 +48053,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48087,14 +48079,14 @@
         <v>180</v>
       </c>
       <c r="K399" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="L399" t="s" s="2">
         <v>976</v>
-      </c>
-      <c r="L399" t="s" s="2">
-        <v>977</v>
       </c>
       <c r="M399" s="2"/>
       <c r="N399" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -48123,7 +48115,7 @@
       </c>
       <c r="X399" s="2"/>
       <c r="Y399" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Z399" t="s" s="2">
         <v>43</v>
@@ -48141,7 +48133,7 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
@@ -48170,7 +48162,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48196,16 +48188,16 @@
         <v>746</v>
       </c>
       <c r="K400" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="L400" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="L400" t="s" s="2">
+      <c r="M400" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="M400" t="s" s="2">
+      <c r="N400" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N400" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48254,7 +48246,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -48283,7 +48275,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48309,14 +48301,14 @@
         <v>180</v>
       </c>
       <c r="K401" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="L401" t="s" s="2">
         <v>986</v>
-      </c>
-      <c r="L401" t="s" s="2">
-        <v>987</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48363,7 +48355,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48392,7 +48384,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48418,14 +48410,14 @@
         <v>526</v>
       </c>
       <c r="K402" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="L402" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="L402" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="M402" s="2"/>
       <c r="N402" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48474,7 +48466,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48503,7 +48495,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48529,14 +48521,14 @@
         <v>746</v>
       </c>
       <c r="K403" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="L403" t="s" s="2">
         <v>994</v>
-      </c>
-      <c r="L403" t="s" s="2">
-        <v>995</v>
       </c>
       <c r="M403" s="2"/>
       <c r="N403" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48585,7 +48577,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48614,7 +48606,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48640,16 +48632,16 @@
         <v>159</v>
       </c>
       <c r="K404" t="s" s="2">
+        <v>997</v>
+      </c>
+      <c r="L404" t="s" s="2">
         <v>998</v>
       </c>
-      <c r="L404" t="s" s="2">
+      <c r="M404" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="M404" t="s" s="2">
+      <c r="N404" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="N404" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48698,7 +48690,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48727,7 +48719,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48753,16 +48745,16 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="L405" t="s" s="2">
         <v>1003</v>
       </c>
-      <c r="L405" t="s" s="2">
+      <c r="M405" t="s" s="2">
         <v>1004</v>
       </c>
-      <c r="M405" t="s" s="2">
+      <c r="N405" t="s" s="2">
         <v>1005</v>
-      </c>
-      <c r="N405" t="s" s="2">
-        <v>1006</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48790,11 +48782,11 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="Y405" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="Y405" t="s" s="2">
-        <v>1008</v>
-      </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
       </c>
@@ -48811,7 +48803,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48840,7 +48832,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48863,19 +48855,19 @@
         <v>43</v>
       </c>
       <c r="J406" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="K406" t="s" s="2">
         <v>1010</v>
       </c>
-      <c r="K406" t="s" s="2">
+      <c r="L406" t="s" s="2">
         <v>1011</v>
       </c>
-      <c r="L406" t="s" s="2">
+      <c r="M406" t="s" s="2">
         <v>1012</v>
       </c>
-      <c r="M406" t="s" s="2">
+      <c r="N406" t="s" s="2">
         <v>1013</v>
-      </c>
-      <c r="N406" t="s" s="2">
-        <v>1014</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48924,7 +48916,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48953,7 +48945,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48979,14 +48971,14 @@
         <v>334</v>
       </c>
       <c r="K407" t="s" s="2">
+        <v>1015</v>
+      </c>
+      <c r="L407" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="L407" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O407" t="s" s="2">
         <v>43</v>
@@ -49035,7 +49027,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -49064,7 +49056,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49173,7 +49165,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49284,7 +49276,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49397,7 +49389,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49423,14 +49415,14 @@
         <v>443</v>
       </c>
       <c r="K411" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="L411" t="s" s="2">
         <v>1023</v>
-      </c>
-      <c r="L411" t="s" s="2">
-        <v>1024</v>
       </c>
       <c r="M411" s="2"/>
       <c r="N411" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49479,7 +49471,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
@@ -49508,7 +49500,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49534,14 +49526,14 @@
         <v>126</v>
       </c>
       <c r="K412" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="L412" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="L412" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49569,11 +49561,11 @@
         <v>174</v>
       </c>
       <c r="X412" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="Y412" t="s" s="2">
         <v>1030</v>
       </c>
-      <c r="Y412" t="s" s="2">
-        <v>1031</v>
-      </c>
       <c r="Z412" t="s" s="2">
         <v>43</v>
       </c>
@@ -49590,7 +49582,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49619,7 +49611,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49645,14 +49637,14 @@
         <v>52</v>
       </c>
       <c r="K413" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L413" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L413" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49701,7 +49693,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>
@@ -49730,7 +49722,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49756,16 +49748,16 @@
         <v>180</v>
       </c>
       <c r="K414" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="L414" t="s" s="2">
         <v>1037</v>
       </c>
-      <c r="L414" t="s" s="2">
+      <c r="M414" t="s" s="2">
         <v>1038</v>
       </c>
-      <c r="M414" t="s" s="2">
+      <c r="N414" t="s" s="2">
         <v>1039</v>
-      </c>
-      <c r="N414" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="O414" t="s" s="2">
         <v>43</v>
@@ -49814,7 +49806,7 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
@@ -49843,7 +49835,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49869,16 +49861,16 @@
         <v>207</v>
       </c>
       <c r="K415" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="L415" t="s" s="2">
         <v>1042</v>
       </c>
-      <c r="L415" t="s" s="2">
+      <c r="M415" t="s" s="2">
         <v>1043</v>
       </c>
-      <c r="M415" t="s" s="2">
+      <c r="N415" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="N415" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="O415" t="s" s="2">
         <v>43</v>
@@ -49927,7 +49919,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -49956,7 +49948,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
@@ -49982,10 +49974,10 @@
         <v>334</v>
       </c>
       <c r="K416" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="L416" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="L416" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
@@ -50036,7 +50028,7 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>41</v>
@@ -50065,7 +50057,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50174,7 +50166,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50285,7 +50277,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
@@ -50398,7 +50390,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50433,7 +50425,7 @@
         <v>705</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="O420" t="s" s="2">
         <v>43</v>
@@ -50482,7 +50474,7 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AF420" t="s" s="2">
         <v>50</v>
@@ -50511,7 +50503,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50537,14 +50529,14 @@
         <v>454</v>
       </c>
       <c r="K421" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="L421" t="s" s="2">
         <v>1055</v>
-      </c>
-      <c r="L421" t="s" s="2">
-        <v>1056</v>
       </c>
       <c r="M421" s="2"/>
       <c r="N421" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
@@ -50593,7 +50585,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50622,7 +50614,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50648,16 +50640,16 @@
         <v>52</v>
       </c>
       <c r="K422" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="L422" t="s" s="2">
         <v>1059</v>
       </c>
-      <c r="L422" t="s" s="2">
+      <c r="M422" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="M422" t="s" s="2">
+      <c r="N422" t="s" s="2">
         <v>1061</v>
-      </c>
-      <c r="N422" t="s" s="2">
-        <v>1062</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>43</v>
@@ -50706,7 +50698,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
@@ -50735,7 +50727,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
@@ -50761,16 +50753,16 @@
         <v>52</v>
       </c>
       <c r="K423" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="L423" t="s" s="2">
         <v>1064</v>
       </c>
-      <c r="L423" t="s" s="2">
+      <c r="M423" t="s" s="2">
         <v>1065</v>
       </c>
-      <c r="M423" t="s" s="2">
+      <c r="N423" t="s" s="2">
         <v>1066</v>
-      </c>
-      <c r="N423" t="s" s="2">
-        <v>1067</v>
       </c>
       <c r="O423" t="s" s="2">
         <v>43</v>
@@ -50819,7 +50811,7 @@
         <v>43</v>
       </c>
       <c r="AE423" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AF423" t="s" s="2">
         <v>41</v>
@@ -50848,7 +50840,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -50874,14 +50866,14 @@
         <v>180</v>
       </c>
       <c r="K424" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="L424" t="s" s="2">
         <v>1069</v>
-      </c>
-      <c r="L424" t="s" s="2">
-        <v>1070</v>
       </c>
       <c r="M424" s="2"/>
       <c r="N424" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="O424" t="s" s="2">
         <v>43</v>
@@ -50909,11 +50901,11 @@
         <v>116</v>
       </c>
       <c r="X424" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="Y424" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="Y424" t="s" s="2">
-        <v>1073</v>
-      </c>
       <c r="Z424" t="s" s="2">
         <v>43</v>
       </c>
@@ -50930,7 +50922,7 @@
         <v>43</v>
       </c>
       <c r="AE424" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AF424" t="s" s="2">
         <v>41</v>
@@ -50959,7 +50951,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
@@ -50985,14 +50977,14 @@
         <v>180</v>
       </c>
       <c r="K425" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="L425" t="s" s="2">
         <v>1075</v>
-      </c>
-      <c r="L425" t="s" s="2">
-        <v>1076</v>
       </c>
       <c r="M425" s="2"/>
       <c r="N425" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O425" t="s" s="2">
         <v>43</v>
@@ -51020,11 +51012,11 @@
         <v>116</v>
       </c>
       <c r="X425" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="Y425" t="s" s="2">
         <v>1078</v>
       </c>
-      <c r="Y425" t="s" s="2">
-        <v>1079</v>
-      </c>
       <c r="Z425" t="s" s="2">
         <v>43</v>
       </c>
@@ -51041,7 +51033,7 @@
         <v>43</v>
       </c>
       <c r="AE425" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>41</v>
@@ -51070,7 +51062,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
@@ -51096,14 +51088,14 @@
         <v>180</v>
       </c>
       <c r="K426" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="L426" t="s" s="2">
         <v>1081</v>
-      </c>
-      <c r="L426" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="M426" s="2"/>
       <c r="N426" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O426" t="s" s="2">
         <v>43</v>
@@ -51131,11 +51123,11 @@
         <v>116</v>
       </c>
       <c r="X426" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="Y426" t="s" s="2">
         <v>1083</v>
       </c>
-      <c r="Y426" t="s" s="2">
-        <v>1084</v>
-      </c>
       <c r="Z426" t="s" s="2">
         <v>43</v>
       </c>
@@ -51152,7 +51144,7 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
@@ -51181,7 +51173,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
@@ -51207,10 +51199,10 @@
         <v>334</v>
       </c>
       <c r="K427" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L427" t="s" s="2">
         <v>1086</v>
-      </c>
-      <c r="L427" t="s" s="2">
-        <v>1087</v>
       </c>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
@@ -51261,7 +51253,7 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>41</v>
@@ -51290,7 +51282,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
@@ -51399,7 +51391,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51510,7 +51502,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
@@ -51623,7 +51615,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51652,13 +51644,13 @@
         <v>703</v>
       </c>
       <c r="L431" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="M431" t="s" s="2">
         <v>1092</v>
       </c>
-      <c r="M431" t="s" s="2">
+      <c r="N431" t="s" s="2">
         <v>1093</v>
-      </c>
-      <c r="N431" t="s" s="2">
-        <v>1094</v>
       </c>
       <c r="O431" t="s" s="2">
         <v>43</v>
@@ -51686,11 +51678,11 @@
         <v>116</v>
       </c>
       <c r="X431" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="Y431" t="s" s="2">
         <v>1095</v>
       </c>
-      <c r="Y431" t="s" s="2">
-        <v>1096</v>
-      </c>
       <c r="Z431" t="s" s="2">
         <v>43</v>
       </c>
@@ -51707,7 +51699,7 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>50</v>
@@ -51736,7 +51728,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" t="s" s="2">
@@ -51759,17 +51751,17 @@
         <v>43</v>
       </c>
       <c r="J432" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="K432" t="s" s="2">
         <v>1098</v>
       </c>
-      <c r="K432" t="s" s="2">
+      <c r="L432" t="s" s="2">
         <v>1099</v>
-      </c>
-      <c r="L432" t="s" s="2">
-        <v>1100</v>
       </c>
       <c r="M432" s="2"/>
       <c r="N432" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="O432" t="s" s="2">
         <v>43</v>
@@ -51818,7 +51810,7 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
@@ -51847,7 +51839,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
@@ -51870,17 +51862,17 @@
         <v>43</v>
       </c>
       <c r="J433" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="K433" t="s" s="2">
         <v>1103</v>
       </c>
-      <c r="K433" t="s" s="2">
+      <c r="L433" t="s" s="2">
         <v>1104</v>
-      </c>
-      <c r="L433" t="s" s="2">
-        <v>1105</v>
       </c>
       <c r="M433" s="2"/>
       <c r="N433" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="O433" t="s" s="2">
         <v>43</v>
@@ -51929,7 +51921,7 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$452</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15268" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15910" uniqueCount="1129">
   <si>
     <t>Path</t>
   </si>
@@ -2965,12 +2965,34 @@
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:extension(http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType
+).valueCodeableConcept}
+</t>
+  </si>
+  <si>
     <t>ExplanationOfBenefit.adjudication.id</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>adjudication-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
   </si>
   <si>
@@ -2986,10 +3008,76 @@
     <t>ExplanationOfBenefit.adjudication.value</t>
   </si>
   <si>
+    <t>ExplanationOfBenefit.adjudication.extension.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.extension.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/AdjudicationSliceCodesCS"/&gt;
+    &lt;code value="adjudicationamounttype"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationSlideCodesVS</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/AdjudicationSliceCodesCS"/&gt;
+    &lt;code value="denialreason"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>inoutnetwork</t>
   </si>
   <si>
     <t>Benefit Payment Status</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/AdjudicationSliceCodesCS"/&gt;
+    &lt;code value="inoutnetwork"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
@@ -3609,7 +3697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM433"/>
+  <dimension ref="A1:AM452"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3644,7 +3732,7 @@
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.2109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="79.359375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -43431,7 +43519,7 @@
         <v>43</v>
       </c>
       <c r="AA357" t="s" s="2">
-        <v>476</v>
+        <v>941</v>
       </c>
       <c r="AB357" t="s" s="2">
         <v>477</v>
@@ -43472,7 +43560,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43581,15 +43669,15 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F359" t="s" s="2">
         <v>42</v>
@@ -43607,14 +43695,12 @@
         <v>70</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>71</v>
+        <v>944</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M359" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="M359" s="2"/>
       <c r="N359" s="2"/>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43651,16 +43737,14 @@
         <v>43</v>
       </c>
       <c r="AA359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB359" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB359" s="2"/>
       <c r="AC359" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD359" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE359" t="s" s="2">
         <v>77</v>
@@ -43687,48 +43771,46 @@
         <v>43</v>
       </c>
       <c r="AM359" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="360" hidden="true">
+    <row r="360">
       <c r="A360" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="B360" s="2"/>
+      <c r="B360" t="s" s="2">
+        <v>946</v>
+      </c>
       <c r="C360" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G360" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H360" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I360" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>70</v>
+        <v>947</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>343</v>
+        <v>944</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M360" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N360" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="M360" s="2"/>
+      <c r="N360" s="2"/>
       <c r="O360" t="s" s="2">
         <v>43</v>
       </c>
@@ -43776,7 +43858,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43785,7 +43867,7 @@
         <v>42</v>
       </c>
       <c r="AH360" t="s" s="2">
-        <v>43</v>
+        <v>948</v>
       </c>
       <c r="AI360" t="s" s="2">
         <v>78</v>
@@ -43800,47 +43882,47 @@
         <v>43</v>
       </c>
       <c r="AM360" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F361" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G361" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H361" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H361" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I361" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>791</v>
+        <v>343</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>792</v>
+        <v>344</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>793</v>
+        <v>73</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>794</v>
+        <v>156</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43865,11 +43947,13 @@
         <v>43</v>
       </c>
       <c r="W361" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X361" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y361" t="s" s="2">
-        <v>795</v>
+        <v>43</v>
       </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
@@ -43887,19 +43971,19 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>790</v>
+        <v>345</v>
       </c>
       <c r="AF361" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>43</v>
@@ -43911,12 +43995,12 @@
         <v>43</v>
       </c>
       <c r="AM361" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="362" hidden="true">
+    <row r="362">
       <c r="A362" t="s" s="2">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43924,13 +44008,13 @@
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F362" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G362" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H362" t="s" s="2">
         <v>43</v>
@@ -43942,16 +44026,16 @@
         <v>180</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43976,13 +44060,11 @@
         <v>43</v>
       </c>
       <c r="W362" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X362" t="s" s="2">
-        <v>801</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X362" s="2"/>
       <c r="Y362" t="s" s="2">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
@@ -44000,10 +44082,10 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="AF362" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG362" t="s" s="2">
         <v>50</v>
@@ -44029,7 +44111,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44052,19 +44134,19 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>746</v>
+        <v>180</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44089,13 +44171,13 @@
         <v>43</v>
       </c>
       <c r="W363" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X363" t="s" s="2">
-        <v>43</v>
+        <v>801</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>43</v>
+        <v>802</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44113,7 +44195,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44142,7 +44224,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44165,19 +44247,19 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44226,7 +44308,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44253,13 +44335,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="B365" t="s" s="2">
-        <v>813</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
         <v>43</v>
       </c>
@@ -44268,10 +44348,10 @@
         <v>41</v>
       </c>
       <c r="F365" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G365" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H365" t="s" s="2">
         <v>43</v>
@@ -44280,17 +44360,19 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>334</v>
+        <v>751</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>939</v>
-      </c>
-      <c r="M365" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="N365" t="s" s="2">
-        <v>940</v>
+        <v>812</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44339,13 +44421,13 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>937</v>
+        <v>808</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>43</v>
@@ -44366,11 +44448,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" hidden="true">
+    <row r="366">
       <c r="A366" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="B366" s="2"/>
+        <v>937</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>813</v>
+      </c>
       <c r="C366" t="s" s="2">
         <v>43</v>
       </c>
@@ -44379,10 +44463,10 @@
         <v>41</v>
       </c>
       <c r="F366" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G366" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H366" t="s" s="2">
         <v>43</v>
@@ -44391,16 +44475,18 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>52</v>
+        <v>334</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>64</v>
+        <v>814</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>65</v>
+        <v>939</v>
       </c>
       <c r="M366" s="2"/>
-      <c r="N366" s="2"/>
+      <c r="N366" t="s" s="2">
+        <v>940</v>
+      </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
       </c>
@@ -44448,19 +44534,19 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>66</v>
+        <v>937</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI366" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ366" t="s" s="2">
         <v>43</v>
@@ -44472,7 +44558,7 @@
         <v>43</v>
       </c>
       <c r="AM366" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="367" hidden="true">
@@ -44481,14 +44567,14 @@
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F367" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G367" t="s" s="2">
         <v>43</v>
@@ -44500,17 +44586,15 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M367" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M367" s="2"/>
       <c r="N367" s="2"/>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44559,19 +44643,19 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI367" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ367" t="s" s="2">
         <v>43</v>
@@ -44592,11 +44676,11 @@
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F368" t="s" s="2">
         <v>42</v>
@@ -44605,26 +44689,22 @@
         <v>43</v>
       </c>
       <c r="H368" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I368" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>343</v>
+        <v>944</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M368" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N368" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="M368" s="2"/>
+      <c r="N368" s="2"/>
       <c r="O368" t="s" s="2">
         <v>43</v>
       </c>
@@ -44660,19 +44740,17 @@
         <v>43</v>
       </c>
       <c r="AA368" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB368" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB368" s="2"/>
       <c r="AC368" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD368" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44696,14 +44774,16 @@
         <v>43</v>
       </c>
       <c r="AM368" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="369" hidden="true">
+    <row r="369">
       <c r="A369" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="B369" s="2"/>
+        <v>943</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>946</v>
+      </c>
       <c r="C369" t="s" s="2">
         <v>43</v>
       </c>
@@ -44715,7 +44795,7 @@
         <v>50</v>
       </c>
       <c r="G369" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H369" t="s" s="2">
         <v>43</v>
@@ -44724,20 +44804,16 @@
         <v>43</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>180</v>
+        <v>947</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>791</v>
+        <v>944</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="M369" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="M369" s="2"/>
+      <c r="N369" s="2"/>
       <c r="O369" t="s" s="2">
         <v>43</v>
       </c>
@@ -44761,11 +44837,13 @@
         <v>43</v>
       </c>
       <c r="W369" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X369" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y369" t="s" s="2">
-        <v>815</v>
+        <v>43</v>
       </c>
       <c r="Z369" t="s" s="2">
         <v>43</v>
@@ -44783,19 +44861,19 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>790</v>
+        <v>77</v>
       </c>
       <c r="AF369" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH369" t="s" s="2">
-        <v>43</v>
+        <v>948</v>
       </c>
       <c r="AI369" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ369" t="s" s="2">
         <v>43</v>
@@ -44812,7 +44890,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44835,20 +44913,16 @@
         <v>43</v>
       </c>
       <c r="J370" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>797</v>
+        <v>64</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="M370" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N370" t="s" s="2">
-        <v>800</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M370" s="2"/>
+      <c r="N370" s="2"/>
       <c r="O370" t="s" s="2">
         <v>43</v>
       </c>
@@ -44872,13 +44946,13 @@
         <v>43</v>
       </c>
       <c r="W370" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X370" t="s" s="2">
-        <v>801</v>
+        <v>43</v>
       </c>
       <c r="Y370" t="s" s="2">
-        <v>802</v>
+        <v>43</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44896,7 +44970,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>796</v>
+        <v>66</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
@@ -44908,7 +44982,7 @@
         <v>43</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ370" t="s" s="2">
         <v>43</v>
@@ -44920,12 +44994,12 @@
         <v>43</v>
       </c>
       <c r="AM370" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44933,10 +45007,10 @@
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F371" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G371" t="s" s="2">
         <v>43</v>
@@ -44948,20 +45022,16 @@
         <v>43</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>746</v>
+        <v>70</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>804</v>
+        <v>944</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="M371" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N371" t="s" s="2">
-        <v>807</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="M371" s="2"/>
+      <c r="N371" s="2"/>
       <c r="O371" t="s" s="2">
         <v>43</v>
       </c>
@@ -44997,31 +45067,31 @@
         <v>43</v>
       </c>
       <c r="AA371" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AB371" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AC371" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD371" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>803</v>
+        <v>77</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH371" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI371" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ371" t="s" s="2">
         <v>43</v>
@@ -45038,7 +45108,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45046,7 +45116,7 @@
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F372" t="s" s="2">
         <v>50</v>
@@ -45061,26 +45131,24 @@
         <v>43</v>
       </c>
       <c r="J372" t="s" s="2">
-        <v>751</v>
+        <v>92</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>809</v>
+        <v>957</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>810</v>
+        <v>958</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N372" t="s" s="2">
-        <v>812</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="N372" s="2"/>
       <c r="O372" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P372" s="2"/>
       <c r="Q372" t="s" s="2">
-        <v>43</v>
+        <v>960</v>
       </c>
       <c r="R372" t="s" s="2">
         <v>43</v>
@@ -45122,10 +45190,10 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>808</v>
+        <v>961</v>
       </c>
       <c r="AF372" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG372" t="s" s="2">
         <v>50</v>
@@ -45134,7 +45202,7 @@
         <v>43</v>
       </c>
       <c r="AI372" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ372" t="s" s="2">
         <v>43</v>
@@ -45146,22 +45214,20 @@
         <v>43</v>
       </c>
       <c r="AM372" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="B373" t="s" s="2">
-        <v>816</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F373" t="s" s="2">
         <v>50</v>
@@ -45176,18 +45242,16 @@
         <v>43</v>
       </c>
       <c r="J373" t="s" s="2">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>817</v>
+        <v>963</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>939</v>
+        <v>964</v>
       </c>
       <c r="M373" s="2"/>
-      <c r="N373" t="s" s="2">
-        <v>940</v>
-      </c>
+      <c r="N373" s="2"/>
       <c r="O373" t="s" s="2">
         <v>43</v>
       </c>
@@ -45223,25 +45287,23 @@
         <v>43</v>
       </c>
       <c r="AA373" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB373" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="AB373" s="2"/>
       <c r="AC373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD373" t="s" s="2">
-        <v>43</v>
+        <v>566</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>937</v>
+        <v>965</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>43</v>
@@ -45259,14 +45321,16 @@
         <v>43</v>
       </c>
       <c r="AM373" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="B374" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>966</v>
+      </c>
       <c r="C374" t="s" s="2">
         <v>43</v>
       </c>
@@ -45287,13 +45351,13 @@
         <v>43</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>64</v>
+        <v>963</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>65</v>
+        <v>964</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" s="2"/>
@@ -45305,7 +45369,7 @@
         <v>43</v>
       </c>
       <c r="R374" t="s" s="2">
-        <v>43</v>
+        <v>967</v>
       </c>
       <c r="S374" t="s" s="2">
         <v>43</v>
@@ -45320,13 +45384,11 @@
         <v>43</v>
       </c>
       <c r="W374" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X374" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X374" s="2"/>
       <c r="Y374" t="s" s="2">
-        <v>43</v>
+        <v>968</v>
       </c>
       <c r="Z374" t="s" s="2">
         <v>43</v>
@@ -45344,7 +45406,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>66</v>
+        <v>965</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45356,7 +45418,7 @@
         <v>43</v>
       </c>
       <c r="AI374" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ374" t="s" s="2">
         <v>43</v>
@@ -45368,16 +45430,16 @@
         <v>43</v>
       </c>
       <c r="AM374" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
@@ -45390,24 +45452,26 @@
         <v>43</v>
       </c>
       <c r="H375" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I375" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J375" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="M375" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N375" s="2"/>
+      <c r="N375" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
       </c>
@@ -45455,7 +45519,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45479,47 +45543,47 @@
         <v>43</v>
       </c>
       <c r="AM375" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F376" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G376" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H376" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I376" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J376" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>343</v>
+        <v>791</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>344</v>
+        <v>792</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>73</v>
+        <v>793</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>156</v>
+        <v>794</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45544,13 +45608,11 @@
         <v>43</v>
       </c>
       <c r="W376" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X376" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X376" s="2"/>
       <c r="Y376" t="s" s="2">
-        <v>43</v>
+        <v>815</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45568,19 +45630,19 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>345</v>
+        <v>790</v>
       </c>
       <c r="AF376" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI376" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ376" t="s" s="2">
         <v>43</v>
@@ -45592,12 +45654,12 @@
         <v>43</v>
       </c>
       <c r="AM376" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45605,7 +45667,7 @@
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F377" t="s" s="2">
         <v>50</v>
@@ -45623,16 +45685,16 @@
         <v>180</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45642,7 +45704,7 @@
         <v>43</v>
       </c>
       <c r="R377" t="s" s="2">
-        <v>818</v>
+        <v>43</v>
       </c>
       <c r="S377" t="s" s="2">
         <v>43</v>
@@ -45657,11 +45719,13 @@
         <v>43</v>
       </c>
       <c r="W377" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X377" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>801</v>
+      </c>
       <c r="Y377" t="s" s="2">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="Z377" t="s" s="2">
         <v>43</v>
@@ -45679,10 +45743,10 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="AF377" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG377" t="s" s="2">
         <v>50</v>
@@ -45708,7 +45772,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45731,19 +45795,19 @@
         <v>43</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>180</v>
+        <v>746</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45768,11 +45832,13 @@
         <v>43</v>
       </c>
       <c r="W378" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X378" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y378" t="s" s="2">
-        <v>819</v>
+        <v>43</v>
       </c>
       <c r="Z378" t="s" s="2">
         <v>43</v>
@@ -45790,7 +45856,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45819,7 +45885,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45842,19 +45908,19 @@
         <v>43</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45903,7 +45969,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45930,11 +45996,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="380" hidden="true">
+    <row r="380">
       <c r="A380" t="s" s="2">
-        <v>947</v>
-      </c>
-      <c r="B380" s="2"/>
+        <v>937</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>816</v>
+      </c>
       <c r="C380" t="s" s="2">
         <v>43</v>
       </c>
@@ -45946,7 +46014,7 @@
         <v>50</v>
       </c>
       <c r="G380" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H380" t="s" s="2">
         <v>43</v>
@@ -45955,19 +46023,17 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>751</v>
+        <v>334</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="M380" t="s" s="2">
-        <v>811</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>812</v>
+        <v>940</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -46016,13 +46082,13 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>808</v>
+        <v>937</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>43</v>
@@ -46043,25 +46109,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="B381" t="s" s="2">
-        <v>948</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F381" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G381" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H381" t="s" s="2">
         <v>43</v>
@@ -46070,18 +46134,16 @@
         <v>43</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>949</v>
+        <v>64</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>939</v>
+        <v>65</v>
       </c>
       <c r="M381" s="2"/>
-      <c r="N381" t="s" s="2">
-        <v>940</v>
-      </c>
+      <c r="N381" s="2"/>
       <c r="O381" t="s" s="2">
         <v>43</v>
       </c>
@@ -46129,19 +46191,19 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>937</v>
+        <v>66</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI381" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ381" t="s" s="2">
         <v>43</v>
@@ -46153,12 +46215,12 @@
         <v>43</v>
       </c>
       <c r="AM381" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46166,10 +46228,10 @@
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F382" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G382" t="s" s="2">
         <v>43</v>
@@ -46181,13 +46243,13 @@
         <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>64</v>
+        <v>944</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>65</v>
+        <v>945</v>
       </c>
       <c r="M382" s="2"/>
       <c r="N382" s="2"/>
@@ -46226,31 +46288,29 @@
         <v>43</v>
       </c>
       <c r="AA382" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB382" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB382" s="2"/>
       <c r="AC382" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD382" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>43</v>
@@ -46262,26 +46322,28 @@
         <v>43</v>
       </c>
       <c r="AM382" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="383" hidden="true">
+    <row r="383">
       <c r="A383" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="B383" s="2"/>
+        <v>943</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>946</v>
+      </c>
       <c r="C383" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F383" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G383" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H383" t="s" s="2">
         <v>43</v>
@@ -46290,17 +46352,15 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>70</v>
+        <v>947</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>71</v>
+        <v>944</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M383" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="M383" s="2"/>
       <c r="N383" s="2"/>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46358,7 +46418,7 @@
         <v>42</v>
       </c>
       <c r="AH383" t="s" s="2">
-        <v>43</v>
+        <v>948</v>
       </c>
       <c r="AI383" t="s" s="2">
         <v>78</v>
@@ -46373,48 +46433,44 @@
         <v>43</v>
       </c>
       <c r="AM383" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F384" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G384" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H384" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I384" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M384" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N384" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M384" s="2"/>
+      <c r="N384" s="2"/>
       <c r="O384" t="s" s="2">
         <v>43</v>
       </c>
@@ -46462,19 +46518,19 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>345</v>
+        <v>66</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI384" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ384" t="s" s="2">
         <v>43</v>
@@ -46486,12 +46542,12 @@
         <v>43</v>
       </c>
       <c r="AM384" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46499,10 +46555,10 @@
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F385" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G385" t="s" s="2">
         <v>43</v>
@@ -46514,20 +46570,16 @@
         <v>43</v>
       </c>
       <c r="J385" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>791</v>
+        <v>944</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="M385" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N385" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="M385" s="2"/>
+      <c r="N385" s="2"/>
       <c r="O385" t="s" s="2">
         <v>43</v>
       </c>
@@ -46551,41 +46603,43 @@
         <v>43</v>
       </c>
       <c r="W385" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X385" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y385" t="s" s="2">
-        <v>950</v>
+        <v>43</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA385" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AB385" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AC385" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD385" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>790</v>
+        <v>77</v>
       </c>
       <c r="AF385" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI385" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ385" t="s" s="2">
         <v>43</v>
@@ -46602,7 +46656,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46610,7 +46664,7 @@
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F386" t="s" s="2">
         <v>50</v>
@@ -46625,26 +46679,24 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>797</v>
+        <v>957</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>798</v>
+        <v>958</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N386" t="s" s="2">
-        <v>800</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="N386" s="2"/>
       <c r="O386" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P386" s="2"/>
       <c r="Q386" t="s" s="2">
-        <v>43</v>
+        <v>960</v>
       </c>
       <c r="R386" t="s" s="2">
         <v>43</v>
@@ -46662,13 +46714,13 @@
         <v>43</v>
       </c>
       <c r="W386" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X386" t="s" s="2">
-        <v>801</v>
+        <v>43</v>
       </c>
       <c r="Y386" t="s" s="2">
-        <v>802</v>
+        <v>43</v>
       </c>
       <c r="Z386" t="s" s="2">
         <v>43</v>
@@ -46686,10 +46738,10 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>796</v>
+        <v>961</v>
       </c>
       <c r="AF386" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG386" t="s" s="2">
         <v>50</v>
@@ -46698,7 +46750,7 @@
         <v>43</v>
       </c>
       <c r="AI386" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ386" t="s" s="2">
         <v>43</v>
@@ -46710,12 +46762,12 @@
         <v>43</v>
       </c>
       <c r="AM386" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46723,13 +46775,13 @@
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F387" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G387" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H387" t="s" s="2">
         <v>43</v>
@@ -46738,20 +46790,16 @@
         <v>43</v>
       </c>
       <c r="J387" t="s" s="2">
-        <v>746</v>
+        <v>180</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>804</v>
+        <v>963</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="M387" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N387" t="s" s="2">
-        <v>807</v>
-      </c>
+        <v>964</v>
+      </c>
+      <c r="M387" s="2"/>
+      <c r="N387" s="2"/>
       <c r="O387" t="s" s="2">
         <v>43</v>
       </c>
@@ -46787,19 +46835,17 @@
         <v>43</v>
       </c>
       <c r="AA387" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB387" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="AB387" s="2"/>
       <c r="AC387" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD387" t="s" s="2">
-        <v>43</v>
+        <v>566</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>803</v>
+        <v>965</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46823,14 +46869,16 @@
         <v>43</v>
       </c>
       <c r="AM387" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>947</v>
-      </c>
-      <c r="B388" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="B388" t="s" s="2">
+        <v>966</v>
+      </c>
       <c r="C388" t="s" s="2">
         <v>43</v>
       </c>
@@ -46851,20 +46899,16 @@
         <v>43</v>
       </c>
       <c r="J388" t="s" s="2">
-        <v>751</v>
+        <v>180</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>809</v>
+        <v>963</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="M388" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N388" t="s" s="2">
-        <v>812</v>
-      </c>
+        <v>964</v>
+      </c>
+      <c r="M388" s="2"/>
+      <c r="N388" s="2"/>
       <c r="O388" t="s" s="2">
         <v>43</v>
       </c>
@@ -46873,7 +46917,7 @@
         <v>43</v>
       </c>
       <c r="R388" t="s" s="2">
-        <v>43</v>
+        <v>969</v>
       </c>
       <c r="S388" t="s" s="2">
         <v>43</v>
@@ -46888,13 +46932,11 @@
         <v>43</v>
       </c>
       <c r="W388" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X388" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X388" s="2"/>
       <c r="Y388" t="s" s="2">
-        <v>43</v>
+        <v>968</v>
       </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
@@ -46912,7 +46954,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>808</v>
+        <v>965</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46936,16 +46978,16 @@
         <v>43</v>
       </c>
       <c r="AM388" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -46958,25 +47000,25 @@
         <v>43</v>
       </c>
       <c r="H389" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I389" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J389" t="s" s="2">
-        <v>334</v>
+        <v>70</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>952</v>
+        <v>343</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>953</v>
+        <v>344</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>954</v>
+        <v>73</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>955</v>
+        <v>156</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -47025,7 +47067,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>951</v>
+        <v>345</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -47037,7 +47079,7 @@
         <v>43</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>43</v>
@@ -47049,12 +47091,12 @@
         <v>43</v>
       </c>
       <c r="AM389" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47062,7 +47104,7 @@
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F390" t="s" s="2">
         <v>50</v>
@@ -47077,16 +47119,20 @@
         <v>43</v>
       </c>
       <c r="J390" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>64</v>
+        <v>791</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M390" s="2"/>
-      <c r="N390" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="N390" t="s" s="2">
+        <v>794</v>
+      </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
       </c>
@@ -47095,7 +47141,7 @@
         <v>43</v>
       </c>
       <c r="R390" t="s" s="2">
-        <v>43</v>
+        <v>818</v>
       </c>
       <c r="S390" t="s" s="2">
         <v>43</v>
@@ -47110,13 +47156,11 @@
         <v>43</v>
       </c>
       <c r="W390" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X390" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X390" s="2"/>
       <c r="Y390" t="s" s="2">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="Z390" t="s" s="2">
         <v>43</v>
@@ -47134,10 +47178,10 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>66</v>
+        <v>790</v>
       </c>
       <c r="AF390" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG390" t="s" s="2">
         <v>50</v>
@@ -47146,7 +47190,7 @@
         <v>43</v>
       </c>
       <c r="AI390" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ390" t="s" s="2">
         <v>43</v>
@@ -47158,23 +47202,23 @@
         <v>43</v>
       </c>
       <c r="AM390" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F391" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G391" t="s" s="2">
         <v>43</v>
@@ -47186,18 +47230,20 @@
         <v>43</v>
       </c>
       <c r="J391" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>71</v>
+        <v>797</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>72</v>
+        <v>798</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N391" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
       </c>
@@ -47221,13 +47267,11 @@
         <v>43</v>
       </c>
       <c r="W391" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X391" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X391" s="2"/>
       <c r="Y391" t="s" s="2">
-        <v>43</v>
+        <v>819</v>
       </c>
       <c r="Z391" t="s" s="2">
         <v>43</v>
@@ -47245,19 +47289,19 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>77</v>
+        <v>796</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>43</v>
@@ -47269,47 +47313,47 @@
         <v>43</v>
       </c>
       <c r="AM391" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F392" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G392" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H392" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I392" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>70</v>
+        <v>746</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>343</v>
+        <v>804</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>344</v>
+        <v>805</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>73</v>
+        <v>806</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>156</v>
+        <v>807</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47358,19 +47402,19 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>345</v>
+        <v>803</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI392" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ392" t="s" s="2">
         <v>43</v>
@@ -47382,12 +47426,12 @@
         <v>43</v>
       </c>
       <c r="AM392" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47395,7 +47439,7 @@
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F393" t="s" s="2">
         <v>50</v>
@@ -47407,22 +47451,22 @@
         <v>43</v>
       </c>
       <c r="I393" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J393" t="s" s="2">
-        <v>180</v>
+        <v>751</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>960</v>
+        <v>810</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>961</v>
+        <v>812</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47447,11 +47491,13 @@
         <v>43</v>
       </c>
       <c r="W393" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X393" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y393" t="s" s="2">
-        <v>962</v>
+        <v>43</v>
       </c>
       <c r="Z393" t="s" s="2">
         <v>43</v>
@@ -47469,10 +47515,10 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>959</v>
+        <v>808</v>
       </c>
       <c r="AF393" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG393" t="s" s="2">
         <v>50</v>
@@ -47496,11 +47542,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="394" hidden="true">
+    <row r="394">
       <c r="A394" t="s" s="2">
-        <v>963</v>
-      </c>
-      <c r="B394" s="2"/>
+        <v>937</v>
+      </c>
+      <c r="B394" t="s" s="2">
+        <v>970</v>
+      </c>
       <c r="C394" t="s" s="2">
         <v>43</v>
       </c>
@@ -47512,26 +47560,26 @@
         <v>50</v>
       </c>
       <c r="G394" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H394" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I394" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J394" t="s" s="2">
-        <v>746</v>
+        <v>334</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="M394" s="2"/>
       <c r="N394" t="s" s="2">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47580,13 +47628,13 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="AF394" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>43</v>
@@ -47607,9 +47655,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47623,7 +47671,7 @@
         <v>50</v>
       </c>
       <c r="G395" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H395" t="s" s="2">
         <v>43</v>
@@ -47632,18 +47680,16 @@
         <v>43</v>
       </c>
       <c r="J395" t="s" s="2">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>968</v>
+        <v>64</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>969</v>
+        <v>65</v>
       </c>
       <c r="M395" s="2"/>
-      <c r="N395" t="s" s="2">
-        <v>970</v>
-      </c>
+      <c r="N395" s="2"/>
       <c r="O395" t="s" s="2">
         <v>43</v>
       </c>
@@ -47691,7 +47737,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>967</v>
+        <v>66</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47703,7 +47749,7 @@
         <v>43</v>
       </c>
       <c r="AI395" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ395" t="s" s="2">
         <v>43</v>
@@ -47715,12 +47761,12 @@
         <v>43</v>
       </c>
       <c r="AM395" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>971</v>
+        <v>943</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47728,10 +47774,10 @@
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F396" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G396" t="s" s="2">
         <v>43</v>
@@ -47743,13 +47789,13 @@
         <v>43</v>
       </c>
       <c r="J396" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>64</v>
+        <v>944</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>65</v>
+        <v>945</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -47788,31 +47834,29 @@
         <v>43</v>
       </c>
       <c r="AA396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB396" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB396" s="2"/>
       <c r="AC396" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD396" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI396" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ396" t="s" s="2">
         <v>43</v>
@@ -47824,26 +47868,28 @@
         <v>43</v>
       </c>
       <c r="AM396" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="397" hidden="true">
+    <row r="397">
       <c r="A397" t="s" s="2">
-        <v>972</v>
-      </c>
-      <c r="B397" s="2"/>
+        <v>943</v>
+      </c>
+      <c r="B397" t="s" s="2">
+        <v>946</v>
+      </c>
       <c r="C397" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F397" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G397" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H397" t="s" s="2">
         <v>43</v>
@@ -47852,17 +47898,15 @@
         <v>43</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>70</v>
+        <v>947</v>
       </c>
       <c r="K397" t="s" s="2">
-        <v>71</v>
+        <v>944</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M397" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>945</v>
+      </c>
+      <c r="M397" s="2"/>
       <c r="N397" s="2"/>
       <c r="O397" t="s" s="2">
         <v>43</v>
@@ -47920,7 +47964,7 @@
         <v>42</v>
       </c>
       <c r="AH397" t="s" s="2">
-        <v>43</v>
+        <v>948</v>
       </c>
       <c r="AI397" t="s" s="2">
         <v>78</v>
@@ -47935,48 +47979,44 @@
         <v>43</v>
       </c>
       <c r="AM397" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>973</v>
+        <v>954</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F398" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G398" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H398" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I398" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J398" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K398" t="s" s="2">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M398" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N398" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M398" s="2"/>
+      <c r="N398" s="2"/>
       <c r="O398" t="s" s="2">
         <v>43</v>
       </c>
@@ -48024,19 +48064,19 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>345</v>
+        <v>66</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI398" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ398" t="s" s="2">
         <v>43</v>
@@ -48048,12 +48088,12 @@
         <v>43</v>
       </c>
       <c r="AM398" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48064,7 +48104,7 @@
         <v>41</v>
       </c>
       <c r="F399" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G399" t="s" s="2">
         <v>43</v>
@@ -48076,18 +48116,16 @@
         <v>43</v>
       </c>
       <c r="J399" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>976</v>
+        <v>945</v>
       </c>
       <c r="M399" s="2"/>
-      <c r="N399" t="s" s="2">
-        <v>977</v>
-      </c>
+      <c r="N399" s="2"/>
       <c r="O399" t="s" s="2">
         <v>43</v>
       </c>
@@ -48111,41 +48149,43 @@
         <v>43</v>
       </c>
       <c r="W399" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X399" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y399" t="s" s="2">
-        <v>978</v>
+        <v>43</v>
       </c>
       <c r="Z399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA399" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AB399" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AC399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD399" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>974</v>
+        <v>77</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI399" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ399" t="s" s="2">
         <v>43</v>
@@ -48162,7 +48202,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48170,7 +48210,7 @@
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F400" t="s" s="2">
         <v>50</v>
@@ -48185,26 +48225,24 @@
         <v>43</v>
       </c>
       <c r="J400" t="s" s="2">
-        <v>746</v>
+        <v>92</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>981</v>
+        <v>958</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="N400" t="s" s="2">
-        <v>983</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="N400" s="2"/>
       <c r="O400" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P400" s="2"/>
       <c r="Q400" t="s" s="2">
-        <v>43</v>
+        <v>960</v>
       </c>
       <c r="R400" t="s" s="2">
         <v>43</v>
@@ -48246,10 +48284,10 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>979</v>
+        <v>961</v>
       </c>
       <c r="AF400" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG400" t="s" s="2">
         <v>50</v>
@@ -48258,7 +48296,7 @@
         <v>43</v>
       </c>
       <c r="AI400" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ400" t="s" s="2">
         <v>43</v>
@@ -48270,12 +48308,12 @@
         <v>43</v>
       </c>
       <c r="AM400" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48283,13 +48321,13 @@
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F401" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G401" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H401" t="s" s="2">
         <v>43</v>
@@ -48301,15 +48339,13 @@
         <v>180</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="M401" s="2"/>
-      <c r="N401" t="s" s="2">
-        <v>987</v>
-      </c>
+      <c r="N401" s="2"/>
       <c r="O401" t="s" s="2">
         <v>43</v>
       </c>
@@ -48333,29 +48369,29 @@
         <v>43</v>
       </c>
       <c r="W401" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X401" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y401" t="s" s="2">
-        <v>819</v>
+        <v>43</v>
       </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA401" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB401" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="AB401" s="2"/>
       <c r="AC401" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD401" t="s" s="2">
-        <v>43</v>
+        <v>566</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48379,14 +48415,16 @@
         <v>43</v>
       </c>
       <c r="AM401" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="B402" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="B402" t="s" s="2">
+        <v>966</v>
+      </c>
       <c r="C402" t="s" s="2">
         <v>43</v>
       </c>
@@ -48407,18 +48445,16 @@
         <v>43</v>
       </c>
       <c r="J402" t="s" s="2">
-        <v>526</v>
+        <v>180</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="M402" s="2"/>
-      <c r="N402" t="s" s="2">
-        <v>991</v>
-      </c>
+      <c r="N402" s="2"/>
       <c r="O402" t="s" s="2">
         <v>43</v>
       </c>
@@ -48427,7 +48463,7 @@
         <v>43</v>
       </c>
       <c r="R402" t="s" s="2">
-        <v>43</v>
+        <v>972</v>
       </c>
       <c r="S402" t="s" s="2">
         <v>43</v>
@@ -48442,13 +48478,11 @@
         <v>43</v>
       </c>
       <c r="W402" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X402" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X402" s="2"/>
       <c r="Y402" t="s" s="2">
-        <v>43</v>
+        <v>968</v>
       </c>
       <c r="Z402" t="s" s="2">
         <v>43</v>
@@ -48466,7 +48500,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48490,45 +48524,47 @@
         <v>43</v>
       </c>
       <c r="AM402" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>992</v>
+        <v>949</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F403" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G403" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H403" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I403" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J403" t="s" s="2">
-        <v>746</v>
+        <v>70</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>993</v>
+        <v>343</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>994</v>
-      </c>
-      <c r="M403" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N403" t="s" s="2">
-        <v>995</v>
+        <v>156</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48577,19 +48613,19 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>992</v>
+        <v>345</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI403" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ403" t="s" s="2">
         <v>43</v>
@@ -48601,12 +48637,12 @@
         <v>43</v>
       </c>
       <c r="AM403" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>996</v>
+        <v>950</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48614,7 +48650,7 @@
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F404" t="s" s="2">
         <v>50</v>
@@ -48629,19 +48665,19 @@
         <v>43</v>
       </c>
       <c r="J404" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>997</v>
+        <v>791</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>998</v>
+        <v>792</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>999</v>
+        <v>793</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1000</v>
+        <v>794</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48666,13 +48702,11 @@
         <v>43</v>
       </c>
       <c r="W404" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X404" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X404" s="2"/>
       <c r="Y404" t="s" s="2">
-        <v>43</v>
+        <v>973</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
@@ -48690,10 +48724,10 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>996</v>
+        <v>790</v>
       </c>
       <c r="AF404" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG404" t="s" s="2">
         <v>50</v>
@@ -48719,7 +48753,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1001</v>
+        <v>951</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48745,16 +48779,16 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>1002</v>
+        <v>797</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1003</v>
+        <v>798</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1004</v>
+        <v>799</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1005</v>
+        <v>800</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48782,10 +48816,10 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
-        <v>1006</v>
+        <v>801</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>1007</v>
+        <v>802</v>
       </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
@@ -48803,7 +48837,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>1001</v>
+        <v>796</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48832,7 +48866,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1008</v>
+        <v>952</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48855,19 +48889,19 @@
         <v>43</v>
       </c>
       <c r="J406" t="s" s="2">
-        <v>1009</v>
+        <v>746</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>1010</v>
+        <v>804</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>1011</v>
+        <v>805</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>1012</v>
+        <v>806</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>1013</v>
+        <v>807</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48916,7 +48950,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>1008</v>
+        <v>803</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48945,7 +48979,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1014</v>
+        <v>953</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48956,7 +48990,7 @@
         <v>41</v>
       </c>
       <c r="F407" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G407" t="s" s="2">
         <v>43</v>
@@ -48968,17 +49002,19 @@
         <v>43</v>
       </c>
       <c r="J407" t="s" s="2">
-        <v>334</v>
+        <v>751</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>1015</v>
+        <v>809</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>1016</v>
-      </c>
-      <c r="M407" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="M407" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="N407" t="s" s="2">
-        <v>1017</v>
+        <v>812</v>
       </c>
       <c r="O407" t="s" s="2">
         <v>43</v>
@@ -49027,13 +49063,13 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1014</v>
+        <v>808</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>43</v>
@@ -49056,7 +49092,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1018</v>
+        <v>974</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49067,7 +49103,7 @@
         <v>41</v>
       </c>
       <c r="F408" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G408" t="s" s="2">
         <v>43</v>
@@ -49076,19 +49112,23 @@
         <v>43</v>
       </c>
       <c r="I408" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J408" t="s" s="2">
-        <v>52</v>
+        <v>334</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>64</v>
+        <v>975</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M408" s="2"/>
-      <c r="N408" s="2"/>
+        <v>976</v>
+      </c>
+      <c r="M408" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="N408" t="s" s="2">
+        <v>978</v>
+      </c>
       <c r="O408" t="s" s="2">
         <v>43</v>
       </c>
@@ -49136,19 +49176,19 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>66</v>
+        <v>974</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI408" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ408" t="s" s="2">
         <v>43</v>
@@ -49160,23 +49200,23 @@
         <v>43</v>
       </c>
       <c r="AM408" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1019</v>
+        <v>979</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F409" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G409" t="s" s="2">
         <v>43</v>
@@ -49188,17 +49228,15 @@
         <v>43</v>
       </c>
       <c r="J409" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K409" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M409" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M409" s="2"/>
       <c r="N409" s="2"/>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -49247,19 +49285,19 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI409" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ409" t="s" s="2">
         <v>43</v>
@@ -49276,11 +49314,11 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -49293,26 +49331,24 @@
         <v>43</v>
       </c>
       <c r="H410" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I410" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J410" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="M410" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N410" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N410" s="2"/>
       <c r="O410" t="s" s="2">
         <v>43</v>
       </c>
@@ -49360,7 +49396,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>
@@ -49384,45 +49420,47 @@
         <v>43</v>
       </c>
       <c r="AM410" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1021</v>
+        <v>981</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F411" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G411" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H411" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I411" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J411" t="s" s="2">
-        <v>443</v>
+        <v>70</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>1022</v>
+        <v>343</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="M411" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N411" t="s" s="2">
-        <v>1024</v>
+        <v>156</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49471,19 +49509,19 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>1021</v>
+        <v>345</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH411" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI411" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ411" t="s" s="2">
         <v>43</v>
@@ -49495,12 +49533,12 @@
         <v>43</v>
       </c>
       <c r="AM411" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1025</v>
+        <v>982</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49508,7 +49546,7 @@
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F412" t="s" s="2">
         <v>50</v>
@@ -49520,20 +49558,22 @@
         <v>43</v>
       </c>
       <c r="I412" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J412" t="s" s="2">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>1026</v>
+        <v>791</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="M412" s="2"/>
+        <v>983</v>
+      </c>
+      <c r="M412" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="N412" t="s" s="2">
-        <v>1028</v>
+        <v>984</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49558,13 +49598,11 @@
         <v>43</v>
       </c>
       <c r="W412" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X412" t="s" s="2">
-        <v>1029</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X412" s="2"/>
       <c r="Y412" t="s" s="2">
-        <v>1030</v>
+        <v>985</v>
       </c>
       <c r="Z412" t="s" s="2">
         <v>43</v>
@@ -49582,10 +49620,10 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1025</v>
+        <v>982</v>
       </c>
       <c r="AF412" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG412" t="s" s="2">
         <v>50</v>
@@ -49611,7 +49649,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1031</v>
+        <v>986</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49619,7 +49657,7 @@
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F413" t="s" s="2">
         <v>50</v>
@@ -49631,20 +49669,20 @@
         <v>43</v>
       </c>
       <c r="I413" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>52</v>
+        <v>746</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>1032</v>
+        <v>987</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>1033</v>
+        <v>988</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1034</v>
+        <v>989</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49693,10 +49731,10 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1031</v>
+        <v>986</v>
       </c>
       <c r="AF413" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG413" t="s" s="2">
         <v>50</v>
@@ -49720,9 +49758,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="414" hidden="true">
+    <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1035</v>
+        <v>990</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49736,7 +49774,7 @@
         <v>50</v>
       </c>
       <c r="G414" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H414" t="s" s="2">
         <v>43</v>
@@ -49745,19 +49783,17 @@
         <v>43</v>
       </c>
       <c r="J414" t="s" s="2">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="K414" t="s" s="2">
-        <v>1036</v>
+        <v>991</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>1037</v>
-      </c>
-      <c r="M414" t="s" s="2">
-        <v>1038</v>
-      </c>
+        <v>992</v>
+      </c>
+      <c r="M414" s="2"/>
       <c r="N414" t="s" s="2">
-        <v>1039</v>
+        <v>993</v>
       </c>
       <c r="O414" t="s" s="2">
         <v>43</v>
@@ -49782,13 +49818,13 @@
         <v>43</v>
       </c>
       <c r="W414" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X414" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y414" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z414" t="s" s="2">
         <v>43</v>
@@ -49806,7 +49842,7 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>1035</v>
+        <v>990</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
@@ -49835,7 +49871,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>1040</v>
+        <v>994</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49858,20 +49894,16 @@
         <v>43</v>
       </c>
       <c r="J415" t="s" s="2">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>1041</v>
+        <v>64</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="M415" t="s" s="2">
-        <v>1043</v>
-      </c>
-      <c r="N415" t="s" s="2">
-        <v>1044</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M415" s="2"/>
+      <c r="N415" s="2"/>
       <c r="O415" t="s" s="2">
         <v>43</v>
       </c>
@@ -49919,7 +49951,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>1040</v>
+        <v>66</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -49931,7 +49963,7 @@
         <v>43</v>
       </c>
       <c r="AI415" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ415" t="s" s="2">
         <v>43</v>
@@ -49943,16 +49975,16 @@
         <v>43</v>
       </c>
       <c r="AM415" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>1045</v>
+        <v>995</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
@@ -49971,15 +50003,17 @@
         <v>43</v>
       </c>
       <c r="J416" t="s" s="2">
-        <v>334</v>
+        <v>70</v>
       </c>
       <c r="K416" t="s" s="2">
-        <v>1046</v>
+        <v>71</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="M416" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M416" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N416" s="2"/>
       <c r="O416" t="s" s="2">
         <v>43</v>
@@ -50028,7 +50062,7 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>1045</v>
+        <v>77</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>41</v>
@@ -50040,7 +50074,7 @@
         <v>43</v>
       </c>
       <c r="AI416" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ416" t="s" s="2">
         <v>43</v>
@@ -50052,44 +50086,48 @@
         <v>43</v>
       </c>
       <c r="AM416" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>1048</v>
+        <v>996</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F417" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G417" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H417" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I417" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J417" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M417" s="2"/>
-      <c r="N417" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M417" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N417" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O417" t="s" s="2">
         <v>43</v>
       </c>
@@ -50137,19 +50175,19 @@
         <v>43</v>
       </c>
       <c r="AE417" t="s" s="2">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="AF417" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG417" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH417" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI417" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ417" t="s" s="2">
         <v>43</v>
@@ -50161,23 +50199,23 @@
         <v>43</v>
       </c>
       <c r="AM417" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>1049</v>
+        <v>997</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F418" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G418" t="s" s="2">
         <v>43</v>
@@ -50189,18 +50227,18 @@
         <v>43</v>
       </c>
       <c r="J418" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K418" t="s" s="2">
-        <v>71</v>
+        <v>998</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M418" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N418" s="2"/>
+        <v>999</v>
+      </c>
+      <c r="M418" s="2"/>
+      <c r="N418" t="s" s="2">
+        <v>1000</v>
+      </c>
       <c r="O418" t="s" s="2">
         <v>43</v>
       </c>
@@ -50224,13 +50262,11 @@
         <v>43</v>
       </c>
       <c r="W418" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X418" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X418" s="2"/>
       <c r="Y418" t="s" s="2">
-        <v>43</v>
+        <v>1001</v>
       </c>
       <c r="Z418" t="s" s="2">
         <v>43</v>
@@ -50248,19 +50284,19 @@
         <v>43</v>
       </c>
       <c r="AE418" t="s" s="2">
-        <v>77</v>
+        <v>997</v>
       </c>
       <c r="AF418" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG418" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH418" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI418" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ418" t="s" s="2">
         <v>43</v>
@@ -50272,47 +50308,47 @@
         <v>43</v>
       </c>
       <c r="AM418" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>1050</v>
+        <v>1002</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F419" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G419" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H419" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I419" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J419" t="s" s="2">
-        <v>70</v>
+        <v>746</v>
       </c>
       <c r="K419" t="s" s="2">
-        <v>343</v>
+        <v>1003</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>344</v>
+        <v>1004</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>73</v>
+        <v>1005</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>156</v>
+        <v>1006</v>
       </c>
       <c r="O419" t="s" s="2">
         <v>43</v>
@@ -50361,19 +50397,19 @@
         <v>43</v>
       </c>
       <c r="AE419" t="s" s="2">
-        <v>345</v>
+        <v>1002</v>
       </c>
       <c r="AF419" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI419" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ419" t="s" s="2">
         <v>43</v>
@@ -50385,12 +50421,12 @@
         <v>43</v>
       </c>
       <c r="AM419" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>1051</v>
+        <v>1007</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50398,7 +50434,7 @@
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F420" t="s" s="2">
         <v>50</v>
@@ -50416,16 +50452,14 @@
         <v>180</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>703</v>
+        <v>1008</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M420" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="M420" s="2"/>
       <c r="N420" t="s" s="2">
-        <v>1052</v>
+        <v>1010</v>
       </c>
       <c r="O420" t="s" s="2">
         <v>43</v>
@@ -50450,13 +50484,11 @@
         <v>43</v>
       </c>
       <c r="W420" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X420" t="s" s="2">
-        <v>707</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X420" s="2"/>
       <c r="Y420" t="s" s="2">
-        <v>708</v>
+        <v>819</v>
       </c>
       <c r="Z420" t="s" s="2">
         <v>43</v>
@@ -50474,10 +50506,10 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>1051</v>
+        <v>1007</v>
       </c>
       <c r="AF420" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG420" t="s" s="2">
         <v>50</v>
@@ -50503,7 +50535,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>1053</v>
+        <v>1011</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50526,17 +50558,17 @@
         <v>43</v>
       </c>
       <c r="J421" t="s" s="2">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="K421" t="s" s="2">
-        <v>1054</v>
+        <v>1012</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>1055</v>
+        <v>1013</v>
       </c>
       <c r="M421" s="2"/>
       <c r="N421" t="s" s="2">
-        <v>1056</v>
+        <v>1014</v>
       </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
@@ -50585,7 +50617,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>1053</v>
+        <v>1011</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50614,7 +50646,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50637,19 +50669,17 @@
         <v>43</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>52</v>
+        <v>746</v>
       </c>
       <c r="K422" t="s" s="2">
-        <v>1058</v>
+        <v>1016</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>1059</v>
-      </c>
-      <c r="M422" t="s" s="2">
-        <v>1060</v>
-      </c>
+        <v>1017</v>
+      </c>
+      <c r="M422" s="2"/>
       <c r="N422" t="s" s="2">
-        <v>1061</v>
+        <v>1018</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>43</v>
@@ -50698,7 +50728,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
@@ -50727,7 +50757,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>1062</v>
+        <v>1019</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
@@ -50750,19 +50780,19 @@
         <v>43</v>
       </c>
       <c r="J423" t="s" s="2">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>1063</v>
+        <v>1020</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>1064</v>
+        <v>1021</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1065</v>
+        <v>1022</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1066</v>
+        <v>1023</v>
       </c>
       <c r="O423" t="s" s="2">
         <v>43</v>
@@ -50811,7 +50841,7 @@
         <v>43</v>
       </c>
       <c r="AE423" t="s" s="2">
-        <v>1062</v>
+        <v>1019</v>
       </c>
       <c r="AF423" t="s" s="2">
         <v>41</v>
@@ -50840,7 +50870,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>1067</v>
+        <v>1024</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -50866,14 +50896,16 @@
         <v>180</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>1068</v>
+        <v>1025</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="M424" s="2"/>
+        <v>1026</v>
+      </c>
+      <c r="M424" t="s" s="2">
+        <v>1027</v>
+      </c>
       <c r="N424" t="s" s="2">
-        <v>1070</v>
+        <v>1028</v>
       </c>
       <c r="O424" t="s" s="2">
         <v>43</v>
@@ -50901,10 +50933,10 @@
         <v>116</v>
       </c>
       <c r="X424" t="s" s="2">
-        <v>1071</v>
+        <v>1029</v>
       </c>
       <c r="Y424" t="s" s="2">
-        <v>1072</v>
+        <v>1030</v>
       </c>
       <c r="Z424" t="s" s="2">
         <v>43</v>
@@ -50922,7 +50954,7 @@
         <v>43</v>
       </c>
       <c r="AE424" t="s" s="2">
-        <v>1067</v>
+        <v>1024</v>
       </c>
       <c r="AF424" t="s" s="2">
         <v>41</v>
@@ -50951,7 +50983,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>1073</v>
+        <v>1031</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
@@ -50974,17 +51006,19 @@
         <v>43</v>
       </c>
       <c r="J425" t="s" s="2">
-        <v>180</v>
+        <v>1032</v>
       </c>
       <c r="K425" t="s" s="2">
-        <v>1074</v>
+        <v>1033</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>1075</v>
-      </c>
-      <c r="M425" s="2"/>
+        <v>1034</v>
+      </c>
+      <c r="M425" t="s" s="2">
+        <v>1035</v>
+      </c>
       <c r="N425" t="s" s="2">
-        <v>1076</v>
+        <v>1036</v>
       </c>
       <c r="O425" t="s" s="2">
         <v>43</v>
@@ -51009,13 +51043,13 @@
         <v>43</v>
       </c>
       <c r="W425" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X425" t="s" s="2">
-        <v>1077</v>
+        <v>43</v>
       </c>
       <c r="Y425" t="s" s="2">
-        <v>1078</v>
+        <v>43</v>
       </c>
       <c r="Z425" t="s" s="2">
         <v>43</v>
@@ -51033,7 +51067,7 @@
         <v>43</v>
       </c>
       <c r="AE425" t="s" s="2">
-        <v>1073</v>
+        <v>1031</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>41</v>
@@ -51062,7 +51096,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>1079</v>
+        <v>1037</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
@@ -51073,7 +51107,7 @@
         <v>41</v>
       </c>
       <c r="F426" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G426" t="s" s="2">
         <v>43</v>
@@ -51085,17 +51119,17 @@
         <v>43</v>
       </c>
       <c r="J426" t="s" s="2">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>1080</v>
+        <v>1038</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>1081</v>
+        <v>1039</v>
       </c>
       <c r="M426" s="2"/>
       <c r="N426" t="s" s="2">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="O426" t="s" s="2">
         <v>43</v>
@@ -51120,13 +51154,13 @@
         <v>43</v>
       </c>
       <c r="W426" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X426" t="s" s="2">
-        <v>1082</v>
+        <v>43</v>
       </c>
       <c r="Y426" t="s" s="2">
-        <v>1083</v>
+        <v>43</v>
       </c>
       <c r="Z426" t="s" s="2">
         <v>43</v>
@@ -51144,13 +51178,13 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>1079</v>
+        <v>1037</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>43</v>
@@ -51173,7 +51207,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>1084</v>
+        <v>1041</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
@@ -51184,7 +51218,7 @@
         <v>41</v>
       </c>
       <c r="F427" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G427" t="s" s="2">
         <v>43</v>
@@ -51196,13 +51230,13 @@
         <v>43</v>
       </c>
       <c r="J427" t="s" s="2">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>1085</v>
+        <v>64</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>1086</v>
+        <v>65</v>
       </c>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
@@ -51253,19 +51287,19 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>1084</v>
+        <v>66</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI427" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ427" t="s" s="2">
         <v>43</v>
@@ -51277,23 +51311,23 @@
         <v>43</v>
       </c>
       <c r="AM427" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>1087</v>
+        <v>1042</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F428" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G428" t="s" s="2">
         <v>43</v>
@@ -51305,15 +51339,17 @@
         <v>43</v>
       </c>
       <c r="J428" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M428" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M428" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N428" s="2"/>
       <c r="O428" t="s" s="2">
         <v>43</v>
@@ -51362,19 +51398,19 @@
         <v>43</v>
       </c>
       <c r="AE428" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF428" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>43</v>
@@ -51391,11 +51427,11 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>1088</v>
+        <v>1043</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
@@ -51408,24 +51444,26 @@
         <v>43</v>
       </c>
       <c r="H429" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I429" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J429" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="M429" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N429" s="2"/>
+      <c r="N429" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O429" t="s" s="2">
         <v>43</v>
       </c>
@@ -51473,7 +51511,7 @@
         <v>43</v>
       </c>
       <c r="AE429" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AF429" t="s" s="2">
         <v>41</v>
@@ -51497,47 +51535,45 @@
         <v>43</v>
       </c>
       <c r="AM429" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>1089</v>
+        <v>1044</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F430" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G430" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H430" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I430" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J430" t="s" s="2">
-        <v>70</v>
+        <v>443</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>343</v>
+        <v>1045</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M430" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1046</v>
+      </c>
+      <c r="M430" s="2"/>
       <c r="N430" t="s" s="2">
-        <v>156</v>
+        <v>1047</v>
       </c>
       <c r="O430" t="s" s="2">
         <v>43</v>
@@ -51586,19 +51622,19 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>345</v>
+        <v>1044</v>
       </c>
       <c r="AF430" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH430" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI430" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ430" t="s" s="2">
         <v>43</v>
@@ -51610,12 +51646,12 @@
         <v>43</v>
       </c>
       <c r="AM430" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>1090</v>
+        <v>1048</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51623,7 +51659,7 @@
       </c>
       <c r="D431" s="2"/>
       <c r="E431" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F431" t="s" s="2">
         <v>50</v>
@@ -51638,19 +51674,17 @@
         <v>43</v>
       </c>
       <c r="J431" t="s" s="2">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>703</v>
+        <v>1049</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="M431" t="s" s="2">
-        <v>1092</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="M431" s="2"/>
       <c r="N431" t="s" s="2">
-        <v>1093</v>
+        <v>1051</v>
       </c>
       <c r="O431" t="s" s="2">
         <v>43</v>
@@ -51675,13 +51709,13 @@
         <v>43</v>
       </c>
       <c r="W431" t="s" s="2">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="X431" t="s" s="2">
-        <v>1094</v>
+        <v>1052</v>
       </c>
       <c r="Y431" t="s" s="2">
-        <v>1095</v>
+        <v>1053</v>
       </c>
       <c r="Z431" t="s" s="2">
         <v>43</v>
@@ -51699,10 +51733,10 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>1090</v>
+        <v>1048</v>
       </c>
       <c r="AF431" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG431" t="s" s="2">
         <v>50</v>
@@ -51728,7 +51762,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>1096</v>
+        <v>1054</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" t="s" s="2">
@@ -51751,17 +51785,17 @@
         <v>43</v>
       </c>
       <c r="J432" t="s" s="2">
-        <v>1097</v>
+        <v>52</v>
       </c>
       <c r="K432" t="s" s="2">
-        <v>1098</v>
+        <v>1055</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>1099</v>
+        <v>1056</v>
       </c>
       <c r="M432" s="2"/>
       <c r="N432" t="s" s="2">
-        <v>1100</v>
+        <v>1057</v>
       </c>
       <c r="O432" t="s" s="2">
         <v>43</v>
@@ -51810,7 +51844,7 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>1096</v>
+        <v>1054</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
@@ -51839,7 +51873,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>1101</v>
+        <v>1058</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
@@ -51862,17 +51896,19 @@
         <v>43</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>1102</v>
+        <v>180</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>1103</v>
+        <v>1059</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>1104</v>
-      </c>
-      <c r="M433" s="2"/>
+        <v>1060</v>
+      </c>
+      <c r="M433" t="s" s="2">
+        <v>1061</v>
+      </c>
       <c r="N433" t="s" s="2">
-        <v>1105</v>
+        <v>1062</v>
       </c>
       <c r="O433" t="s" s="2">
         <v>43</v>
@@ -51897,13 +51933,13 @@
         <v>43</v>
       </c>
       <c r="W433" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X433" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y433" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z433" t="s" s="2">
         <v>43</v>
@@ -51921,7 +51957,7 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>1101</v>
+        <v>1058</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>
@@ -51948,8 +51984,2123 @@
         <v>43</v>
       </c>
     </row>
+    <row r="434" hidden="true">
+      <c r="A434" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="B434" s="2"/>
+      <c r="C434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D434" s="2"/>
+      <c r="E434" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F434" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J434" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K434" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="L434" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M434" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="N434" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="O434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P434" s="2"/>
+      <c r="Q434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE434" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="AF434" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG434" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI434" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL434" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM434" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="435" hidden="true">
+      <c r="A435" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="B435" s="2"/>
+      <c r="C435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D435" s="2"/>
+      <c r="E435" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F435" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J435" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K435" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="L435" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="M435" s="2"/>
+      <c r="N435" s="2"/>
+      <c r="O435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P435" s="2"/>
+      <c r="Q435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE435" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="AF435" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG435" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI435" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL435" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM435" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="436" hidden="true">
+      <c r="A436" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="B436" s="2"/>
+      <c r="C436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D436" s="2"/>
+      <c r="E436" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F436" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J436" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K436" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L436" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M436" s="2"/>
+      <c r="N436" s="2"/>
+      <c r="O436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P436" s="2"/>
+      <c r="Q436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE436" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF436" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG436" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL436" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM436" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="437" hidden="true">
+      <c r="A437" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B437" s="2"/>
+      <c r="C437" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D437" s="2"/>
+      <c r="E437" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F437" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J437" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K437" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L437" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M437" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N437" s="2"/>
+      <c r="O437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P437" s="2"/>
+      <c r="Q437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF437" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG437" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL437" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM437" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="438" hidden="true">
+      <c r="A438" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="B438" s="2"/>
+      <c r="C438" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="D438" s="2"/>
+      <c r="E438" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F438" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H438" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I438" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J438" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K438" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L438" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N438" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P438" s="2"/>
+      <c r="Q438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE438" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF438" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG438" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL438" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM438" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="439" hidden="true">
+      <c r="A439" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="B439" s="2"/>
+      <c r="C439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D439" s="2"/>
+      <c r="E439" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F439" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J439" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K439" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L439" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M439" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="N439" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="O439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P439" s="2"/>
+      <c r="Q439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W439" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X439" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="Y439" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="Z439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE439" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="AF439" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG439" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI439" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL439" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM439" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="440" hidden="true">
+      <c r="A440" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="B440" s="2"/>
+      <c r="C440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D440" s="2"/>
+      <c r="E440" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F440" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J440" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="K440" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="L440" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="M440" s="2"/>
+      <c r="N440" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="O440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P440" s="2"/>
+      <c r="Q440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE440" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="AF440" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG440" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI440" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL440" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM440" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="441" hidden="true">
+      <c r="A441" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="B441" s="2"/>
+      <c r="C441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D441" s="2"/>
+      <c r="E441" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F441" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J441" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K441" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="L441" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="M441" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="N441" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="O441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P441" s="2"/>
+      <c r="Q441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE441" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="AF441" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG441" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI441" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL441" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM441" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="442" hidden="true">
+      <c r="A442" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="B442" s="2"/>
+      <c r="C442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D442" s="2"/>
+      <c r="E442" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F442" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J442" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K442" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="L442" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="M442" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="N442" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="O442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P442" s="2"/>
+      <c r="Q442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE442" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="AF442" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG442" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI442" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL442" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM442" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="443" hidden="true">
+      <c r="A443" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="B443" s="2"/>
+      <c r="C443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D443" s="2"/>
+      <c r="E443" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F443" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J443" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K443" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="L443" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="M443" s="2"/>
+      <c r="N443" t="s" s="2">
+        <v>1093</v>
+      </c>
+      <c r="O443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P443" s="2"/>
+      <c r="Q443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W443" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X443" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="Y443" t="s" s="2">
+        <v>1095</v>
+      </c>
+      <c r="Z443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE443" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="AF443" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG443" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI443" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL443" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM443" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="444" hidden="true">
+      <c r="A444" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="B444" s="2"/>
+      <c r="C444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D444" s="2"/>
+      <c r="E444" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F444" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J444" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K444" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="L444" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="M444" s="2"/>
+      <c r="N444" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="O444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P444" s="2"/>
+      <c r="Q444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W444" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X444" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="Y444" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="Z444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE444" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="AF444" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG444" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI444" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL444" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM444" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="445" hidden="true">
+      <c r="A445" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="B445" s="2"/>
+      <c r="C445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D445" s="2"/>
+      <c r="E445" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F445" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J445" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K445" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="L445" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="M445" s="2"/>
+      <c r="N445" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="O445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P445" s="2"/>
+      <c r="Q445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W445" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X445" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="Y445" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="Z445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE445" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="AF445" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG445" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI445" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM445" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="446" hidden="true">
+      <c r="A446" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="B446" s="2"/>
+      <c r="C446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D446" s="2"/>
+      <c r="E446" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F446" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J446" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K446" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="L446" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="M446" s="2"/>
+      <c r="N446" s="2"/>
+      <c r="O446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P446" s="2"/>
+      <c r="Q446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE446" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="AF446" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG446" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI446" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL446" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM446" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="447" hidden="true">
+      <c r="A447" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="B447" s="2"/>
+      <c r="C447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D447" s="2"/>
+      <c r="E447" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F447" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J447" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K447" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L447" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M447" s="2"/>
+      <c r="N447" s="2"/>
+      <c r="O447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P447" s="2"/>
+      <c r="Q447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE447" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF447" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG447" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL447" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM447" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="448" hidden="true">
+      <c r="A448" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B448" s="2"/>
+      <c r="C448" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D448" s="2"/>
+      <c r="E448" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F448" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J448" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K448" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L448" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M448" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N448" s="2"/>
+      <c r="O448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P448" s="2"/>
+      <c r="Q448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF448" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG448" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL448" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM448" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="449" hidden="true">
+      <c r="A449" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B449" s="2"/>
+      <c r="C449" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="D449" s="2"/>
+      <c r="E449" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F449" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H449" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I449" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J449" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K449" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L449" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M449" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N449" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P449" s="2"/>
+      <c r="Q449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE449" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF449" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG449" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL449" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM449" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="450" hidden="true">
+      <c r="A450" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B450" s="2"/>
+      <c r="C450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D450" s="2"/>
+      <c r="E450" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F450" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J450" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K450" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L450" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="M450" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="N450" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="O450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P450" s="2"/>
+      <c r="Q450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W450" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X450" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="Y450" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="Z450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE450" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="AF450" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG450" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI450" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL450" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM450" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="451" hidden="true">
+      <c r="A451" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="B451" s="2"/>
+      <c r="C451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D451" s="2"/>
+      <c r="E451" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F451" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J451" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="K451" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="L451" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="M451" s="2"/>
+      <c r="N451" t="s" s="2">
+        <v>1123</v>
+      </c>
+      <c r="O451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P451" s="2"/>
+      <c r="Q451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE451" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="AF451" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG451" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI451" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL451" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM451" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="452" hidden="true">
+      <c r="A452" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B452" s="2"/>
+      <c r="C452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D452" s="2"/>
+      <c r="E452" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F452" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J452" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="K452" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="L452" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="M452" s="2"/>
+      <c r="N452" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="O452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P452" s="2"/>
+      <c r="Q452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE452" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="AF452" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG452" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI452" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL452" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM452" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM433">
+  <autoFilter ref="A1:AM452">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -51959,7 +54110,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI432">
+  <conditionalFormatting sqref="A2:AI451">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15910" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15910" uniqueCount="1132">
   <si>
     <t>Path</t>
   </si>
@@ -1621,7 +1621,7 @@
     <t>billingnetworkcontractingstatus</t>
   </si>
   <si>
-    <t>Claim performing provider network status</t>
+    <t>Claim billing provider network status</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1652,6 +1652,9 @@
     <t>referringnetworkcontractingstatus</t>
   </si>
   <si>
+    <t>Claim referring provider network status</t>
+  </si>
+  <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
@@ -1666,6 +1669,9 @@
     <t>Claim Received Date</t>
   </si>
   <si>
+    <t>Claim Received Date: The date the claim for payment was received</t>
+  </si>
+  <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
@@ -1749,6 +1755,9 @@
     <t>ms-drg</t>
   </si>
   <si>
+    <t>Claim diagnosis related group (DRG)</t>
+  </si>
+  <si>
     <t>Claim diagnosis related group (DRG), including the code system, the DRG version and the code value</t>
   </si>
   <si>
@@ -2966,7 +2975,7 @@
   </si>
   <si>
     <t xml:space="preserve">pattern:extension(http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType
-).valueCodeableConcept}
+)}
 </t>
   </si>
   <si>
@@ -3716,7 +3725,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -14377,7 +14386,7 @@
         <v>515</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>474</v>
@@ -15493,7 +15502,7 @@
         <v>519</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>474</v>
@@ -16606,10 +16615,10 @@
         <v>334</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>474</v>
@@ -17182,7 +17191,7 @@
         <v>43</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>43</v>
@@ -17697,7 +17706,7 @@
         <v>471</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>43</v>
@@ -17722,10 +17731,10 @@
         <v>334</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>474</v>
@@ -18298,7 +18307,7 @@
         <v>43</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>43</v>
@@ -18500,7 +18509,7 @@
         <v>43</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>499</v>
@@ -18815,7 +18824,7 @@
         <v>471</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>43</v>
@@ -18840,10 +18849,10 @@
         <v>334</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>474</v>
@@ -19416,7 +19425,7 @@
         <v>43</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>43</v>
@@ -19546,7 +19555,7 @@
       </c>
       <c r="X142" s="2"/>
       <c r="Y142" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>43</v>
@@ -19931,7 +19940,7 @@
         <v>471</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>43</v>
@@ -19956,10 +19965,10 @@
         <v>334</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>474</v>
@@ -20532,7 +20541,7 @@
         <v>43</v>
       </c>
       <c r="R151" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>43</v>
@@ -20662,7 +20671,7 @@
       </c>
       <c r="X152" s="2"/>
       <c r="Y152" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>43</v>
@@ -21047,7 +21056,7 @@
         <v>471</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>43</v>
@@ -21072,10 +21081,10 @@
         <v>334</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="M156" t="s" s="2">
         <v>474</v>
@@ -21648,7 +21657,7 @@
         <v>43</v>
       </c>
       <c r="R161" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>43</v>
@@ -21778,7 +21787,7 @@
       </c>
       <c r="X162" s="2"/>
       <c r="Y162" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>43</v>
@@ -22163,7 +22172,7 @@
         <v>471</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>43</v>
@@ -22188,10 +22197,10 @@
         <v>334</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="M166" t="s" s="2">
         <v>474</v>
@@ -22764,7 +22773,7 @@
         <v>43</v>
       </c>
       <c r="R171" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>43</v>
@@ -22894,7 +22903,7 @@
       </c>
       <c r="X172" s="2"/>
       <c r="Y172" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -23279,7 +23288,7 @@
         <v>471</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>43</v>
@@ -23304,10 +23313,10 @@
         <v>334</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>474</v>
@@ -23880,7 +23889,7 @@
         <v>43</v>
       </c>
       <c r="R181" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>43</v>
@@ -24010,7 +24019,7 @@
       </c>
       <c r="X182" s="2"/>
       <c r="Y182" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Z182" t="s" s="2">
         <v>43</v>
@@ -24392,7 +24401,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24418,14 +24427,14 @@
         <v>334</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24474,7 +24483,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24503,7 +24512,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24612,7 +24621,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24723,7 +24732,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24836,7 +24845,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24862,16 +24871,16 @@
         <v>443</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24920,7 +24929,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>50</v>
@@ -24949,7 +24958,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24975,14 +24984,14 @@
         <v>180</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -25010,26 +25019,26 @@
         <v>116</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA191" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AB191" s="2"/>
       <c r="AC191" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD191" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -25058,10 +25067,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C192" t="s" s="2">
         <v>43</v>
@@ -25086,14 +25095,14 @@
         <v>180</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M192" s="2"/>
       <c r="N192" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -25122,7 +25131,7 @@
       </c>
       <c r="X192" s="2"/>
       <c r="Y192" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
@@ -25140,7 +25149,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>50</v>
@@ -25169,7 +25178,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25195,16 +25204,16 @@
         <v>180</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -25233,7 +25242,7 @@
       </c>
       <c r="X193" s="2"/>
       <c r="Y193" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
@@ -25251,7 +25260,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -25280,7 +25289,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25306,14 +25315,14 @@
         <v>180</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -25342,7 +25351,7 @@
       </c>
       <c r="X194" s="2"/>
       <c r="Y194" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>43</v>
@@ -25360,7 +25369,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25389,7 +25398,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25415,16 +25424,16 @@
         <v>180</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25452,10 +25461,10 @@
         <v>116</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
@@ -25473,7 +25482,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25502,7 +25511,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25528,14 +25537,14 @@
         <v>334</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25584,7 +25593,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25613,7 +25622,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25722,7 +25731,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25833,7 +25842,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25946,7 +25955,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25972,14 +25981,14 @@
         <v>443</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -26028,7 +26037,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>50</v>
@@ -26057,7 +26066,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26083,14 +26092,14 @@
         <v>180</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -26118,28 +26127,28 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Y201" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE201" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -26168,7 +26177,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26194,14 +26203,14 @@
         <v>288</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26250,7 +26259,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26279,7 +26288,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26305,14 +26314,14 @@
         <v>180</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26340,26 +26349,26 @@
         <v>116</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA203" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AB203" s="2"/>
       <c r="AC203" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD203" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>50</v>
@@ -26388,10 +26397,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C204" t="s" s="2">
         <v>43</v>
@@ -26416,14 +26425,14 @@
         <v>180</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26452,7 +26461,7 @@
       </c>
       <c r="X204" s="2"/>
       <c r="Y204" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>43</v>
@@ -26470,7 +26479,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>50</v>
@@ -26499,7 +26508,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26522,17 +26531,17 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26581,7 +26590,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26610,7 +26619,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26636,14 +26645,14 @@
         <v>443</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26692,7 +26701,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26721,7 +26730,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26747,16 +26756,16 @@
         <v>334</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26805,7 +26814,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>50</v>
@@ -26826,7 +26835,7 @@
         <v>43</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>43</v>
@@ -26834,7 +26843,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26943,7 +26952,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -27054,7 +27063,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -27167,7 +27176,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27193,16 +27202,16 @@
         <v>454</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27251,7 +27260,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>50</v>
@@ -27280,7 +27289,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27303,17 +27312,17 @@
         <v>51</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27362,7 +27371,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>50</v>
@@ -27391,7 +27400,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27417,16 +27426,16 @@
         <v>52</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27475,7 +27484,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27504,7 +27513,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27530,14 +27539,14 @@
         <v>334</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27586,7 +27595,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27615,7 +27624,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27724,7 +27733,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27835,7 +27844,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27948,7 +27957,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27971,19 +27980,19 @@
         <v>43</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -28032,7 +28041,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -28061,7 +28070,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -28087,14 +28096,14 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -28122,10 +28131,10 @@
         <v>108</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -28143,7 +28152,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28172,7 +28181,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28195,17 +28204,17 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28254,7 +28263,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28283,7 +28292,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28309,14 +28318,14 @@
         <v>334</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28365,7 +28374,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28394,7 +28403,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28503,7 +28512,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28614,7 +28623,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28727,7 +28736,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28753,14 +28762,14 @@
         <v>443</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28809,7 +28818,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>50</v>
@@ -28838,7 +28847,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28864,14 +28873,14 @@
         <v>443</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28920,7 +28929,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28949,7 +28958,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28975,14 +28984,14 @@
         <v>443</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -29031,7 +29040,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -29060,7 +29069,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -29086,14 +29095,14 @@
         <v>443</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -29142,7 +29151,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29171,7 +29180,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29197,14 +29206,14 @@
         <v>443</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29253,7 +29262,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29282,7 +29291,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29308,14 +29317,14 @@
         <v>180</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29344,7 +29353,7 @@
       </c>
       <c r="X230" s="2"/>
       <c r="Y230" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="Z230" t="s" s="2">
         <v>43</v>
@@ -29362,7 +29371,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29391,7 +29400,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29417,16 +29426,16 @@
         <v>180</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -29454,10 +29463,10 @@
         <v>116</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="Z231" t="s" s="2">
         <v>43</v>
@@ -29475,7 +29484,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29504,11 +29513,11 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -29530,16 +29539,16 @@
         <v>180</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29568,7 +29577,7 @@
       </c>
       <c r="X232" s="2"/>
       <c r="Y232" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="Z232" t="s" s="2">
         <v>43</v>
@@ -29586,7 +29595,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>50</v>
@@ -29615,7 +29624,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29641,16 +29650,16 @@
         <v>180</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29679,7 +29688,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
@@ -29697,7 +29706,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29726,7 +29735,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29752,16 +29761,16 @@
         <v>180</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29789,10 +29798,10 @@
         <v>116</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29810,7 +29819,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29839,7 +29848,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29865,14 +29874,14 @@
         <v>498</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29921,7 +29930,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29950,7 +29959,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29973,17 +29982,17 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -30011,10 +30020,10 @@
         <v>116</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -30032,7 +30041,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -30061,7 +30070,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30084,17 +30093,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30143,7 +30152,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30172,7 +30181,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30195,17 +30204,17 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30254,7 +30263,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30283,7 +30292,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30306,19 +30315,19 @@
         <v>43</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -30367,7 +30376,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30396,7 +30405,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30419,19 +30428,19 @@
         <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30480,7 +30489,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30509,7 +30518,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30532,17 +30541,17 @@
         <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30591,7 +30600,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30620,7 +30629,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30646,16 +30655,16 @@
         <v>180</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30683,10 +30692,10 @@
         <v>116</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30704,7 +30713,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30733,7 +30742,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30759,14 +30768,14 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30794,28 +30803,28 @@
         <v>116</v>
       </c>
       <c r="X243" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE243" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="Y243" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="Z243" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA243" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB243" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC243" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD243" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE243" t="s" s="2">
-        <v>769</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30844,7 +30853,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30867,17 +30876,17 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30926,7 +30935,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30955,7 +30964,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30981,14 +30990,14 @@
         <v>443</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -31037,7 +31046,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -31066,7 +31075,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31092,14 +31101,14 @@
         <v>334</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -31145,10 +31154,10 @@
         <v>43</v>
       </c>
       <c r="AD246" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31177,7 +31186,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31286,7 +31295,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31397,7 +31406,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31510,7 +31519,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31536,16 +31545,16 @@
         <v>180</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31574,7 +31583,7 @@
       </c>
       <c r="X250" s="2"/>
       <c r="Y250" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31592,7 +31601,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>50</v>
@@ -31621,7 +31630,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31647,16 +31656,16 @@
         <v>180</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31684,10 +31693,10 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31705,7 +31714,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31734,7 +31743,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31757,19 +31766,19 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31818,7 +31827,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31847,7 +31856,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31870,19 +31879,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31931,7 +31940,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31960,10 +31969,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C254" t="s" s="2">
         <v>43</v>
@@ -31988,14 +31997,14 @@
         <v>334</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -32044,7 +32053,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -32073,7 +32082,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -32182,7 +32191,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32293,7 +32302,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32406,7 +32415,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32432,16 +32441,16 @@
         <v>180</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32470,7 +32479,7 @@
       </c>
       <c r="X258" s="2"/>
       <c r="Y258" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>43</v>
@@ -32488,7 +32497,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>50</v>
@@ -32517,7 +32526,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32543,16 +32552,16 @@
         <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32580,10 +32589,10 @@
         <v>116</v>
       </c>
       <c r="X259" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="Y259" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32601,7 +32610,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32630,7 +32639,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32653,19 +32662,19 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32714,7 +32723,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32743,7 +32752,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32766,19 +32775,19 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32827,7 +32836,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32856,10 +32865,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C262" t="s" s="2">
         <v>43</v>
@@ -32884,14 +32893,14 @@
         <v>334</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32940,7 +32949,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32969,7 +32978,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -33078,7 +33087,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33189,7 +33198,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33302,7 +33311,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33328,16 +33337,16 @@
         <v>180</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33347,7 +33356,7 @@
         <v>43</v>
       </c>
       <c r="R266" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S266" t="s" s="2">
         <v>43</v>
@@ -33366,7 +33375,7 @@
       </c>
       <c r="X266" s="2"/>
       <c r="Y266" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
@@ -33384,7 +33393,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>50</v>
@@ -33413,7 +33422,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33439,16 +33448,16 @@
         <v>180</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33477,7 +33486,7 @@
       </c>
       <c r="X267" s="2"/>
       <c r="Y267" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
@@ -33495,7 +33504,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33524,7 +33533,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33547,19 +33556,19 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33608,7 +33617,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33637,7 +33646,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33660,19 +33669,19 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33721,7 +33730,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33750,10 +33759,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C270" t="s" s="2">
         <v>43</v>
@@ -33778,14 +33787,14 @@
         <v>334</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33834,7 +33843,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33863,7 +33872,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33972,7 +33981,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -34083,7 +34092,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34196,7 +34205,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34222,16 +34231,16 @@
         <v>180</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34241,7 +34250,7 @@
         <v>43</v>
       </c>
       <c r="R274" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="S274" t="s" s="2">
         <v>43</v>
@@ -34260,7 +34269,7 @@
       </c>
       <c r="X274" s="2"/>
       <c r="Y274" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>43</v>
@@ -34278,7 +34287,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>50</v>
@@ -34307,7 +34316,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34333,16 +34342,16 @@
         <v>180</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34370,10 +34379,10 @@
         <v>116</v>
       </c>
       <c r="X275" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Z275" t="s" s="2">
         <v>43</v>
@@ -34391,7 +34400,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34420,7 +34429,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34443,19 +34452,19 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34504,7 +34513,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34533,7 +34542,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34556,19 +34565,19 @@
         <v>43</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34617,7 +34626,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34646,7 +34655,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34672,10 +34681,10 @@
         <v>334</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -34726,7 +34735,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34755,7 +34764,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34864,7 +34873,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34975,7 +34984,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -35088,7 +35097,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35114,14 +35123,14 @@
         <v>443</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -35170,7 +35179,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>50</v>
@@ -35199,7 +35208,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35225,14 +35234,14 @@
         <v>180</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -35260,10 +35269,10 @@
         <v>116</v>
       </c>
       <c r="X283" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="Z283" t="s" s="2">
         <v>43</v>
@@ -35281,7 +35290,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35310,7 +35319,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35336,16 +35345,16 @@
         <v>180</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35373,10 +35382,10 @@
         <v>116</v>
       </c>
       <c r="X284" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="Z284" t="s" s="2">
         <v>43</v>
@@ -35394,7 +35403,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35423,11 +35432,11 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -35449,16 +35458,16 @@
         <v>180</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35486,10 +35495,10 @@
         <v>116</v>
       </c>
       <c r="X285" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="Z285" t="s" s="2">
         <v>43</v>
@@ -35507,7 +35516,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>50</v>
@@ -35536,7 +35545,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35562,16 +35571,16 @@
         <v>180</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35599,28 +35608,28 @@
         <v>116</v>
       </c>
       <c r="X286" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="Y286" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="Z286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE286" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="Z286" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA286" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB286" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC286" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD286" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE286" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35649,7 +35658,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35675,16 +35684,16 @@
         <v>180</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35712,10 +35721,10 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
@@ -35733,7 +35742,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35762,7 +35771,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35785,17 +35794,17 @@
         <v>43</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35844,7 +35853,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35873,7 +35882,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35896,17 +35905,17 @@
         <v>43</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35955,7 +35964,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35984,7 +35993,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -36007,19 +36016,19 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -36068,7 +36077,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -36097,7 +36106,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36120,19 +36129,19 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -36181,7 +36190,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36210,7 +36219,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36233,17 +36242,17 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36292,7 +36301,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36321,7 +36330,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36347,14 +36356,14 @@
         <v>443</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36403,7 +36412,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36432,7 +36441,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36458,10 +36467,10 @@
         <v>43</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -36512,7 +36521,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36541,7 +36550,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36567,10 +36576,10 @@
         <v>334</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -36621,7 +36630,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36650,7 +36659,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36759,7 +36768,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36870,7 +36879,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36983,7 +36992,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -37009,14 +37018,14 @@
         <v>443</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -37065,7 +37074,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>50</v>
@@ -37094,7 +37103,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -37120,14 +37129,14 @@
         <v>180</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -37155,10 +37164,10 @@
         <v>116</v>
       </c>
       <c r="X300" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
@@ -37176,7 +37185,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37205,7 +37214,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37231,16 +37240,16 @@
         <v>180</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37268,10 +37277,10 @@
         <v>116</v>
       </c>
       <c r="X301" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="Y301" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="Z301" t="s" s="2">
         <v>43</v>
@@ -37289,7 +37298,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37318,11 +37327,11 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37344,16 +37353,16 @@
         <v>180</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37381,10 +37390,10 @@
         <v>116</v>
       </c>
       <c r="X302" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="Y302" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="Z302" t="s" s="2">
         <v>43</v>
@@ -37402,7 +37411,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>50</v>
@@ -37431,7 +37440,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37457,16 +37466,16 @@
         <v>180</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37494,10 +37503,10 @@
         <v>116</v>
       </c>
       <c r="X303" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="Y303" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="Z303" t="s" s="2">
         <v>43</v>
@@ -37515,7 +37524,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37544,7 +37553,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37570,16 +37579,16 @@
         <v>180</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37607,10 +37616,10 @@
         <v>116</v>
       </c>
       <c r="X304" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="Y304" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Z304" t="s" s="2">
         <v>43</v>
@@ -37628,7 +37637,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37657,7 +37666,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37680,17 +37689,17 @@
         <v>43</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37739,7 +37748,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37768,7 +37777,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37791,17 +37800,17 @@
         <v>43</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37850,7 +37859,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37879,7 +37888,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37902,19 +37911,19 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37963,7 +37972,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37992,7 +38001,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -38015,19 +38024,19 @@
         <v>43</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -38076,7 +38085,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -38105,7 +38114,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38128,17 +38137,17 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M309" s="2"/>
       <c r="N309" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -38187,7 +38196,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38216,7 +38225,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38242,14 +38251,14 @@
         <v>443</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M310" s="2"/>
       <c r="N310" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -38298,7 +38307,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38327,7 +38336,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38353,10 +38362,10 @@
         <v>43</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -38407,7 +38416,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38436,7 +38445,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38462,14 +38471,14 @@
         <v>334</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38518,7 +38527,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38547,7 +38556,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38656,7 +38665,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38767,7 +38776,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38880,7 +38889,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38906,14 +38915,14 @@
         <v>443</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38962,7 +38971,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38991,7 +39000,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -39017,14 +39026,14 @@
         <v>443</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" t="s" s="2">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -39073,7 +39082,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -39102,7 +39111,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39128,14 +39137,14 @@
         <v>443</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39184,7 +39193,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39213,7 +39222,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39239,14 +39248,14 @@
         <v>448</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39295,7 +39304,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39324,11 +39333,11 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -39350,16 +39359,16 @@
         <v>180</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39387,10 +39396,10 @@
         <v>116</v>
       </c>
       <c r="X320" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="Y320" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="Z320" t="s" s="2">
         <v>43</v>
@@ -39408,7 +39417,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>50</v>
@@ -39437,7 +39446,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39463,16 +39472,16 @@
         <v>180</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -39500,10 +39509,10 @@
         <v>116</v>
       </c>
       <c r="X321" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="Y321" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="Z321" t="s" s="2">
         <v>43</v>
@@ -39521,7 +39530,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39550,7 +39559,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39576,16 +39585,16 @@
         <v>180</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39613,10 +39622,10 @@
         <v>116</v>
       </c>
       <c r="X322" t="s" s="2">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="Z322" t="s" s="2">
         <v>43</v>
@@ -39634,7 +39643,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
@@ -39663,7 +39672,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39689,14 +39698,14 @@
         <v>498</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
@@ -39745,7 +39754,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39774,7 +39783,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39797,17 +39806,17 @@
         <v>43</v>
       </c>
       <c r="J324" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39835,10 +39844,10 @@
         <v>116</v>
       </c>
       <c r="X324" t="s" s="2">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="Y324" t="s" s="2">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="Z324" t="s" s="2">
         <v>43</v>
@@ -39856,7 +39865,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39885,7 +39894,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39908,17 +39917,17 @@
         <v>43</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39967,7 +39976,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39996,7 +40005,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -40019,17 +40028,17 @@
         <v>43</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -40078,7 +40087,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -40107,7 +40116,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40130,19 +40139,19 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40191,7 +40200,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40220,7 +40229,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40243,19 +40252,19 @@
         <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40304,7 +40313,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40333,7 +40342,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40359,16 +40368,16 @@
         <v>180</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40396,10 +40405,10 @@
         <v>116</v>
       </c>
       <c r="X329" t="s" s="2">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="Y329" t="s" s="2">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -40417,7 +40426,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40446,7 +40455,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40472,14 +40481,14 @@
         <v>180</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40507,10 +40516,10 @@
         <v>116</v>
       </c>
       <c r="X330" t="s" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -40528,7 +40537,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40557,7 +40566,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40583,14 +40592,14 @@
         <v>443</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40639,7 +40648,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40668,7 +40677,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40694,10 +40703,10 @@
         <v>43</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -40748,7 +40757,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40777,7 +40786,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40803,10 +40812,10 @@
         <v>334</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
@@ -40857,7 +40866,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40886,7 +40895,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40995,7 +41004,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -41106,7 +41115,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41219,11 +41228,11 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -41245,16 +41254,16 @@
         <v>180</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41282,10 +41291,10 @@
         <v>116</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41303,7 +41312,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>50</v>
@@ -41332,7 +41341,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41358,16 +41367,16 @@
         <v>180</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41395,10 +41404,10 @@
         <v>116</v>
       </c>
       <c r="X338" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="Y338" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -41416,7 +41425,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41445,7 +41454,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41468,17 +41477,17 @@
         <v>43</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="M339" s="2"/>
       <c r="N339" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41527,7 +41536,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41556,7 +41565,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41579,17 +41588,17 @@
         <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M340" s="2"/>
       <c r="N340" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41638,7 +41647,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41667,7 +41676,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41690,19 +41699,19 @@
         <v>43</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41751,7 +41760,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41780,7 +41789,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41803,19 +41812,19 @@
         <v>43</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41864,7 +41873,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41893,7 +41902,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41919,14 +41928,14 @@
         <v>443</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41975,7 +41984,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -42004,7 +42013,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -42030,10 +42039,10 @@
         <v>43</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
@@ -42084,7 +42093,7 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
@@ -42113,7 +42122,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42139,10 +42148,10 @@
         <v>334</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -42193,7 +42202,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -42222,7 +42231,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42331,7 +42340,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42442,7 +42451,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42555,11 +42564,11 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -42581,16 +42590,16 @@
         <v>180</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42618,10 +42627,10 @@
         <v>116</v>
       </c>
       <c r="X349" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42639,7 +42648,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>50</v>
@@ -42668,7 +42677,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42694,16 +42703,16 @@
         <v>180</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42731,10 +42740,10 @@
         <v>116</v>
       </c>
       <c r="X350" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="Y350" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="Z350" t="s" s="2">
         <v>43</v>
@@ -42752,7 +42761,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42781,7 +42790,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42804,17 +42813,17 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42863,7 +42872,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42892,7 +42901,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42915,17 +42924,17 @@
         <v>43</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" t="s" s="2">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42974,7 +42983,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -43003,7 +43012,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -43026,19 +43035,19 @@
         <v>43</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -43087,7 +43096,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -43116,7 +43125,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43139,19 +43148,19 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -43200,7 +43209,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43229,7 +43238,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43255,14 +43264,14 @@
         <v>443</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M355" s="2"/>
       <c r="N355" t="s" s="2">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43311,7 +43320,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43340,7 +43349,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43366,10 +43375,10 @@
         <v>43</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="M356" s="2"/>
       <c r="N356" s="2"/>
@@ -43420,7 +43429,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>41</v>
@@ -43449,7 +43458,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43475,14 +43484,14 @@
         <v>334</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43519,7 +43528,7 @@
         <v>43</v>
       </c>
       <c r="AA357" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="AB357" t="s" s="2">
         <v>477</v>
@@ -43528,10 +43537,10 @@
         <v>43</v>
       </c>
       <c r="AD357" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43560,7 +43569,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43669,7 +43678,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43695,10 +43704,10 @@
         <v>70</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M359" s="2"/>
       <c r="N359" s="2"/>
@@ -43776,10 +43785,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C360" t="s" s="2">
         <v>43</v>
@@ -43801,13 +43810,13 @@
         <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="K360" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="K360" t="s" s="2">
-        <v>944</v>
-      </c>
       <c r="L360" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" s="2"/>
@@ -43867,7 +43876,7 @@
         <v>42</v>
       </c>
       <c r="AH360" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AI360" t="s" s="2">
         <v>78</v>
@@ -43887,7 +43896,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -44000,7 +44009,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -44026,16 +44035,16 @@
         <v>180</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -44064,7 +44073,7 @@
       </c>
       <c r="X362" s="2"/>
       <c r="Y362" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
@@ -44082,7 +44091,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>50</v>
@@ -44111,7 +44120,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44137,16 +44146,16 @@
         <v>180</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44174,10 +44183,10 @@
         <v>116</v>
       </c>
       <c r="X363" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44195,7 +44204,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44224,7 +44233,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44247,19 +44256,19 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44308,7 +44317,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44337,7 +44346,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44360,19 +44369,19 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44421,7 +44430,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44450,10 +44459,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C366" t="s" s="2">
         <v>43</v>
@@ -44478,14 +44487,14 @@
         <v>334</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="M366" s="2"/>
       <c r="N366" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44534,7 +44543,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44563,7 +44572,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44672,7 +44681,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44698,10 +44707,10 @@
         <v>70</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
@@ -44779,10 +44788,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C369" t="s" s="2">
         <v>43</v>
@@ -44804,13 +44813,13 @@
         <v>43</v>
       </c>
       <c r="J369" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="K369" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="K369" t="s" s="2">
-        <v>944</v>
-      </c>
       <c r="L369" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
@@ -44870,7 +44879,7 @@
         <v>42</v>
       </c>
       <c r="AH369" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AI369" t="s" s="2">
         <v>78</v>
@@ -44890,7 +44899,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44999,7 +45008,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -45025,10 +45034,10 @@
         <v>70</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" s="2"/>
@@ -45108,7 +45117,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45134,13 +45143,13 @@
         <v>92</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="N372" s="2"/>
       <c r="O372" t="s" s="2">
@@ -45148,7 +45157,7 @@
       </c>
       <c r="P372" s="2"/>
       <c r="Q372" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="R372" t="s" s="2">
         <v>43</v>
@@ -45190,7 +45199,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>50</v>
@@ -45219,7 +45228,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45245,10 +45254,10 @@
         <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M373" s="2"/>
       <c r="N373" s="2"/>
@@ -45287,17 +45296,17 @@
         <v>43</v>
       </c>
       <c r="AA373" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AB373" s="2"/>
       <c r="AC373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD373" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
@@ -45326,10 +45335,10 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C374" t="s" s="2">
         <v>43</v>
@@ -45354,10 +45363,10 @@
         <v>180</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" s="2"/>
@@ -45369,7 +45378,7 @@
         <v>43</v>
       </c>
       <c r="R374" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="S374" t="s" s="2">
         <v>43</v>
@@ -45388,25 +45397,25 @@
       </c>
       <c r="X374" s="2"/>
       <c r="Y374" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE374" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="Z374" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA374" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB374" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC374" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD374" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE374" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45435,7 +45444,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45548,7 +45557,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45574,16 +45583,16 @@
         <v>180</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45612,7 +45621,7 @@
       </c>
       <c r="X376" s="2"/>
       <c r="Y376" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45630,7 +45639,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>50</v>
@@ -45659,7 +45668,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45685,16 +45694,16 @@
         <v>180</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45722,10 +45731,10 @@
         <v>116</v>
       </c>
       <c r="X377" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="Y377" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Z377" t="s" s="2">
         <v>43</v>
@@ -45743,7 +45752,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
@@ -45772,7 +45781,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45795,19 +45804,19 @@
         <v>43</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45856,7 +45865,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45885,7 +45894,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45908,19 +45917,19 @@
         <v>43</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45969,7 +45978,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45998,10 +46007,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C380" t="s" s="2">
         <v>43</v>
@@ -46026,14 +46035,14 @@
         <v>334</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -46082,7 +46091,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -46111,7 +46120,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46220,7 +46229,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46246,10 +46255,10 @@
         <v>70</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M382" s="2"/>
       <c r="N382" s="2"/>
@@ -46327,10 +46336,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C383" t="s" s="2">
         <v>43</v>
@@ -46352,13 +46361,13 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="K383" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="K383" t="s" s="2">
-        <v>944</v>
-      </c>
       <c r="L383" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" s="2"/>
@@ -46418,7 +46427,7 @@
         <v>42</v>
       </c>
       <c r="AH383" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AI383" t="s" s="2">
         <v>78</v>
@@ -46438,7 +46447,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46547,7 +46556,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46573,10 +46582,10 @@
         <v>70</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
@@ -46656,7 +46665,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46682,13 +46691,13 @@
         <v>92</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="N386" s="2"/>
       <c r="O386" t="s" s="2">
@@ -46696,7 +46705,7 @@
       </c>
       <c r="P386" s="2"/>
       <c r="Q386" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="R386" t="s" s="2">
         <v>43</v>
@@ -46738,7 +46747,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>50</v>
@@ -46767,7 +46776,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46793,10 +46802,10 @@
         <v>180</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" s="2"/>
@@ -46835,17 +46844,17 @@
         <v>43</v>
       </c>
       <c r="AA387" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AB387" s="2"/>
       <c r="AC387" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD387" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46874,10 +46883,10 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C388" t="s" s="2">
         <v>43</v>
@@ -46902,10 +46911,10 @@
         <v>180</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" s="2"/>
@@ -46917,7 +46926,7 @@
         <v>43</v>
       </c>
       <c r="R388" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="S388" t="s" s="2">
         <v>43</v>
@@ -46936,25 +46945,25 @@
       </c>
       <c r="X388" s="2"/>
       <c r="Y388" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE388" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="Z388" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA388" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB388" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC388" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD388" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE388" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46983,7 +46992,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -47096,7 +47105,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47122,16 +47131,16 @@
         <v>180</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47141,7 +47150,7 @@
         <v>43</v>
       </c>
       <c r="R390" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S390" t="s" s="2">
         <v>43</v>
@@ -47160,7 +47169,7 @@
       </c>
       <c r="X390" s="2"/>
       <c r="Y390" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="Z390" t="s" s="2">
         <v>43</v>
@@ -47178,7 +47187,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>50</v>
@@ -47207,7 +47216,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47233,16 +47242,16 @@
         <v>180</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47271,7 +47280,7 @@
       </c>
       <c r="X391" s="2"/>
       <c r="Y391" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="Z391" t="s" s="2">
         <v>43</v>
@@ -47289,7 +47298,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47318,7 +47327,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47341,19 +47350,19 @@
         <v>43</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47402,7 +47411,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47431,7 +47440,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47454,19 +47463,19 @@
         <v>43</v>
       </c>
       <c r="J393" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47515,7 +47524,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47544,10 +47553,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C394" t="s" s="2">
         <v>43</v>
@@ -47572,14 +47581,14 @@
         <v>334</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="M394" s="2"/>
       <c r="N394" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47628,7 +47637,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47657,7 +47666,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47766,7 +47775,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47792,10 +47801,10 @@
         <v>70</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -47873,10 +47882,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="C397" t="s" s="2">
         <v>43</v>
@@ -47898,13 +47907,13 @@
         <v>43</v>
       </c>
       <c r="J397" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="K397" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="K397" t="s" s="2">
-        <v>944</v>
-      </c>
       <c r="L397" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M397" s="2"/>
       <c r="N397" s="2"/>
@@ -47964,7 +47973,7 @@
         <v>42</v>
       </c>
       <c r="AH397" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AI397" t="s" s="2">
         <v>78</v>
@@ -47984,7 +47993,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -48093,7 +48102,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48119,10 +48128,10 @@
         <v>70</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
@@ -48202,7 +48211,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48228,13 +48237,13 @@
         <v>92</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="N400" s="2"/>
       <c r="O400" t="s" s="2">
@@ -48242,7 +48251,7 @@
       </c>
       <c r="P400" s="2"/>
       <c r="Q400" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="R400" t="s" s="2">
         <v>43</v>
@@ -48284,7 +48293,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>50</v>
@@ -48313,7 +48322,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48339,10 +48348,10 @@
         <v>180</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
@@ -48381,17 +48390,17 @@
         <v>43</v>
       </c>
       <c r="AA401" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AB401" s="2"/>
       <c r="AC401" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD401" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48420,10 +48429,10 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C402" t="s" s="2">
         <v>43</v>
@@ -48448,10 +48457,10 @@
         <v>180</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M402" s="2"/>
       <c r="N402" s="2"/>
@@ -48463,7 +48472,7 @@
         <v>43</v>
       </c>
       <c r="R402" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="S402" t="s" s="2">
         <v>43</v>
@@ -48482,25 +48491,25 @@
       </c>
       <c r="X402" s="2"/>
       <c r="Y402" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="Z402" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA402" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB402" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC402" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD402" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE402" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="Z402" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA402" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB402" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC402" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD402" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE402" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48529,7 +48538,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48642,7 +48651,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48668,16 +48677,16 @@
         <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48706,7 +48715,7 @@
       </c>
       <c r="X404" s="2"/>
       <c r="Y404" t="s" s="2">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
@@ -48724,7 +48733,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>50</v>
@@ -48753,7 +48762,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48779,16 +48788,16 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48816,10 +48825,10 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
@@ -48837,7 +48846,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48866,7 +48875,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48889,19 +48898,19 @@
         <v>43</v>
       </c>
       <c r="J406" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48950,7 +48959,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48979,7 +48988,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -49002,19 +49011,19 @@
         <v>43</v>
       </c>
       <c r="J407" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O407" t="s" s="2">
         <v>43</v>
@@ -49063,7 +49072,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -49092,7 +49101,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49118,16 +49127,16 @@
         <v>334</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="O408" t="s" s="2">
         <v>43</v>
@@ -49176,7 +49185,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>41</v>
@@ -49205,7 +49214,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49314,7 +49323,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49425,7 +49434,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49538,7 +49547,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49564,16 +49573,16 @@
         <v>180</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49602,25 +49611,25 @@
       </c>
       <c r="X412" s="2"/>
       <c r="Y412" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE412" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="Z412" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA412" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB412" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC412" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD412" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE412" t="s" s="2">
-        <v>982</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>50</v>
@@ -49649,7 +49658,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49672,17 +49681,17 @@
         <v>51</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49731,7 +49740,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>50</v>
@@ -49760,7 +49769,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49786,14 +49795,14 @@
         <v>334</v>
       </c>
       <c r="K414" t="s" s="2">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="M414" s="2"/>
       <c r="N414" t="s" s="2">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="O414" t="s" s="2">
         <v>43</v>
@@ -49842,7 +49851,7 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
@@ -49871,7 +49880,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49980,7 +49989,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
@@ -50091,7 +50100,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50204,7 +50213,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50230,14 +50239,14 @@
         <v>180</v>
       </c>
       <c r="K418" t="s" s="2">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="M418" s="2"/>
       <c r="N418" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="O418" t="s" s="2">
         <v>43</v>
@@ -50266,7 +50275,7 @@
       </c>
       <c r="X418" s="2"/>
       <c r="Y418" t="s" s="2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="Z418" t="s" s="2">
         <v>43</v>
@@ -50284,7 +50293,7 @@
         <v>43</v>
       </c>
       <c r="AE418" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="AF418" t="s" s="2">
         <v>41</v>
@@ -50313,7 +50322,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
@@ -50336,19 +50345,19 @@
         <v>43</v>
       </c>
       <c r="J419" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K419" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="M419" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="N419" t="s" s="2">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="O419" t="s" s="2">
         <v>43</v>
@@ -50397,7 +50406,7 @@
         <v>43</v>
       </c>
       <c r="AE419" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="AF419" t="s" s="2">
         <v>41</v>
@@ -50426,7 +50435,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50452,14 +50461,14 @@
         <v>180</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="M420" s="2"/>
       <c r="N420" t="s" s="2">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="O420" t="s" s="2">
         <v>43</v>
@@ -50488,7 +50497,7 @@
       </c>
       <c r="X420" s="2"/>
       <c r="Y420" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="Z420" t="s" s="2">
         <v>43</v>
@@ -50506,7 +50515,7 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="AF420" t="s" s="2">
         <v>41</v>
@@ -50535,7 +50544,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50558,17 +50567,17 @@
         <v>43</v>
       </c>
       <c r="J421" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K421" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="M421" s="2"/>
       <c r="N421" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
@@ -50617,7 +50626,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50646,7 +50655,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50669,17 +50678,17 @@
         <v>43</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K422" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="M422" s="2"/>
       <c r="N422" t="s" s="2">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>43</v>
@@ -50728,7 +50737,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
@@ -50757,7 +50766,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
@@ -50783,16 +50792,16 @@
         <v>159</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="O423" t="s" s="2">
         <v>43</v>
@@ -50841,7 +50850,7 @@
         <v>43</v>
       </c>
       <c r="AE423" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="AF423" t="s" s="2">
         <v>41</v>
@@ -50870,7 +50879,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -50896,16 +50905,16 @@
         <v>180</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="M424" t="s" s="2">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="N424" t="s" s="2">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="O424" t="s" s="2">
         <v>43</v>
@@ -50933,10 +50942,10 @@
         <v>116</v>
       </c>
       <c r="X424" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="Y424" t="s" s="2">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="Z424" t="s" s="2">
         <v>43</v>
@@ -50954,7 +50963,7 @@
         <v>43</v>
       </c>
       <c r="AE424" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="AF424" t="s" s="2">
         <v>41</v>
@@ -50983,7 +50992,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
@@ -51006,19 +51015,19 @@
         <v>43</v>
       </c>
       <c r="J425" t="s" s="2">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="K425" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="M425" t="s" s="2">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="N425" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="O425" t="s" s="2">
         <v>43</v>
@@ -51067,7 +51076,7 @@
         <v>43</v>
       </c>
       <c r="AE425" t="s" s="2">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>41</v>
@@ -51096,7 +51105,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
@@ -51122,14 +51131,14 @@
         <v>334</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="M426" s="2"/>
       <c r="N426" t="s" s="2">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="O426" t="s" s="2">
         <v>43</v>
@@ -51178,7 +51187,7 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
@@ -51207,7 +51216,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
@@ -51316,7 +51325,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
@@ -51427,7 +51436,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51540,7 +51549,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
@@ -51566,14 +51575,14 @@
         <v>443</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="M430" s="2"/>
       <c r="N430" t="s" s="2">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="O430" t="s" s="2">
         <v>43</v>
@@ -51622,7 +51631,7 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="AF430" t="s" s="2">
         <v>41</v>
@@ -51651,7 +51660,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51677,14 +51686,14 @@
         <v>126</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="M431" s="2"/>
       <c r="N431" t="s" s="2">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="O431" t="s" s="2">
         <v>43</v>
@@ -51712,10 +51721,10 @@
         <v>174</v>
       </c>
       <c r="X431" t="s" s="2">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="Y431" t="s" s="2">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="Z431" t="s" s="2">
         <v>43</v>
@@ -51733,7 +51742,7 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>41</v>
@@ -51762,7 +51771,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" t="s" s="2">
@@ -51788,14 +51797,14 @@
         <v>52</v>
       </c>
       <c r="K432" t="s" s="2">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="M432" s="2"/>
       <c r="N432" t="s" s="2">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="O432" t="s" s="2">
         <v>43</v>
@@ -51844,7 +51853,7 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
@@ -51873,7 +51882,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
@@ -51899,16 +51908,16 @@
         <v>180</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="N433" t="s" s="2">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="O433" t="s" s="2">
         <v>43</v>
@@ -51957,7 +51966,7 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>
@@ -51986,7 +51995,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" t="s" s="2">
@@ -52012,16 +52021,16 @@
         <v>207</v>
       </c>
       <c r="K434" t="s" s="2">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="M434" t="s" s="2">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="O434" t="s" s="2">
         <v>43</v>
@@ -52070,7 +52079,7 @@
         <v>43</v>
       </c>
       <c r="AE434" t="s" s="2">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="AF434" t="s" s="2">
         <v>41</v>
@@ -52099,7 +52108,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" t="s" s="2">
@@ -52125,10 +52134,10 @@
         <v>334</v>
       </c>
       <c r="K435" t="s" s="2">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="M435" s="2"/>
       <c r="N435" s="2"/>
@@ -52179,7 +52188,7 @@
         <v>43</v>
       </c>
       <c r="AE435" t="s" s="2">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="AF435" t="s" s="2">
         <v>41</v>
@@ -52208,7 +52217,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B436" s="2"/>
       <c r="C436" t="s" s="2">
@@ -52317,7 +52326,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B437" s="2"/>
       <c r="C437" t="s" s="2">
@@ -52428,7 +52437,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B438" s="2"/>
       <c r="C438" t="s" s="2">
@@ -52541,7 +52550,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" t="s" s="2">
@@ -52567,16 +52576,16 @@
         <v>180</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="O439" t="s" s="2">
         <v>43</v>
@@ -52604,10 +52613,10 @@
         <v>116</v>
       </c>
       <c r="X439" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="Y439" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="Z439" t="s" s="2">
         <v>43</v>
@@ -52625,7 +52634,7 @@
         <v>43</v>
       </c>
       <c r="AE439" t="s" s="2">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="AF439" t="s" s="2">
         <v>50</v>
@@ -52654,7 +52663,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B440" s="2"/>
       <c r="C440" t="s" s="2">
@@ -52680,14 +52689,14 @@
         <v>454</v>
       </c>
       <c r="K440" t="s" s="2">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="M440" s="2"/>
       <c r="N440" t="s" s="2">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="O440" t="s" s="2">
         <v>43</v>
@@ -52736,7 +52745,7 @@
         <v>43</v>
       </c>
       <c r="AE440" t="s" s="2">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="AF440" t="s" s="2">
         <v>41</v>
@@ -52765,7 +52774,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" t="s" s="2">
@@ -52791,16 +52800,16 @@
         <v>52</v>
       </c>
       <c r="K441" t="s" s="2">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="N441" t="s" s="2">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="O441" t="s" s="2">
         <v>43</v>
@@ -52849,7 +52858,7 @@
         <v>43</v>
       </c>
       <c r="AE441" t="s" s="2">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="AF441" t="s" s="2">
         <v>41</v>
@@ -52878,7 +52887,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" t="s" s="2">
@@ -52904,16 +52913,16 @@
         <v>52</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="O442" t="s" s="2">
         <v>43</v>
@@ -52962,7 +52971,7 @@
         <v>43</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>41</v>
@@ -52991,7 +53000,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" t="s" s="2">
@@ -53017,14 +53026,14 @@
         <v>180</v>
       </c>
       <c r="K443" t="s" s="2">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="M443" s="2"/>
       <c r="N443" t="s" s="2">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="O443" t="s" s="2">
         <v>43</v>
@@ -53052,10 +53061,10 @@
         <v>116</v>
       </c>
       <c r="X443" t="s" s="2">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="Y443" t="s" s="2">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="Z443" t="s" s="2">
         <v>43</v>
@@ -53073,7 +53082,7 @@
         <v>43</v>
       </c>
       <c r="AE443" t="s" s="2">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="AF443" t="s" s="2">
         <v>41</v>
@@ -53102,7 +53111,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B444" s="2"/>
       <c r="C444" t="s" s="2">
@@ -53128,14 +53137,14 @@
         <v>180</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="M444" s="2"/>
       <c r="N444" t="s" s="2">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="O444" t="s" s="2">
         <v>43</v>
@@ -53163,10 +53172,10 @@
         <v>116</v>
       </c>
       <c r="X444" t="s" s="2">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="Y444" t="s" s="2">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="Z444" t="s" s="2">
         <v>43</v>
@@ -53184,7 +53193,7 @@
         <v>43</v>
       </c>
       <c r="AE444" t="s" s="2">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="AF444" t="s" s="2">
         <v>41</v>
@@ -53213,7 +53222,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B445" s="2"/>
       <c r="C445" t="s" s="2">
@@ -53239,14 +53248,14 @@
         <v>180</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="M445" s="2"/>
       <c r="N445" t="s" s="2">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="O445" t="s" s="2">
         <v>43</v>
@@ -53274,28 +53283,28 @@
         <v>116</v>
       </c>
       <c r="X445" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="Y445" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="Z445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD445" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE445" t="s" s="2">
         <v>1105</v>
-      </c>
-      <c r="Y445" t="s" s="2">
-        <v>1106</v>
-      </c>
-      <c r="Z445" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA445" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB445" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC445" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD445" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE445" t="s" s="2">
-        <v>1102</v>
       </c>
       <c r="AF445" t="s" s="2">
         <v>41</v>
@@ -53324,7 +53333,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B446" s="2"/>
       <c r="C446" t="s" s="2">
@@ -53350,10 +53359,10 @@
         <v>334</v>
       </c>
       <c r="K446" t="s" s="2">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="M446" s="2"/>
       <c r="N446" s="2"/>
@@ -53404,7 +53413,7 @@
         <v>43</v>
       </c>
       <c r="AE446" t="s" s="2">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="AF446" t="s" s="2">
         <v>41</v>
@@ -53433,7 +53442,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" t="s" s="2">
@@ -53542,7 +53551,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B448" s="2"/>
       <c r="C448" t="s" s="2">
@@ -53653,7 +53662,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s" s="2">
@@ -53766,7 +53775,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" t="s" s="2">
@@ -53792,16 +53801,16 @@
         <v>180</v>
       </c>
       <c r="K450" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="N450" t="s" s="2">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="O450" t="s" s="2">
         <v>43</v>
@@ -53829,10 +53838,10 @@
         <v>116</v>
       </c>
       <c r="X450" t="s" s="2">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="Y450" t="s" s="2">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="Z450" t="s" s="2">
         <v>43</v>
@@ -53850,7 +53859,7 @@
         <v>43</v>
       </c>
       <c r="AE450" t="s" s="2">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="AF450" t="s" s="2">
         <v>50</v>
@@ -53879,7 +53888,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="B451" s="2"/>
       <c r="C451" t="s" s="2">
@@ -53902,17 +53911,17 @@
         <v>43</v>
       </c>
       <c r="J451" t="s" s="2">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="K451" t="s" s="2">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="M451" s="2"/>
       <c r="N451" t="s" s="2">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="O451" t="s" s="2">
         <v>43</v>
@@ -53961,7 +53970,7 @@
         <v>43</v>
       </c>
       <c r="AE451" t="s" s="2">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="AF451" t="s" s="2">
         <v>41</v>
@@ -53990,7 +53999,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" t="s" s="2">
@@ -54013,17 +54022,17 @@
         <v>43</v>
       </c>
       <c r="J452" t="s" s="2">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="K452" t="s" s="2">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="M452" s="2"/>
       <c r="N452" t="s" s="2">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="O452" t="s" s="2">
         <v>43</v>
@@ -54072,7 +54081,7 @@
         <v>43</v>
       </c>
       <c r="AE452" t="s" s="2">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="AF452" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -2974,8 +2974,7 @@
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:extension(http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType
-)}
+    <t xml:space="preserve">value:extension('http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType').valueCodeableConcept}
 </t>
   </si>
   <si>
@@ -3741,7 +3740,7 @@
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.2109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="79.359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="102.27734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -2974,7 +2974,7 @@
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:extension('http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType').valueCodeableConcept}
+    <t xml:space="preserve">value:extension('http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType').value}
 </t>
   </si>
   <si>
@@ -3740,7 +3740,7 @@
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.2109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="102.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="86.078125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -772,7 +772,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -1465,7 +1465,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInpatientFacilityProviderRoleVSProviderRoleVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInstitutionalProviderRoleVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -3738,7 +3738,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.2109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="86.078125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -157,7 +157,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code in 
+('attending' | 'pcp' | 'referring' | 'supervising')) implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().conformsTo('http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Practitioner')}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='performing') implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().conformsTo('http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Organization')}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -159,8 +159,8 @@
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code in 
 ('attending' | 'pcp' | 'referring' | 'supervising')) implies 
-ExplanationOfBenefit.careTeam.provider.reference.resolve().conformsTo('http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Practitioner')}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='performing') implies 
-ExplanationOfBenefit.careTeam.provider.reference.resolve().conformsTo('http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Organization')}</t>
+ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='performing') implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -32644,7 +32644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="260" hidden="true">
+    <row r="260">
       <c r="A260" t="s" s="2">
         <v>807</v>
       </c>
@@ -32654,13 +32654,13 @@
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F260" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G260" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H260" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -1706,7 +1706,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCTypeOfBillVS</t>
+    <t>http://hl7.org/fhir/ValueSet/nubc-type-of-bill</t>
   </si>
   <si>
     <t>pointoforigin</t>
@@ -1723,7 +1723,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPointOfOriginVS</t>
+    <t>http://hl7.org/fhir/ValueSet/nubc-admission-source</t>
   </si>
   <si>
     <t>admtype</t>
@@ -2246,7 +2246,7 @@
     <t>Needed in the processing of institutional claims.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCRevenueCodeVS</t>
+    <t>http://hl7.org/fhir/ValueSet/nubc-service-line-revenue</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.category</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -1224,7 +1224,7 @@
     <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payee.party</t>
@@ -1473,7 +1473,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInstitutionalProviderRoleVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInstitutionalProviderRole</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -1552,7 +1552,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.code</t>
@@ -1640,7 +1640,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ProviderNetworkStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ProviderNetworkStatus</t>
   </si>
   <si>
     <t>attendingnetworkcontractingstatus</t>
@@ -1740,7 +1740,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPriorityOfAdmissionnVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPriorityOfAdmissionn</t>
   </si>
   <si>
     <t>discharge-status</t>
@@ -1757,7 +1757,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPatientDischargeStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPatientDischargeStatus</t>
   </si>
   <si>
     <t>ms-drg</t>
@@ -1777,7 +1777,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/MSDRGVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/MSDRG</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis</t>
@@ -1844,7 +1844,7 @@
     <t>diagnosisCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CMVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CM</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.type</t>
@@ -1877,7 +1877,7 @@
     <t>Many systems need to understand for adjudication if the diagnosis was present a time of admission.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPresentOnAdmissionVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPresentOnAdmission</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.packageCode</t>
@@ -1979,7 +1979,7 @@
     <t>procedureCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCSVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
@@ -2289,7 +2289,7 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.modifier</t>
@@ -2307,7 +2307,7 @@
     <t>To support inclusion of the item for adjudication or to charge an elevated fee.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.programCode</t>
@@ -2534,7 +2534,7 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2594,7 +2594,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodes</t>
   </si>
   <si>
     <t>denialreason</t>
@@ -2611,7 +2611,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReasonVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReason</t>
   </si>
   <si>
     <t>allowedunits</t>
@@ -3071,7 +3071,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationSlideCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationSlideCodes</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -3096,7 +3096,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatus</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total</t>
@@ -3132,7 +3132,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -3180,7 +3180,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3746,7 +3746,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.41796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="86.078125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -2312,7 +2312,7 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSProcedureCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.modifier</t>
@@ -2330,7 +2330,7 @@
     <t>To support inclusion of the item for adjudication or to charge an elevated fee.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSProcedureModifiers</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.programCode</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$456</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16532" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16093" uniqueCount="1119">
   <si>
     <t>Path</t>
   </si>
@@ -3009,7 +3009,7 @@
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:extension('http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType').value}
+    <t xml:space="preserve">value:category}
 </t>
   </si>
   <si>
@@ -3019,23 +3019,6 @@
     <t>ExplanationOfBenefit.adjudication.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>adjudication-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
   </si>
   <si>
@@ -3051,64 +3034,6 @@
     <t>ExplanationOfBenefit.adjudication.value</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.adjudication.extension.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.extension.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/AdjudicationSliceCodesCS"/&gt;
-    &lt;code value="adjudicationamounttype"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationSlideCodes</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/AdjudicationSliceCodesCS"/&gt;
-    &lt;code value="denialreason"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.total</t>
   </si>
   <si>
@@ -3122,10 +3047,6 @@
   </si>
   <si>
     <t>To provide the requestor with financial totals by category for the adjudication.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:null}
-</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.id</t>
@@ -3739,7 +3660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM469"/>
+  <dimension ref="A1:AM456"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3774,7 +3695,7 @@
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="86.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -45862,11 +45783,11 @@
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F378" t="s" s="2">
         <v>42</v>
@@ -45884,12 +45805,14 @@
         <v>70</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>955</v>
+        <v>71</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M378" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N378" s="2"/>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45926,14 +45849,16 @@
         <v>43</v>
       </c>
       <c r="AA378" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB378" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC378" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD378" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
         <v>77</v>
@@ -45960,46 +45885,48 @@
         <v>43</v>
       </c>
       <c r="AM378" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="B379" t="s" s="2">
-        <v>957</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F379" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G379" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H379" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H379" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I379" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>958</v>
+        <v>70</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>955</v>
+        <v>343</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M379" s="2"/>
-      <c r="N379" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
       </c>
@@ -46047,7 +45974,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -46056,7 +45983,7 @@
         <v>42</v>
       </c>
       <c r="AH379" t="s" s="2">
-        <v>959</v>
+        <v>43</v>
       </c>
       <c r="AI379" t="s" s="2">
         <v>78</v>
@@ -46071,47 +45998,47 @@
         <v>43</v>
       </c>
       <c r="AM379" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="380" hidden="true">
+    <row r="380">
       <c r="A380" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F380" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G380" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H380" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I380" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>344</v>
+        <v>802</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>73</v>
+        <v>803</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>156</v>
+        <v>804</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -46136,13 +46063,11 @@
         <v>43</v>
       </c>
       <c r="W380" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X380" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X380" s="2"/>
       <c r="Y380" t="s" s="2">
-        <v>43</v>
+        <v>805</v>
       </c>
       <c r="Z380" t="s" s="2">
         <v>43</v>
@@ -46160,19 +46085,19 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>345</v>
+        <v>800</v>
       </c>
       <c r="AF380" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI380" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ380" t="s" s="2">
         <v>43</v>
@@ -46184,12 +46109,12 @@
         <v>43</v>
       </c>
       <c r="AM380" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46197,13 +46122,13 @@
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F381" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G381" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H381" t="s" s="2">
         <v>43</v>
@@ -46215,16 +46140,16 @@
         <v>180</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46249,11 +46174,13 @@
         <v>43</v>
       </c>
       <c r="W381" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X381" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="Y381" t="s" s="2">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46271,10 +46198,10 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="AF381" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG381" t="s" s="2">
         <v>50</v>
@@ -46300,7 +46227,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46323,19 +46250,19 @@
         <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>180</v>
+        <v>756</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46360,13 +46287,13 @@
         <v>43</v>
       </c>
       <c r="W382" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X382" t="s" s="2">
-        <v>811</v>
+        <v>43</v>
       </c>
       <c r="Y382" t="s" s="2">
-        <v>812</v>
+        <v>43</v>
       </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
@@ -46384,7 +46311,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46413,7 +46340,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46436,19 +46363,19 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46497,7 +46424,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46524,11 +46451,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="384" hidden="true">
+    <row r="384">
       <c r="A384" t="s" s="2">
-        <v>964</v>
-      </c>
-      <c r="B384" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>823</v>
+      </c>
       <c r="C384" t="s" s="2">
         <v>43</v>
       </c>
@@ -46537,10 +46466,10 @@
         <v>41</v>
       </c>
       <c r="F384" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G384" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H384" t="s" s="2">
         <v>43</v>
@@ -46549,19 +46478,17 @@
         <v>43</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>761</v>
+        <v>334</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="M384" t="s" s="2">
-        <v>821</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>822</v>
+        <v>951</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46610,13 +46537,13 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>818</v>
+        <v>948</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>43</v>
@@ -46637,13 +46564,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="B385" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
         <v>43</v>
       </c>
@@ -46652,10 +46577,10 @@
         <v>41</v>
       </c>
       <c r="F385" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G385" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H385" t="s" s="2">
         <v>43</v>
@@ -46664,18 +46589,16 @@
         <v>43</v>
       </c>
       <c r="J385" t="s" s="2">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>824</v>
+        <v>64</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>950</v>
+        <v>65</v>
       </c>
       <c r="M385" s="2"/>
-      <c r="N385" t="s" s="2">
-        <v>951</v>
-      </c>
+      <c r="N385" s="2"/>
       <c r="O385" t="s" s="2">
         <v>43</v>
       </c>
@@ -46723,19 +46646,19 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>948</v>
+        <v>66</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI385" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ385" t="s" s="2">
         <v>43</v>
@@ -46747,23 +46670,23 @@
         <v>43</v>
       </c>
       <c r="AM385" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F386" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G386" t="s" s="2">
         <v>43</v>
@@ -46775,15 +46698,17 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M386" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N386" s="2"/>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46832,19 +46757,19 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI386" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ386" t="s" s="2">
         <v>43</v>
@@ -46861,15 +46786,15 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F387" t="s" s="2">
         <v>42</v>
@@ -46878,22 +46803,26 @@
         <v>43</v>
       </c>
       <c r="H387" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I387" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J387" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>955</v>
+        <v>343</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M387" s="2"/>
-      <c r="N387" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N387" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
       </c>
@@ -46929,17 +46858,19 @@
         <v>43</v>
       </c>
       <c r="AA387" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB387" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC387" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD387" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46963,16 +46894,14 @@
         <v>43</v>
       </c>
       <c r="AM387" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="B388" t="s" s="2">
-        <v>957</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
         <v>43</v>
       </c>
@@ -46984,7 +46913,7 @@
         <v>50</v>
       </c>
       <c r="G388" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H388" t="s" s="2">
         <v>43</v>
@@ -46993,16 +46922,20 @@
         <v>43</v>
       </c>
       <c r="J388" t="s" s="2">
-        <v>958</v>
+        <v>180</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>955</v>
+        <v>801</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M388" s="2"/>
-      <c r="N388" s="2"/>
+        <v>802</v>
+      </c>
+      <c r="M388" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N388" t="s" s="2">
+        <v>804</v>
+      </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
       </c>
@@ -47026,13 +46959,11 @@
         <v>43</v>
       </c>
       <c r="W388" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X388" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X388" s="2"/>
       <c r="Y388" t="s" s="2">
-        <v>43</v>
+        <v>825</v>
       </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
@@ -47050,19 +46981,19 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>77</v>
+        <v>800</v>
       </c>
       <c r="AF388" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG388" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH388" t="s" s="2">
-        <v>959</v>
+        <v>43</v>
       </c>
       <c r="AI388" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ388" t="s" s="2">
         <v>43</v>
@@ -47079,7 +47010,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -47102,16 +47033,20 @@
         <v>43</v>
       </c>
       <c r="J389" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>64</v>
+        <v>807</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M389" s="2"/>
-      <c r="N389" s="2"/>
+        <v>808</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="N389" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
       </c>
@@ -47135,13 +47070,13 @@
         <v>43</v>
       </c>
       <c r="W389" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X389" t="s" s="2">
-        <v>43</v>
+        <v>811</v>
       </c>
       <c r="Y389" t="s" s="2">
-        <v>43</v>
+        <v>812</v>
       </c>
       <c r="Z389" t="s" s="2">
         <v>43</v>
@@ -47159,7 +47094,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>66</v>
+        <v>806</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -47171,7 +47106,7 @@
         <v>43</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>43</v>
@@ -47183,12 +47118,12 @@
         <v>43</v>
       </c>
       <c r="AM389" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47196,10 +47131,10 @@
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F390" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G390" t="s" s="2">
         <v>43</v>
@@ -47211,16 +47146,20 @@
         <v>43</v>
       </c>
       <c r="J390" t="s" s="2">
-        <v>70</v>
+        <v>756</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>955</v>
+        <v>814</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M390" s="2"/>
-      <c r="N390" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="N390" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
       </c>
@@ -47256,31 +47195,31 @@
         <v>43</v>
       </c>
       <c r="AA390" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="AB390" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AC390" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD390" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>77</v>
+        <v>813</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI390" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ390" t="s" s="2">
         <v>43</v>
@@ -47297,7 +47236,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47305,7 +47244,7 @@
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F391" t="s" s="2">
         <v>50</v>
@@ -47320,24 +47259,26 @@
         <v>43</v>
       </c>
       <c r="J391" t="s" s="2">
-        <v>92</v>
+        <v>761</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>968</v>
+        <v>819</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>969</v>
+        <v>820</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>970</v>
-      </c>
-      <c r="N391" s="2"/>
+        <v>821</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>822</v>
+      </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P391" s="2"/>
       <c r="Q391" t="s" s="2">
-        <v>971</v>
+        <v>43</v>
       </c>
       <c r="R391" t="s" s="2">
         <v>43</v>
@@ -47379,10 +47320,10 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>972</v>
+        <v>818</v>
       </c>
       <c r="AF391" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG391" t="s" s="2">
         <v>50</v>
@@ -47391,7 +47332,7 @@
         <v>43</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>43</v>
@@ -47403,20 +47344,22 @@
         <v>43</v>
       </c>
       <c r="AM391" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="392" hidden="true">
+    <row r="392">
       <c r="A392" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="B392" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="B392" t="s" s="2">
+        <v>826</v>
+      </c>
       <c r="C392" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F392" t="s" s="2">
         <v>50</v>
@@ -47431,16 +47374,18 @@
         <v>43</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>974</v>
+        <v>827</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="M392" s="2"/>
-      <c r="N392" s="2"/>
+      <c r="N392" t="s" s="2">
+        <v>951</v>
+      </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
       </c>
@@ -47476,23 +47421,25 @@
         <v>43</v>
       </c>
       <c r="AA392" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AB392" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC392" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD392" t="s" s="2">
-        <v>620</v>
+        <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>976</v>
+        <v>948</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>43</v>
@@ -47510,16 +47457,14 @@
         <v>43</v>
       </c>
       <c r="AM392" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="B393" t="s" s="2">
-        <v>977</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
         <v>43</v>
       </c>
@@ -47540,13 +47485,13 @@
         <v>43</v>
       </c>
       <c r="J393" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>974</v>
+        <v>64</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>975</v>
+        <v>65</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
@@ -47558,7 +47503,7 @@
         <v>43</v>
       </c>
       <c r="R393" t="s" s="2">
-        <v>978</v>
+        <v>43</v>
       </c>
       <c r="S393" t="s" s="2">
         <v>43</v>
@@ -47573,11 +47518,13 @@
         <v>43</v>
       </c>
       <c r="W393" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X393" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y393" t="s" s="2">
-        <v>979</v>
+        <v>43</v>
       </c>
       <c r="Z393" t="s" s="2">
         <v>43</v>
@@ -47595,7 +47542,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>976</v>
+        <v>66</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47607,7 +47554,7 @@
         <v>43</v>
       </c>
       <c r="AI393" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ393" t="s" s="2">
         <v>43</v>
@@ -47619,16 +47566,16 @@
         <v>43</v>
       </c>
       <c r="AM393" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -47641,26 +47588,24 @@
         <v>43</v>
       </c>
       <c r="H394" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I394" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J394" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="M394" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N394" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N394" s="2"/>
       <c r="O394" t="s" s="2">
         <v>43</v>
       </c>
@@ -47708,7 +47653,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47732,47 +47677,47 @@
         <v>43</v>
       </c>
       <c r="AM394" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F395" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G395" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H395" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I395" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J395" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>801</v>
+        <v>343</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>802</v>
+        <v>344</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>803</v>
+        <v>73</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>804</v>
+        <v>156</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47797,11 +47742,13 @@
         <v>43</v>
       </c>
       <c r="W395" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X395" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y395" t="s" s="2">
-        <v>825</v>
+        <v>43</v>
       </c>
       <c r="Z395" t="s" s="2">
         <v>43</v>
@@ -47819,19 +47766,19 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>800</v>
+        <v>345</v>
       </c>
       <c r="AF395" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI395" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ395" t="s" s="2">
         <v>43</v>
@@ -47843,12 +47790,12 @@
         <v>43</v>
       </c>
       <c r="AM395" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47856,7 +47803,7 @@
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F396" t="s" s="2">
         <v>50</v>
@@ -47874,16 +47821,16 @@
         <v>180</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>43</v>
@@ -47893,7 +47840,7 @@
         <v>43</v>
       </c>
       <c r="R396" t="s" s="2">
-        <v>43</v>
+        <v>828</v>
       </c>
       <c r="S396" t="s" s="2">
         <v>43</v>
@@ -47908,13 +47855,11 @@
         <v>43</v>
       </c>
       <c r="W396" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X396" t="s" s="2">
-        <v>811</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X396" s="2"/>
       <c r="Y396" t="s" s="2">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="Z396" t="s" s="2">
         <v>43</v>
@@ -47932,10 +47877,10 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="AF396" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG396" t="s" s="2">
         <v>50</v>
@@ -47961,7 +47906,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47984,19 +47929,19 @@
         <v>43</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>756</v>
+        <v>180</v>
       </c>
       <c r="K397" t="s" s="2">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="O397" t="s" s="2">
         <v>43</v>
@@ -48021,13 +47966,11 @@
         <v>43</v>
       </c>
       <c r="W397" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X397" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X397" s="2"/>
       <c r="Y397" t="s" s="2">
-        <v>43</v>
+        <v>829</v>
       </c>
       <c r="Z397" t="s" s="2">
         <v>43</v>
@@ -48045,7 +47988,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>41</v>
@@ -48074,7 +48017,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -48097,19 +48040,19 @@
         <v>43</v>
       </c>
       <c r="J398" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="K398" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="O398" t="s" s="2">
         <v>43</v>
@@ -48158,7 +48101,7 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
@@ -48185,13 +48128,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="B399" t="s" s="2">
-        <v>826</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
         <v>43</v>
       </c>
@@ -48203,7 +48144,7 @@
         <v>50</v>
       </c>
       <c r="G399" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H399" t="s" s="2">
         <v>43</v>
@@ -48212,17 +48153,19 @@
         <v>43</v>
       </c>
       <c r="J399" t="s" s="2">
-        <v>334</v>
+        <v>761</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="M399" s="2"/>
+        <v>820</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>821</v>
+      </c>
       <c r="N399" t="s" s="2">
-        <v>951</v>
+        <v>822</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -48271,13 +48214,13 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>948</v>
+        <v>818</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>43</v>
@@ -48300,7 +48243,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48308,10 +48251,10 @@
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F400" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G400" t="s" s="2">
         <v>43</v>
@@ -48320,19 +48263,23 @@
         <v>43</v>
       </c>
       <c r="I400" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J400" t="s" s="2">
-        <v>52</v>
+        <v>334</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>64</v>
+        <v>961</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M400" s="2"/>
-      <c r="N400" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N400" t="s" s="2">
+        <v>964</v>
+      </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
       </c>
@@ -48368,31 +48315,31 @@
         <v>43</v>
       </c>
       <c r="AA400" t="s" s="2">
-        <v>43</v>
+        <v>952</v>
       </c>
       <c r="AB400" t="s" s="2">
-        <v>43</v>
+        <v>479</v>
       </c>
       <c r="AC400" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD400" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>66</v>
+        <v>960</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI400" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ400" t="s" s="2">
         <v>43</v>
@@ -48404,12 +48351,12 @@
         <v>43</v>
       </c>
       <c r="AM400" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48417,10 +48364,10 @@
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F401" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G401" t="s" s="2">
         <v>43</v>
@@ -48432,13 +48379,13 @@
         <v>43</v>
       </c>
       <c r="J401" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>955</v>
+        <v>64</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>956</v>
+        <v>65</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
@@ -48477,29 +48424,31 @@
         <v>43</v>
       </c>
       <c r="AA401" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB401" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC401" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD401" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI401" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ401" t="s" s="2">
         <v>43</v>
@@ -48511,28 +48460,26 @@
         <v>43</v>
       </c>
       <c r="AM401" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="B402" t="s" s="2">
-        <v>957</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F402" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G402" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H402" t="s" s="2">
         <v>43</v>
@@ -48541,15 +48488,17 @@
         <v>43</v>
       </c>
       <c r="J402" t="s" s="2">
-        <v>958</v>
+        <v>70</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>955</v>
+        <v>71</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M402" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N402" s="2"/>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48607,7 +48556,7 @@
         <v>42</v>
       </c>
       <c r="AH402" t="s" s="2">
-        <v>959</v>
+        <v>43</v>
       </c>
       <c r="AI402" t="s" s="2">
         <v>78</v>
@@ -48622,44 +48571,48 @@
         <v>43</v>
       </c>
       <c r="AM402" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F403" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G403" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H403" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I403" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J403" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M403" s="2"/>
-      <c r="N403" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N403" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
       </c>
@@ -48707,19 +48660,19 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI403" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ403" t="s" s="2">
         <v>43</v>
@@ -48731,12 +48684,12 @@
         <v>43</v>
       </c>
       <c r="AM403" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="404" hidden="true">
+    <row r="404">
       <c r="A404" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48744,31 +48697,35 @@
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F404" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G404" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H404" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I404" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J404" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>955</v>
+        <v>801</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="M404" s="2"/>
-      <c r="N404" s="2"/>
+        <v>969</v>
+      </c>
+      <c r="M404" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N404" t="s" s="2">
+        <v>970</v>
+      </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
       </c>
@@ -48792,43 +48749,41 @@
         <v>43</v>
       </c>
       <c r="W404" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X404" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X404" s="2"/>
       <c r="Y404" t="s" s="2">
-        <v>43</v>
+        <v>805</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA404" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="AB404" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AC404" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD404" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>77</v>
+        <v>968</v>
       </c>
       <c r="AF404" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI404" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ404" t="s" s="2">
         <v>43</v>
@@ -48845,7 +48800,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48865,70 +48820,70 @@
         <v>43</v>
       </c>
       <c r="I405" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J405" t="s" s="2">
-        <v>92</v>
+        <v>756</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>969</v>
-      </c>
-      <c r="M405" t="s" s="2">
-        <v>970</v>
-      </c>
-      <c r="N405" s="2"/>
+        <v>973</v>
+      </c>
+      <c r="M405" s="2"/>
+      <c r="N405" t="s" s="2">
+        <v>974</v>
+      </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P405" s="2"/>
       <c r="Q405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD405" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE405" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="R405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD405" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE405" t="s" s="2">
-        <v>972</v>
-      </c>
       <c r="AF405" t="s" s="2">
         <v>50</v>
       </c>
@@ -48939,7 +48894,7 @@
         <v>43</v>
       </c>
       <c r="AI405" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ405" t="s" s="2">
         <v>43</v>
@@ -48951,23 +48906,25 @@
         <v>43</v>
       </c>
       <c r="AM405" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="406" hidden="true">
+    <row r="406">
       <c r="A406" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="B406" s="2"/>
+        <v>960</v>
+      </c>
+      <c r="B406" t="s" s="2">
+        <v>823</v>
+      </c>
       <c r="C406" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F406" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G406" t="s" s="2">
         <v>51</v>
@@ -48976,19 +48933,23 @@
         <v>43</v>
       </c>
       <c r="I406" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J406" t="s" s="2">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>974</v>
+        <v>824</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="M406" s="2"/>
-      <c r="N406" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="M406" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N406" t="s" s="2">
+        <v>964</v>
+      </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
       </c>
@@ -49024,23 +48985,25 @@
         <v>43</v>
       </c>
       <c r="AA406" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AB406" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB406" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC406" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD406" t="s" s="2">
-        <v>620</v>
+        <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>43</v>
@@ -49058,16 +49021,14 @@
         <v>43</v>
       </c>
       <c r="AM406" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="B407" t="s" s="2">
-        <v>977</v>
-      </c>
+        <v>965</v>
+      </c>
+      <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
         <v>43</v>
       </c>
@@ -49088,13 +49049,13 @@
         <v>43</v>
       </c>
       <c r="J407" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>974</v>
+        <v>64</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>975</v>
+        <v>65</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -49106,7 +49067,7 @@
         <v>43</v>
       </c>
       <c r="R407" t="s" s="2">
-        <v>980</v>
+        <v>43</v>
       </c>
       <c r="S407" t="s" s="2">
         <v>43</v>
@@ -49121,11 +49082,13 @@
         <v>43</v>
       </c>
       <c r="W407" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X407" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X407" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y407" t="s" s="2">
-        <v>979</v>
+        <v>43</v>
       </c>
       <c r="Z407" t="s" s="2">
         <v>43</v>
@@ -49143,7 +49106,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>976</v>
+        <v>66</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -49155,7 +49118,7 @@
         <v>43</v>
       </c>
       <c r="AI407" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ407" t="s" s="2">
         <v>43</v>
@@ -49167,16 +49130,16 @@
         <v>43</v>
       </c>
       <c r="AM407" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -49189,26 +49152,24 @@
         <v>43</v>
       </c>
       <c r="H408" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I408" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J408" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>343</v>
+        <v>71</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="M408" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N408" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N408" s="2"/>
       <c r="O408" t="s" s="2">
         <v>43</v>
       </c>
@@ -49256,7 +49217,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>41</v>
@@ -49280,47 +49241,47 @@
         <v>43</v>
       </c>
       <c r="AM408" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F409" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G409" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H409" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I409" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J409" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K409" t="s" s="2">
-        <v>801</v>
+        <v>343</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>802</v>
+        <v>344</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>803</v>
+        <v>73</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>804</v>
+        <v>156</v>
       </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -49330,7 +49291,7 @@
         <v>43</v>
       </c>
       <c r="R409" t="s" s="2">
-        <v>828</v>
+        <v>43</v>
       </c>
       <c r="S409" t="s" s="2">
         <v>43</v>
@@ -49345,11 +49306,13 @@
         <v>43</v>
       </c>
       <c r="W409" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X409" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X409" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y409" t="s" s="2">
-        <v>805</v>
+        <v>43</v>
       </c>
       <c r="Z409" t="s" s="2">
         <v>43</v>
@@ -49367,19 +49330,19 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>800</v>
+        <v>345</v>
       </c>
       <c r="AF409" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI409" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ409" t="s" s="2">
         <v>43</v>
@@ -49391,12 +49354,12 @@
         <v>43</v>
       </c>
       <c r="AM409" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49416,22 +49379,22 @@
         <v>43</v>
       </c>
       <c r="I410" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J410" t="s" s="2">
         <v>180</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>808</v>
+        <v>969</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>810</v>
+        <v>970</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -49460,7 +49423,7 @@
       </c>
       <c r="X410" s="2"/>
       <c r="Y410" t="s" s="2">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="Z410" t="s" s="2">
         <v>43</v>
@@ -49478,10 +49441,10 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>806</v>
+        <v>968</v>
       </c>
       <c r="AF410" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG410" t="s" s="2">
         <v>50</v>
@@ -49507,7 +49470,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49515,7 +49478,7 @@
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F411" t="s" s="2">
         <v>50</v>
@@ -49527,22 +49490,20 @@
         <v>43</v>
       </c>
       <c r="I411" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J411" t="s" s="2">
         <v>756</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>814</v>
+        <v>972</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="M411" t="s" s="2">
-        <v>816</v>
-      </c>
+        <v>973</v>
+      </c>
+      <c r="M411" s="2"/>
       <c r="N411" t="s" s="2">
-        <v>817</v>
+        <v>974</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49591,10 +49552,10 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>813</v>
+        <v>971</v>
       </c>
       <c r="AF411" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG411" t="s" s="2">
         <v>50</v>
@@ -49618,44 +49579,46 @@
         <v>43</v>
       </c>
     </row>
-    <row r="412" hidden="true">
+    <row r="412">
       <c r="A412" t="s" s="2">
-        <v>964</v>
-      </c>
-      <c r="B412" s="2"/>
+        <v>960</v>
+      </c>
+      <c r="B412" t="s" s="2">
+        <v>975</v>
+      </c>
       <c r="C412" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F412" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G412" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H412" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I412" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J412" t="s" s="2">
-        <v>761</v>
+        <v>334</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>819</v>
+        <v>976</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>820</v>
+        <v>962</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>821</v>
+        <v>963</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>822</v>
+        <v>964</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49704,13 +49667,13 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>818</v>
+        <v>960</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG412" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH412" t="s" s="2">
         <v>43</v>
@@ -49733,7 +49696,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49741,10 +49704,10 @@
       </c>
       <c r="D413" s="2"/>
       <c r="E413" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F413" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G413" t="s" s="2">
         <v>43</v>
@@ -49753,23 +49716,19 @@
         <v>43</v>
       </c>
       <c r="I413" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>982</v>
+        <v>64</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="M413" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="N413" t="s" s="2">
-        <v>985</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M413" s="2"/>
+      <c r="N413" s="2"/>
       <c r="O413" t="s" s="2">
         <v>43</v>
       </c>
@@ -49805,31 +49764,31 @@
         <v>43</v>
       </c>
       <c r="AA413" t="s" s="2">
-        <v>986</v>
+        <v>43</v>
       </c>
       <c r="AB413" t="s" s="2">
-        <v>479</v>
+        <v>43</v>
       </c>
       <c r="AC413" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD413" t="s" s="2">
-        <v>620</v>
+        <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>981</v>
+        <v>66</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG413" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH413" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI413" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ413" t="s" s="2">
         <v>43</v>
@@ -49841,23 +49800,23 @@
         <v>43</v>
       </c>
       <c r="AM413" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F414" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G414" t="s" s="2">
         <v>43</v>
@@ -49869,15 +49828,17 @@
         <v>43</v>
       </c>
       <c r="J414" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K414" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M414" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M414" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N414" s="2"/>
       <c r="O414" t="s" s="2">
         <v>43</v>
@@ -49926,19 +49887,19 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG414" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH414" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI414" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ414" t="s" s="2">
         <v>43</v>
@@ -49955,11 +49916,11 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" t="s" s="2">
@@ -49972,24 +49933,26 @@
         <v>43</v>
       </c>
       <c r="H415" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I415" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J415" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="M415" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N415" s="2"/>
+      <c r="N415" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O415" t="s" s="2">
         <v>43</v>
       </c>
@@ -50037,7 +50000,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -50061,47 +50024,47 @@
         <v>43</v>
       </c>
       <c r="AM415" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F416" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G416" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H416" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I416" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J416" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K416" t="s" s="2">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>344</v>
+        <v>969</v>
       </c>
       <c r="M416" t="s" s="2">
-        <v>73</v>
+        <v>803</v>
       </c>
       <c r="N416" t="s" s="2">
-        <v>156</v>
+        <v>970</v>
       </c>
       <c r="O416" t="s" s="2">
         <v>43</v>
@@ -50126,13 +50089,11 @@
         <v>43</v>
       </c>
       <c r="W416" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X416" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X416" s="2"/>
       <c r="Y416" t="s" s="2">
-        <v>43</v>
+        <v>977</v>
       </c>
       <c r="Z416" t="s" s="2">
         <v>43</v>
@@ -50150,19 +50111,19 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>345</v>
+        <v>968</v>
       </c>
       <c r="AF416" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG416" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH416" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI416" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ416" t="s" s="2">
         <v>43</v>
@@ -50174,12 +50135,12 @@
         <v>43</v>
       </c>
       <c r="AM416" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50193,7 +50154,7 @@
         <v>50</v>
       </c>
       <c r="G417" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H417" t="s" s="2">
         <v>43</v>
@@ -50202,19 +50163,17 @@
         <v>51</v>
       </c>
       <c r="J417" t="s" s="2">
-        <v>180</v>
+        <v>756</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>801</v>
+        <v>972</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>991</v>
-      </c>
-      <c r="M417" t="s" s="2">
-        <v>803</v>
-      </c>
+        <v>973</v>
+      </c>
+      <c r="M417" s="2"/>
       <c r="N417" t="s" s="2">
-        <v>992</v>
+        <v>974</v>
       </c>
       <c r="O417" t="s" s="2">
         <v>43</v>
@@ -50239,11 +50198,13 @@
         <v>43</v>
       </c>
       <c r="W417" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X417" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X417" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y417" t="s" s="2">
-        <v>805</v>
+        <v>43</v>
       </c>
       <c r="Z417" t="s" s="2">
         <v>43</v>
@@ -50261,7 +50222,7 @@
         <v>43</v>
       </c>
       <c r="AE417" t="s" s="2">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="AF417" t="s" s="2">
         <v>50</v>
@@ -50288,9 +50249,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="418" hidden="true">
+    <row r="418">
       <c r="A418" t="s" s="2">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50298,32 +50259,32 @@
       </c>
       <c r="D418" s="2"/>
       <c r="E418" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F418" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G418" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H418" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I418" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J418" t="s" s="2">
-        <v>756</v>
+        <v>334</v>
       </c>
       <c r="K418" t="s" s="2">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="M418" s="2"/>
       <c r="N418" t="s" s="2">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="O418" t="s" s="2">
         <v>43</v>
@@ -50372,10 +50333,10 @@
         <v>43</v>
       </c>
       <c r="AE418" t="s" s="2">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="AF418" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG418" t="s" s="2">
         <v>50</v>
@@ -50399,13 +50360,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>981</v>
-      </c>
-      <c r="B419" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
         <v>43</v>
       </c>
@@ -50414,32 +50373,28 @@
         <v>41</v>
       </c>
       <c r="F419" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G419" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H419" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I419" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J419" t="s" s="2">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="K419" t="s" s="2">
-        <v>824</v>
+        <v>64</v>
       </c>
       <c r="L419" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="M419" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="N419" t="s" s="2">
-        <v>985</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M419" s="2"/>
+      <c r="N419" s="2"/>
       <c r="O419" t="s" s="2">
         <v>43</v>
       </c>
@@ -50487,19 +50442,19 @@
         <v>43</v>
       </c>
       <c r="AE419" t="s" s="2">
-        <v>981</v>
+        <v>66</v>
       </c>
       <c r="AF419" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG419" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH419" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI419" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ419" t="s" s="2">
         <v>43</v>
@@ -50511,23 +50466,23 @@
         <v>43</v>
       </c>
       <c r="AM419" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F420" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G420" t="s" s="2">
         <v>43</v>
@@ -50539,15 +50494,17 @@
         <v>43</v>
       </c>
       <c r="J420" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M420" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M420" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N420" s="2"/>
       <c r="O420" t="s" s="2">
         <v>43</v>
@@ -50596,19 +50553,19 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF420" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG420" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH420" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI420" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ420" t="s" s="2">
         <v>43</v>
@@ -50625,11 +50582,11 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" t="s" s="2">
@@ -50642,24 +50599,26 @@
         <v>43</v>
       </c>
       <c r="H421" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I421" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J421" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K421" t="s" s="2">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="M421" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N421" s="2"/>
+      <c r="N421" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
       </c>
@@ -50707,7 +50666,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50731,47 +50690,45 @@
         <v>43</v>
       </c>
       <c r="AM421" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F422" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G422" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H422" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I422" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K422" t="s" s="2">
-        <v>343</v>
+        <v>986</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M422" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>987</v>
+      </c>
+      <c r="M422" s="2"/>
       <c r="N422" t="s" s="2">
-        <v>156</v>
+        <v>988</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>43</v>
@@ -50796,13 +50753,11 @@
         <v>43</v>
       </c>
       <c r="W422" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X422" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X422" s="2"/>
       <c r="Y422" t="s" s="2">
-        <v>43</v>
+        <v>989</v>
       </c>
       <c r="Z422" t="s" s="2">
         <v>43</v>
@@ -50820,19 +50775,19 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>345</v>
+        <v>985</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG422" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH422" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI422" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ422" t="s" s="2">
         <v>43</v>
@@ -50844,7 +50799,7 @@
         <v>43</v>
       </c>
       <c r="AM422" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="423" hidden="true">
@@ -50857,7 +50812,7 @@
       </c>
       <c r="D423" s="2"/>
       <c r="E423" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F423" t="s" s="2">
         <v>50</v>
@@ -50869,22 +50824,22 @@
         <v>43</v>
       </c>
       <c r="I423" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J423" t="s" s="2">
-        <v>180</v>
+        <v>756</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>801</v>
+        <v>991</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M423" t="s" s="2">
-        <v>803</v>
+        <v>993</v>
       </c>
       <c r="N423" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="O423" t="s" s="2">
         <v>43</v>
@@ -50909,11 +50864,13 @@
         <v>43</v>
       </c>
       <c r="W423" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X423" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X423" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y423" t="s" s="2">
-        <v>825</v>
+        <v>43</v>
       </c>
       <c r="Z423" t="s" s="2">
         <v>43</v>
@@ -50934,7 +50891,7 @@
         <v>990</v>
       </c>
       <c r="AF423" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG423" t="s" s="2">
         <v>50</v>
@@ -50960,7 +50917,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -50968,7 +50925,7 @@
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F424" t="s" s="2">
         <v>50</v>
@@ -50980,20 +50937,20 @@
         <v>43</v>
       </c>
       <c r="I424" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J424" t="s" s="2">
-        <v>756</v>
+        <v>180</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="M424" s="2"/>
       <c r="N424" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="O424" t="s" s="2">
         <v>43</v>
@@ -51018,13 +50975,13 @@
         <v>43</v>
       </c>
       <c r="W424" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X424" t="s" s="2">
-        <v>43</v>
+        <v>999</v>
       </c>
       <c r="Y424" t="s" s="2">
-        <v>43</v>
+        <v>1000</v>
       </c>
       <c r="Z424" t="s" s="2">
         <v>43</v>
@@ -51042,10 +50999,10 @@
         <v>43</v>
       </c>
       <c r="AE424" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="AF424" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG424" t="s" s="2">
         <v>50</v>
@@ -51069,46 +51026,42 @@
         <v>43</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>981</v>
-      </c>
-      <c r="B425" t="s" s="2">
-        <v>997</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F425" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G425" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H425" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I425" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J425" t="s" s="2">
-        <v>334</v>
+        <v>534</v>
       </c>
       <c r="K425" t="s" s="2">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="M425" t="s" s="2">
-        <v>984</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="M425" s="2"/>
       <c r="N425" t="s" s="2">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="O425" t="s" s="2">
         <v>43</v>
@@ -51157,13 +51110,13 @@
         <v>43</v>
       </c>
       <c r="AE425" t="s" s="2">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH425" t="s" s="2">
         <v>43</v>
@@ -51186,7 +51139,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
@@ -51209,16 +51162,18 @@
         <v>43</v>
       </c>
       <c r="J426" t="s" s="2">
-        <v>52</v>
+        <v>756</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>64</v>
+        <v>1006</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>65</v>
+        <v>1007</v>
       </c>
       <c r="M426" s="2"/>
-      <c r="N426" s="2"/>
+      <c r="N426" t="s" s="2">
+        <v>1008</v>
+      </c>
       <c r="O426" t="s" s="2">
         <v>43</v>
       </c>
@@ -51266,7 +51221,7 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>66</v>
+        <v>1005</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
@@ -51278,7 +51233,7 @@
         <v>43</v>
       </c>
       <c r="AI426" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ426" t="s" s="2">
         <v>43</v>
@@ -51290,23 +51245,23 @@
         <v>43</v>
       </c>
       <c r="AM426" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>988</v>
+        <v>1009</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F427" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G427" t="s" s="2">
         <v>43</v>
@@ -51318,18 +51273,20 @@
         <v>43</v>
       </c>
       <c r="J427" t="s" s="2">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>71</v>
+        <v>1010</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>72</v>
+        <v>1011</v>
       </c>
       <c r="M427" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N427" s="2"/>
+        <v>1012</v>
+      </c>
+      <c r="N427" t="s" s="2">
+        <v>1013</v>
+      </c>
       <c r="O427" t="s" s="2">
         <v>43</v>
       </c>
@@ -51377,19 +51334,19 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>77</v>
+        <v>1009</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG427" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH427" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI427" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ427" t="s" s="2">
         <v>43</v>
@@ -51401,47 +51358,47 @@
         <v>43</v>
       </c>
       <c r="AM427" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>989</v>
+        <v>1014</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F428" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G428" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I428" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J428" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>343</v>
+        <v>1015</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>344</v>
+        <v>1016</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>73</v>
+        <v>1017</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>156</v>
+        <v>1018</v>
       </c>
       <c r="O428" t="s" s="2">
         <v>43</v>
@@ -51466,13 +51423,13 @@
         <v>43</v>
       </c>
       <c r="W428" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X428" t="s" s="2">
-        <v>43</v>
+        <v>1019</v>
       </c>
       <c r="Y428" t="s" s="2">
-        <v>43</v>
+        <v>1020</v>
       </c>
       <c r="Z428" t="s" s="2">
         <v>43</v>
@@ -51490,19 +51447,19 @@
         <v>43</v>
       </c>
       <c r="AE428" t="s" s="2">
-        <v>345</v>
+        <v>1014</v>
       </c>
       <c r="AF428" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>43</v>
@@ -51514,12 +51471,12 @@
         <v>43</v>
       </c>
       <c r="AM428" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>990</v>
+        <v>1021</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51527,7 +51484,7 @@
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F429" t="s" s="2">
         <v>50</v>
@@ -51539,22 +51496,22 @@
         <v>43</v>
       </c>
       <c r="I429" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J429" t="s" s="2">
-        <v>180</v>
+        <v>1022</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>801</v>
+        <v>1023</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>991</v>
+        <v>1024</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>803</v>
+        <v>1025</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="O429" t="s" s="2">
         <v>43</v>
@@ -51579,11 +51536,13 @@
         <v>43</v>
       </c>
       <c r="W429" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X429" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X429" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y429" t="s" s="2">
-        <v>999</v>
+        <v>43</v>
       </c>
       <c r="Z429" t="s" s="2">
         <v>43</v>
@@ -51601,10 +51560,10 @@
         <v>43</v>
       </c>
       <c r="AE429" t="s" s="2">
-        <v>990</v>
+        <v>1021</v>
       </c>
       <c r="AF429" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG429" t="s" s="2">
         <v>50</v>
@@ -51630,7 +51589,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>993</v>
+        <v>1027</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
@@ -51638,10 +51597,10 @@
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F430" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G430" t="s" s="2">
         <v>43</v>
@@ -51650,20 +51609,20 @@
         <v>43</v>
       </c>
       <c r="I430" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J430" t="s" s="2">
-        <v>756</v>
+        <v>334</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>994</v>
+        <v>1028</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>995</v>
+        <v>1029</v>
       </c>
       <c r="M430" s="2"/>
       <c r="N430" t="s" s="2">
-        <v>996</v>
+        <v>1030</v>
       </c>
       <c r="O430" t="s" s="2">
         <v>43</v>
@@ -51712,13 +51671,13 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>993</v>
+        <v>1027</v>
       </c>
       <c r="AF430" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG430" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH430" t="s" s="2">
         <v>43</v>
@@ -51739,9 +51698,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>1000</v>
+        <v>1031</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51755,7 +51714,7 @@
         <v>50</v>
       </c>
       <c r="G431" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H431" t="s" s="2">
         <v>43</v>
@@ -51764,18 +51723,16 @@
         <v>43</v>
       </c>
       <c r="J431" t="s" s="2">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>1001</v>
+        <v>64</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>1002</v>
+        <v>65</v>
       </c>
       <c r="M431" s="2"/>
-      <c r="N431" t="s" s="2">
-        <v>1003</v>
-      </c>
+      <c r="N431" s="2"/>
       <c r="O431" t="s" s="2">
         <v>43</v>
       </c>
@@ -51823,7 +51780,7 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>1000</v>
+        <v>66</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>41</v>
@@ -51835,7 +51792,7 @@
         <v>43</v>
       </c>
       <c r="AI431" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ431" t="s" s="2">
         <v>43</v>
@@ -51847,23 +51804,23 @@
         <v>43</v>
       </c>
       <c r="AM431" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>1004</v>
+        <v>1032</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F432" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G432" t="s" s="2">
         <v>43</v>
@@ -51875,15 +51832,17 @@
         <v>43</v>
       </c>
       <c r="J432" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K432" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M432" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M432" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N432" s="2"/>
       <c r="O432" t="s" s="2">
         <v>43</v>
@@ -51932,19 +51891,19 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI432" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ432" t="s" s="2">
         <v>43</v>
@@ -51961,11 +51920,11 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>1005</v>
+        <v>1033</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
@@ -51978,24 +51937,26 @@
         <v>43</v>
       </c>
       <c r="H433" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I433" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J433" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="M433" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N433" s="2"/>
+      <c r="N433" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O433" t="s" s="2">
         <v>43</v>
       </c>
@@ -52043,7 +52004,7 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>
@@ -52067,47 +52028,45 @@
         <v>43</v>
       </c>
       <c r="AM433" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F434" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G434" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H434" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I434" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J434" t="s" s="2">
-        <v>70</v>
+        <v>445</v>
       </c>
       <c r="K434" t="s" s="2">
-        <v>343</v>
+        <v>1035</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M434" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1036</v>
+      </c>
+      <c r="M434" s="2"/>
       <c r="N434" t="s" s="2">
-        <v>156</v>
+        <v>1037</v>
       </c>
       <c r="O434" t="s" s="2">
         <v>43</v>
@@ -52156,19 +52115,19 @@
         <v>43</v>
       </c>
       <c r="AE434" t="s" s="2">
-        <v>345</v>
+        <v>1034</v>
       </c>
       <c r="AF434" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG434" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH434" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI434" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ434" t="s" s="2">
         <v>43</v>
@@ -52180,12 +52139,12 @@
         <v>43</v>
       </c>
       <c r="AM434" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" t="s" s="2">
@@ -52208,17 +52167,17 @@
         <v>43</v>
       </c>
       <c r="J435" t="s" s="2">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="K435" t="s" s="2">
-        <v>1008</v>
+        <v>1039</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>1009</v>
+        <v>1040</v>
       </c>
       <c r="M435" s="2"/>
       <c r="N435" t="s" s="2">
-        <v>1010</v>
+        <v>1041</v>
       </c>
       <c r="O435" t="s" s="2">
         <v>43</v>
@@ -52245,9 +52204,11 @@
       <c r="W435" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="X435" s="2"/>
+      <c r="X435" t="s" s="2">
+        <v>1042</v>
+      </c>
       <c r="Y435" t="s" s="2">
-        <v>1011</v>
+        <v>1043</v>
       </c>
       <c r="Z435" t="s" s="2">
         <v>43</v>
@@ -52265,7 +52226,7 @@
         <v>43</v>
       </c>
       <c r="AE435" t="s" s="2">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="AF435" t="s" s="2">
         <v>41</v>
@@ -52294,7 +52255,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>1012</v>
+        <v>1044</v>
       </c>
       <c r="B436" s="2"/>
       <c r="C436" t="s" s="2">
@@ -52317,19 +52278,17 @@
         <v>43</v>
       </c>
       <c r="J436" t="s" s="2">
-        <v>756</v>
+        <v>52</v>
       </c>
       <c r="K436" t="s" s="2">
-        <v>1013</v>
+        <v>1045</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>1014</v>
-      </c>
-      <c r="M436" t="s" s="2">
-        <v>1015</v>
-      </c>
+        <v>1046</v>
+      </c>
+      <c r="M436" s="2"/>
       <c r="N436" t="s" s="2">
-        <v>1016</v>
+        <v>1047</v>
       </c>
       <c r="O436" t="s" s="2">
         <v>43</v>
@@ -52378,7 +52337,7 @@
         <v>43</v>
       </c>
       <c r="AE436" t="s" s="2">
-        <v>1012</v>
+        <v>1044</v>
       </c>
       <c r="AF436" t="s" s="2">
         <v>41</v>
@@ -52407,7 +52366,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>1017</v>
+        <v>1048</v>
       </c>
       <c r="B437" s="2"/>
       <c r="C437" t="s" s="2">
@@ -52433,14 +52392,16 @@
         <v>180</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>1018</v>
+        <v>1049</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="M437" s="2"/>
+        <v>1050</v>
+      </c>
+      <c r="M437" t="s" s="2">
+        <v>1051</v>
+      </c>
       <c r="N437" t="s" s="2">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="O437" t="s" s="2">
         <v>43</v>
@@ -52465,13 +52426,13 @@
         <v>43</v>
       </c>
       <c r="W437" t="s" s="2">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="X437" t="s" s="2">
-        <v>1021</v>
+        <v>131</v>
       </c>
       <c r="Y437" t="s" s="2">
-        <v>1022</v>
+        <v>132</v>
       </c>
       <c r="Z437" t="s" s="2">
         <v>43</v>
@@ -52489,7 +52450,7 @@
         <v>43</v>
       </c>
       <c r="AE437" t="s" s="2">
-        <v>1017</v>
+        <v>1048</v>
       </c>
       <c r="AF437" t="s" s="2">
         <v>41</v>
@@ -52518,7 +52479,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>1023</v>
+        <v>1053</v>
       </c>
       <c r="B438" s="2"/>
       <c r="C438" t="s" s="2">
@@ -52541,17 +52502,19 @@
         <v>43</v>
       </c>
       <c r="J438" t="s" s="2">
-        <v>534</v>
+        <v>207</v>
       </c>
       <c r="K438" t="s" s="2">
-        <v>1024</v>
+        <v>1054</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="M438" s="2"/>
+        <v>1055</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>1056</v>
+      </c>
       <c r="N438" t="s" s="2">
-        <v>1026</v>
+        <v>1057</v>
       </c>
       <c r="O438" t="s" s="2">
         <v>43</v>
@@ -52600,7 +52563,7 @@
         <v>43</v>
       </c>
       <c r="AE438" t="s" s="2">
-        <v>1023</v>
+        <v>1053</v>
       </c>
       <c r="AF438" t="s" s="2">
         <v>41</v>
@@ -52629,7 +52592,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>1027</v>
+        <v>1058</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" t="s" s="2">
@@ -52640,7 +52603,7 @@
         <v>41</v>
       </c>
       <c r="F439" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G439" t="s" s="2">
         <v>43</v>
@@ -52652,18 +52615,16 @@
         <v>43</v>
       </c>
       <c r="J439" t="s" s="2">
-        <v>756</v>
+        <v>334</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>1028</v>
+        <v>1059</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>1029</v>
+        <v>1060</v>
       </c>
       <c r="M439" s="2"/>
-      <c r="N439" t="s" s="2">
-        <v>1030</v>
-      </c>
+      <c r="N439" s="2"/>
       <c r="O439" t="s" s="2">
         <v>43</v>
       </c>
@@ -52711,13 +52672,13 @@
         <v>43</v>
       </c>
       <c r="AE439" t="s" s="2">
-        <v>1027</v>
+        <v>1058</v>
       </c>
       <c r="AF439" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG439" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH439" t="s" s="2">
         <v>43</v>
@@ -52740,7 +52701,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>1031</v>
+        <v>1061</v>
       </c>
       <c r="B440" s="2"/>
       <c r="C440" t="s" s="2">
@@ -52763,20 +52724,16 @@
         <v>43</v>
       </c>
       <c r="J440" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="K440" t="s" s="2">
-        <v>1032</v>
+        <v>64</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="M440" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="N440" t="s" s="2">
-        <v>1035</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M440" s="2"/>
+      <c r="N440" s="2"/>
       <c r="O440" t="s" s="2">
         <v>43</v>
       </c>
@@ -52824,7 +52781,7 @@
         <v>43</v>
       </c>
       <c r="AE440" t="s" s="2">
-        <v>1031</v>
+        <v>66</v>
       </c>
       <c r="AF440" t="s" s="2">
         <v>41</v>
@@ -52836,7 +52793,7 @@
         <v>43</v>
       </c>
       <c r="AI440" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ440" t="s" s="2">
         <v>43</v>
@@ -52848,23 +52805,23 @@
         <v>43</v>
       </c>
       <c r="AM440" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>1036</v>
+        <v>1062</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F441" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G441" t="s" s="2">
         <v>43</v>
@@ -52876,20 +52833,18 @@
         <v>43</v>
       </c>
       <c r="J441" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K441" t="s" s="2">
-        <v>1037</v>
+        <v>71</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>1038</v>
+        <v>72</v>
       </c>
       <c r="M441" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="N441" t="s" s="2">
-        <v>1040</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N441" s="2"/>
       <c r="O441" t="s" s="2">
         <v>43</v>
       </c>
@@ -52913,13 +52868,13 @@
         <v>43</v>
       </c>
       <c r="W441" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X441" t="s" s="2">
-        <v>1041</v>
+        <v>43</v>
       </c>
       <c r="Y441" t="s" s="2">
-        <v>1042</v>
+        <v>43</v>
       </c>
       <c r="Z441" t="s" s="2">
         <v>43</v>
@@ -52937,19 +52892,19 @@
         <v>43</v>
       </c>
       <c r="AE441" t="s" s="2">
-        <v>1036</v>
+        <v>77</v>
       </c>
       <c r="AF441" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG441" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH441" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI441" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ441" t="s" s="2">
         <v>43</v>
@@ -52961,47 +52916,47 @@
         <v>43</v>
       </c>
       <c r="AM441" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F442" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G442" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H442" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I442" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J442" t="s" s="2">
-        <v>1044</v>
+        <v>70</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>1045</v>
+        <v>343</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>1046</v>
+        <v>344</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1047</v>
+        <v>73</v>
       </c>
       <c r="N442" t="s" s="2">
-        <v>1048</v>
+        <v>156</v>
       </c>
       <c r="O442" t="s" s="2">
         <v>43</v>
@@ -53050,19 +53005,19 @@
         <v>43</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>1043</v>
+        <v>345</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI442" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ442" t="s" s="2">
         <v>43</v>
@@ -53074,12 +53029,12 @@
         <v>43</v>
       </c>
       <c r="AM442" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" t="s" s="2">
@@ -53087,10 +53042,10 @@
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F443" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G443" t="s" s="2">
         <v>43</v>
@@ -53102,17 +53057,19 @@
         <v>43</v>
       </c>
       <c r="J443" t="s" s="2">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="K443" t="s" s="2">
-        <v>1050</v>
+        <v>713</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="M443" s="2"/>
+        <v>714</v>
+      </c>
+      <c r="M443" t="s" s="2">
+        <v>715</v>
+      </c>
       <c r="N443" t="s" s="2">
-        <v>1052</v>
+        <v>1065</v>
       </c>
       <c r="O443" t="s" s="2">
         <v>43</v>
@@ -53137,13 +53094,13 @@
         <v>43</v>
       </c>
       <c r="W443" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X443" t="s" s="2">
-        <v>43</v>
+        <v>717</v>
       </c>
       <c r="Y443" t="s" s="2">
-        <v>43</v>
+        <v>718</v>
       </c>
       <c r="Z443" t="s" s="2">
         <v>43</v>
@@ -53161,13 +53118,13 @@
         <v>43</v>
       </c>
       <c r="AE443" t="s" s="2">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="AF443" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG443" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH443" t="s" s="2">
         <v>43</v>
@@ -53190,7 +53147,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>1053</v>
+        <v>1066</v>
       </c>
       <c r="B444" s="2"/>
       <c r="C444" t="s" s="2">
@@ -53213,16 +53170,18 @@
         <v>43</v>
       </c>
       <c r="J444" t="s" s="2">
-        <v>52</v>
+        <v>456</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>64</v>
+        <v>1067</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>65</v>
+        <v>1068</v>
       </c>
       <c r="M444" s="2"/>
-      <c r="N444" s="2"/>
+      <c r="N444" t="s" s="2">
+        <v>1069</v>
+      </c>
       <c r="O444" t="s" s="2">
         <v>43</v>
       </c>
@@ -53270,7 +53229,7 @@
         <v>43</v>
       </c>
       <c r="AE444" t="s" s="2">
-        <v>66</v>
+        <v>1066</v>
       </c>
       <c r="AF444" t="s" s="2">
         <v>41</v>
@@ -53282,7 +53241,7 @@
         <v>43</v>
       </c>
       <c r="AI444" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ444" t="s" s="2">
         <v>43</v>
@@ -53294,23 +53253,23 @@
         <v>43</v>
       </c>
       <c r="AM444" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="B445" s="2"/>
       <c r="C445" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F445" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G445" t="s" s="2">
         <v>43</v>
@@ -53322,18 +53281,20 @@
         <v>43</v>
       </c>
       <c r="J445" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>71</v>
+        <v>1071</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>72</v>
+        <v>1072</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N445" s="2"/>
+        <v>1073</v>
+      </c>
+      <c r="N445" t="s" s="2">
+        <v>1074</v>
+      </c>
       <c r="O445" t="s" s="2">
         <v>43</v>
       </c>
@@ -53381,19 +53342,19 @@
         <v>43</v>
       </c>
       <c r="AE445" t="s" s="2">
-        <v>77</v>
+        <v>1070</v>
       </c>
       <c r="AF445" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI445" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ445" t="s" s="2">
         <v>43</v>
@@ -53405,47 +53366,47 @@
         <v>43</v>
       </c>
       <c r="AM445" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>1055</v>
+        <v>1075</v>
       </c>
       <c r="B446" s="2"/>
       <c r="C446" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F446" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G446" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H446" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I446" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J446" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K446" t="s" s="2">
-        <v>343</v>
+        <v>1076</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>344</v>
+        <v>1077</v>
       </c>
       <c r="M446" t="s" s="2">
-        <v>73</v>
+        <v>1078</v>
       </c>
       <c r="N446" t="s" s="2">
-        <v>156</v>
+        <v>1079</v>
       </c>
       <c r="O446" t="s" s="2">
         <v>43</v>
@@ -53494,19 +53455,19 @@
         <v>43</v>
       </c>
       <c r="AE446" t="s" s="2">
-        <v>345</v>
+        <v>1075</v>
       </c>
       <c r="AF446" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG446" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH446" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI446" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ446" t="s" s="2">
         <v>43</v>
@@ -53518,12 +53479,12 @@
         <v>43</v>
       </c>
       <c r="AM446" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>1056</v>
+        <v>1080</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" t="s" s="2">
@@ -53546,17 +53507,17 @@
         <v>43</v>
       </c>
       <c r="J447" t="s" s="2">
-        <v>445</v>
+        <v>180</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>1057</v>
+        <v>1081</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="M447" s="2"/>
       <c r="N447" t="s" s="2">
-        <v>1059</v>
+        <v>1083</v>
       </c>
       <c r="O447" t="s" s="2">
         <v>43</v>
@@ -53581,13 +53542,13 @@
         <v>43</v>
       </c>
       <c r="W447" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X447" t="s" s="2">
-        <v>43</v>
+        <v>1084</v>
       </c>
       <c r="Y447" t="s" s="2">
-        <v>43</v>
+        <v>1085</v>
       </c>
       <c r="Z447" t="s" s="2">
         <v>43</v>
@@ -53605,7 +53566,7 @@
         <v>43</v>
       </c>
       <c r="AE447" t="s" s="2">
-        <v>1056</v>
+        <v>1080</v>
       </c>
       <c r="AF447" t="s" s="2">
         <v>41</v>
@@ -53634,7 +53595,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>1060</v>
+        <v>1086</v>
       </c>
       <c r="B448" s="2"/>
       <c r="C448" t="s" s="2">
@@ -53657,17 +53618,17 @@
         <v>43</v>
       </c>
       <c r="J448" t="s" s="2">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="K448" t="s" s="2">
-        <v>1061</v>
+        <v>1087</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>1062</v>
+        <v>1088</v>
       </c>
       <c r="M448" s="2"/>
       <c r="N448" t="s" s="2">
-        <v>1063</v>
+        <v>1089</v>
       </c>
       <c r="O448" t="s" s="2">
         <v>43</v>
@@ -53692,13 +53653,13 @@
         <v>43</v>
       </c>
       <c r="W448" t="s" s="2">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="X448" t="s" s="2">
-        <v>1064</v>
+        <v>1090</v>
       </c>
       <c r="Y448" t="s" s="2">
-        <v>1065</v>
+        <v>1091</v>
       </c>
       <c r="Z448" t="s" s="2">
         <v>43</v>
@@ -53716,7 +53677,7 @@
         <v>43</v>
       </c>
       <c r="AE448" t="s" s="2">
-        <v>1060</v>
+        <v>1086</v>
       </c>
       <c r="AF448" t="s" s="2">
         <v>41</v>
@@ -53745,7 +53706,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>1066</v>
+        <v>1092</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s" s="2">
@@ -53768,17 +53729,17 @@
         <v>43</v>
       </c>
       <c r="J449" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>1067</v>
+        <v>1093</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>1068</v>
+        <v>1094</v>
       </c>
       <c r="M449" s="2"/>
       <c r="N449" t="s" s="2">
-        <v>1069</v>
+        <v>1089</v>
       </c>
       <c r="O449" t="s" s="2">
         <v>43</v>
@@ -53803,13 +53764,13 @@
         <v>43</v>
       </c>
       <c r="W449" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X449" t="s" s="2">
-        <v>43</v>
+        <v>1095</v>
       </c>
       <c r="Y449" t="s" s="2">
-        <v>43</v>
+        <v>1096</v>
       </c>
       <c r="Z449" t="s" s="2">
         <v>43</v>
@@ -53827,7 +53788,7 @@
         <v>43</v>
       </c>
       <c r="AE449" t="s" s="2">
-        <v>1066</v>
+        <v>1092</v>
       </c>
       <c r="AF449" t="s" s="2">
         <v>41</v>
@@ -53856,7 +53817,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>1070</v>
+        <v>1097</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" t="s" s="2">
@@ -53867,7 +53828,7 @@
         <v>41</v>
       </c>
       <c r="F450" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G450" t="s" s="2">
         <v>43</v>
@@ -53879,20 +53840,16 @@
         <v>43</v>
       </c>
       <c r="J450" t="s" s="2">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="K450" t="s" s="2">
-        <v>1071</v>
+        <v>1098</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>1072</v>
-      </c>
-      <c r="M450" t="s" s="2">
-        <v>1073</v>
-      </c>
-      <c r="N450" t="s" s="2">
-        <v>1074</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="M450" s="2"/>
+      <c r="N450" s="2"/>
       <c r="O450" t="s" s="2">
         <v>43</v>
       </c>
@@ -53916,13 +53873,13 @@
         <v>43</v>
       </c>
       <c r="W450" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X450" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y450" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z450" t="s" s="2">
         <v>43</v>
@@ -53940,13 +53897,13 @@
         <v>43</v>
       </c>
       <c r="AE450" t="s" s="2">
-        <v>1070</v>
+        <v>1097</v>
       </c>
       <c r="AF450" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG450" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH450" t="s" s="2">
         <v>43</v>
@@ -53969,7 +53926,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="B451" s="2"/>
       <c r="C451" t="s" s="2">
@@ -53992,20 +53949,16 @@
         <v>43</v>
       </c>
       <c r="J451" t="s" s="2">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="K451" t="s" s="2">
-        <v>1076</v>
+        <v>64</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>1077</v>
-      </c>
-      <c r="M451" t="s" s="2">
-        <v>1078</v>
-      </c>
-      <c r="N451" t="s" s="2">
-        <v>1079</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M451" s="2"/>
+      <c r="N451" s="2"/>
       <c r="O451" t="s" s="2">
         <v>43</v>
       </c>
@@ -54053,7 +54006,7 @@
         <v>43</v>
       </c>
       <c r="AE451" t="s" s="2">
-        <v>1075</v>
+        <v>66</v>
       </c>
       <c r="AF451" t="s" s="2">
         <v>41</v>
@@ -54065,7 +54018,7 @@
         <v>43</v>
       </c>
       <c r="AI451" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ451" t="s" s="2">
         <v>43</v>
@@ -54077,16 +54030,16 @@
         <v>43</v>
       </c>
       <c r="AM451" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
@@ -54105,15 +54058,17 @@
         <v>43</v>
       </c>
       <c r="J452" t="s" s="2">
-        <v>334</v>
+        <v>70</v>
       </c>
       <c r="K452" t="s" s="2">
-        <v>1081</v>
+        <v>71</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>1082</v>
-      </c>
-      <c r="M452" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M452" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N452" s="2"/>
       <c r="O452" t="s" s="2">
         <v>43</v>
@@ -54162,7 +54117,7 @@
         <v>43</v>
       </c>
       <c r="AE452" t="s" s="2">
-        <v>1080</v>
+        <v>77</v>
       </c>
       <c r="AF452" t="s" s="2">
         <v>41</v>
@@ -54174,7 +54129,7 @@
         <v>43</v>
       </c>
       <c r="AI452" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ452" t="s" s="2">
         <v>43</v>
@@ -54186,44 +54141,48 @@
         <v>43</v>
       </c>
       <c r="AM452" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>1083</v>
+        <v>1102</v>
       </c>
       <c r="B453" s="2"/>
       <c r="C453" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F453" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G453" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H453" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I453" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J453" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K453" t="s" s="2">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="L453" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M453" s="2"/>
-      <c r="N453" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M453" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N453" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O453" t="s" s="2">
         <v>43</v>
       </c>
@@ -54271,19 +54230,19 @@
         <v>43</v>
       </c>
       <c r="AE453" t="s" s="2">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="AF453" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG453" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH453" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI453" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ453" t="s" s="2">
         <v>43</v>
@@ -54295,23 +54254,23 @@
         <v>43</v>
       </c>
       <c r="AM453" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>1084</v>
+        <v>1103</v>
       </c>
       <c r="B454" s="2"/>
       <c r="C454" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F454" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G454" t="s" s="2">
         <v>43</v>
@@ -54323,18 +54282,20 @@
         <v>43</v>
       </c>
       <c r="J454" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K454" t="s" s="2">
-        <v>71</v>
+        <v>713</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>72</v>
+        <v>1104</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N454" s="2"/>
+        <v>1105</v>
+      </c>
+      <c r="N454" t="s" s="2">
+        <v>1106</v>
+      </c>
       <c r="O454" t="s" s="2">
         <v>43</v>
       </c>
@@ -54358,13 +54319,13 @@
         <v>43</v>
       </c>
       <c r="W454" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X454" t="s" s="2">
-        <v>43</v>
+        <v>1107</v>
       </c>
       <c r="Y454" t="s" s="2">
-        <v>43</v>
+        <v>1108</v>
       </c>
       <c r="Z454" t="s" s="2">
         <v>43</v>
@@ -54382,19 +54343,19 @@
         <v>43</v>
       </c>
       <c r="AE454" t="s" s="2">
-        <v>77</v>
+        <v>1103</v>
       </c>
       <c r="AF454" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI454" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ454" t="s" s="2">
         <v>43</v>
@@ -54406,47 +54367,45 @@
         <v>43</v>
       </c>
       <c r="AM454" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>1085</v>
+        <v>1109</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F455" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G455" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H455" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I455" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J455" t="s" s="2">
-        <v>70</v>
+        <v>1110</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>343</v>
+        <v>1111</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M455" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="M455" s="2"/>
       <c r="N455" t="s" s="2">
-        <v>156</v>
+        <v>1113</v>
       </c>
       <c r="O455" t="s" s="2">
         <v>43</v>
@@ -54495,19 +54454,19 @@
         <v>43</v>
       </c>
       <c r="AE455" t="s" s="2">
-        <v>345</v>
+        <v>1109</v>
       </c>
       <c r="AF455" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI455" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ455" t="s" s="2">
         <v>43</v>
@@ -54519,12 +54478,12 @@
         <v>43</v>
       </c>
       <c r="AM455" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>1086</v>
+        <v>1114</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" t="s" s="2">
@@ -54532,7 +54491,7 @@
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F456" t="s" s="2">
         <v>50</v>
@@ -54547,19 +54506,17 @@
         <v>43</v>
       </c>
       <c r="J456" t="s" s="2">
-        <v>180</v>
+        <v>1115</v>
       </c>
       <c r="K456" t="s" s="2">
-        <v>713</v>
+        <v>1116</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="M456" t="s" s="2">
-        <v>715</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="M456" s="2"/>
       <c r="N456" t="s" s="2">
-        <v>1087</v>
+        <v>1118</v>
       </c>
       <c r="O456" t="s" s="2">
         <v>43</v>
@@ -54584,13 +54541,13 @@
         <v>43</v>
       </c>
       <c r="W456" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X456" t="s" s="2">
-        <v>717</v>
+        <v>43</v>
       </c>
       <c r="Y456" t="s" s="2">
-        <v>718</v>
+        <v>43</v>
       </c>
       <c r="Z456" t="s" s="2">
         <v>43</v>
@@ -54608,10 +54565,10 @@
         <v>43</v>
       </c>
       <c r="AE456" t="s" s="2">
-        <v>1086</v>
+        <v>1114</v>
       </c>
       <c r="AF456" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG456" t="s" s="2">
         <v>50</v>
@@ -54635,1455 +54592,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="457" hidden="true">
-      <c r="A457" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="B457" s="2"/>
-      <c r="C457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D457" s="2"/>
-      <c r="E457" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F457" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J457" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="K457" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="L457" t="s" s="2">
-        <v>1090</v>
-      </c>
-      <c r="M457" s="2"/>
-      <c r="N457" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="O457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P457" s="2"/>
-      <c r="Q457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE457" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="AF457" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG457" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI457" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL457" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM457" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="458" hidden="true">
-      <c r="A458" t="s" s="2">
-        <v>1092</v>
-      </c>
-      <c r="B458" s="2"/>
-      <c r="C458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D458" s="2"/>
-      <c r="E458" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F458" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J458" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K458" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="L458" t="s" s="2">
-        <v>1094</v>
-      </c>
-      <c r="M458" t="s" s="2">
-        <v>1095</v>
-      </c>
-      <c r="N458" t="s" s="2">
-        <v>1096</v>
-      </c>
-      <c r="O458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P458" s="2"/>
-      <c r="Q458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE458" t="s" s="2">
-        <v>1092</v>
-      </c>
-      <c r="AF458" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG458" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI458" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL458" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM458" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="459" hidden="true">
-      <c r="A459" t="s" s="2">
-        <v>1097</v>
-      </c>
-      <c r="B459" s="2"/>
-      <c r="C459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D459" s="2"/>
-      <c r="E459" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F459" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J459" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K459" t="s" s="2">
-        <v>1098</v>
-      </c>
-      <c r="L459" t="s" s="2">
-        <v>1099</v>
-      </c>
-      <c r="M459" t="s" s="2">
-        <v>1100</v>
-      </c>
-      <c r="N459" t="s" s="2">
-        <v>1101</v>
-      </c>
-      <c r="O459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P459" s="2"/>
-      <c r="Q459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE459" t="s" s="2">
-        <v>1097</v>
-      </c>
-      <c r="AF459" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG459" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI459" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL459" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM459" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="460" hidden="true">
-      <c r="A460" t="s" s="2">
-        <v>1102</v>
-      </c>
-      <c r="B460" s="2"/>
-      <c r="C460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D460" s="2"/>
-      <c r="E460" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F460" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J460" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K460" t="s" s="2">
-        <v>1103</v>
-      </c>
-      <c r="L460" t="s" s="2">
-        <v>1104</v>
-      </c>
-      <c r="M460" s="2"/>
-      <c r="N460" t="s" s="2">
-        <v>1105</v>
-      </c>
-      <c r="O460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P460" s="2"/>
-      <c r="Q460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W460" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X460" t="s" s="2">
-        <v>1106</v>
-      </c>
-      <c r="Y460" t="s" s="2">
-        <v>1107</v>
-      </c>
-      <c r="Z460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE460" t="s" s="2">
-        <v>1102</v>
-      </c>
-      <c r="AF460" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG460" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI460" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL460" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM460" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="461" hidden="true">
-      <c r="A461" t="s" s="2">
-        <v>1108</v>
-      </c>
-      <c r="B461" s="2"/>
-      <c r="C461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D461" s="2"/>
-      <c r="E461" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F461" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J461" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K461" t="s" s="2">
-        <v>1109</v>
-      </c>
-      <c r="L461" t="s" s="2">
-        <v>1110</v>
-      </c>
-      <c r="M461" s="2"/>
-      <c r="N461" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="O461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P461" s="2"/>
-      <c r="Q461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W461" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X461" t="s" s="2">
-        <v>1112</v>
-      </c>
-      <c r="Y461" t="s" s="2">
-        <v>1113</v>
-      </c>
-      <c r="Z461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE461" t="s" s="2">
-        <v>1108</v>
-      </c>
-      <c r="AF461" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG461" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI461" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL461" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM461" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="462" hidden="true">
-      <c r="A462" t="s" s="2">
-        <v>1114</v>
-      </c>
-      <c r="B462" s="2"/>
-      <c r="C462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D462" s="2"/>
-      <c r="E462" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F462" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J462" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K462" t="s" s="2">
-        <v>1115</v>
-      </c>
-      <c r="L462" t="s" s="2">
-        <v>1116</v>
-      </c>
-      <c r="M462" s="2"/>
-      <c r="N462" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="O462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P462" s="2"/>
-      <c r="Q462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W462" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X462" t="s" s="2">
-        <v>1117</v>
-      </c>
-      <c r="Y462" t="s" s="2">
-        <v>1118</v>
-      </c>
-      <c r="Z462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE462" t="s" s="2">
-        <v>1114</v>
-      </c>
-      <c r="AF462" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG462" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI462" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL462" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM462" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="463" hidden="true">
-      <c r="A463" t="s" s="2">
-        <v>1119</v>
-      </c>
-      <c r="B463" s="2"/>
-      <c r="C463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D463" s="2"/>
-      <c r="E463" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F463" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J463" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="K463" t="s" s="2">
-        <v>1120</v>
-      </c>
-      <c r="L463" t="s" s="2">
-        <v>1121</v>
-      </c>
-      <c r="M463" s="2"/>
-      <c r="N463" s="2"/>
-      <c r="O463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P463" s="2"/>
-      <c r="Q463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE463" t="s" s="2">
-        <v>1119</v>
-      </c>
-      <c r="AF463" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG463" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI463" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM463" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="464" hidden="true">
-      <c r="A464" t="s" s="2">
-        <v>1122</v>
-      </c>
-      <c r="B464" s="2"/>
-      <c r="C464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D464" s="2"/>
-      <c r="E464" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F464" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J464" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K464" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L464" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M464" s="2"/>
-      <c r="N464" s="2"/>
-      <c r="O464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P464" s="2"/>
-      <c r="Q464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE464" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF464" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG464" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL464" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM464" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="465" hidden="true">
-      <c r="A465" t="s" s="2">
-        <v>1123</v>
-      </c>
-      <c r="B465" s="2"/>
-      <c r="C465" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D465" s="2"/>
-      <c r="E465" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F465" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J465" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K465" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L465" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M465" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N465" s="2"/>
-      <c r="O465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P465" s="2"/>
-      <c r="Q465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE465" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF465" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG465" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI465" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL465" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM465" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="466" hidden="true">
-      <c r="A466" t="s" s="2">
-        <v>1124</v>
-      </c>
-      <c r="B466" s="2"/>
-      <c r="C466" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="D466" s="2"/>
-      <c r="E466" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F466" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H466" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I466" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J466" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K466" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L466" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M466" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N466" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P466" s="2"/>
-      <c r="Q466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE466" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF466" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG466" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI466" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL466" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM466" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="467" hidden="true">
-      <c r="A467" t="s" s="2">
-        <v>1125</v>
-      </c>
-      <c r="B467" s="2"/>
-      <c r="C467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D467" s="2"/>
-      <c r="E467" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F467" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J467" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K467" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="L467" t="s" s="2">
-        <v>1126</v>
-      </c>
-      <c r="M467" t="s" s="2">
-        <v>1127</v>
-      </c>
-      <c r="N467" t="s" s="2">
-        <v>1128</v>
-      </c>
-      <c r="O467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P467" s="2"/>
-      <c r="Q467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W467" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X467" t="s" s="2">
-        <v>1129</v>
-      </c>
-      <c r="Y467" t="s" s="2">
-        <v>1130</v>
-      </c>
-      <c r="Z467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE467" t="s" s="2">
-        <v>1125</v>
-      </c>
-      <c r="AF467" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG467" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI467" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL467" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM467" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="468" hidden="true">
-      <c r="A468" t="s" s="2">
-        <v>1131</v>
-      </c>
-      <c r="B468" s="2"/>
-      <c r="C468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D468" s="2"/>
-      <c r="E468" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F468" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J468" t="s" s="2">
-        <v>1132</v>
-      </c>
-      <c r="K468" t="s" s="2">
-        <v>1133</v>
-      </c>
-      <c r="L468" t="s" s="2">
-        <v>1134</v>
-      </c>
-      <c r="M468" s="2"/>
-      <c r="N468" t="s" s="2">
-        <v>1135</v>
-      </c>
-      <c r="O468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P468" s="2"/>
-      <c r="Q468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE468" t="s" s="2">
-        <v>1131</v>
-      </c>
-      <c r="AF468" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG468" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI468" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL468" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM468" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="469" hidden="true">
-      <c r="A469" t="s" s="2">
-        <v>1136</v>
-      </c>
-      <c r="B469" s="2"/>
-      <c r="C469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D469" s="2"/>
-      <c r="E469" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F469" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J469" t="s" s="2">
-        <v>1137</v>
-      </c>
-      <c r="K469" t="s" s="2">
-        <v>1138</v>
-      </c>
-      <c r="L469" t="s" s="2">
-        <v>1139</v>
-      </c>
-      <c r="M469" s="2"/>
-      <c r="N469" t="s" s="2">
-        <v>1140</v>
-      </c>
-      <c r="O469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P469" s="2"/>
-      <c r="Q469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE469" t="s" s="2">
-        <v>1136</v>
-      </c>
-      <c r="AF469" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG469" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI469" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM469" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM469">
+  <autoFilter ref="A1:AM456">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -56093,7 +54603,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI468">
+  <conditionalFormatting sqref="A2:AI455">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -1727,7 +1727,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/nubc-type-of-bill</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCTypeOfBill</t>
   </si>
   <si>
     <t>pointoforigin</t>
@@ -1747,7 +1747,7 @@
     <t>Identifies the place where the patient was identified as needing admission to a facility. This is a two position code mapped from the standard values for the UB-04 Source of Admission code (FL-15).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/nubc-admission-source</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCPointOfOriginForAdmissionOrVisit</t>
   </si>
   <si>
     <t>admtype</t>
@@ -2278,7 +2278,7 @@
     <t>Needed in the processing of institutional claims.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/nubc-service-line-revenue</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUBCRevenueCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.category</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -1419,9 +1419,9 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
-('attending' or 'pcp' or 'referring' or 'supervising')) implies 
- careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code='performing') implies 
+EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}EOB-inst-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
+('attending' or 'primary' or 'referring' or 'supervising')) implies 
+ careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-inst-careTeam-organization:Institutional EOB:  Careteam roles refer to an organization {( careTeam.role.coding.code='performing') implies 
  careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -1679,7 +1679,7 @@
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderContractingStatus</t>
   </si>
   <si>
-    <t>clmrecvddate</t>
+    <t>claimrecvddate</t>
   </si>
   <si>
     <t>The date the claim was received by the payer (88)</t>
@@ -1688,7 +1688,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
-    &lt;code value="clmrecvddate"/&gt;
+    &lt;code value="claimrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Inpatient-Facility.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14886" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14892" uniqueCount="1132">
   <si>
     <t>Path</t>
   </si>
@@ -1503,7 +1503,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CARINBBInstitutionalClaimCareTeamRoleCodes</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBClaimInstitutionalCareTeamRole</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -1676,7 +1676,7 @@
     <t>Indicates that the Billing Provider has a contract with the Plan (regardless of the network) as of the effective date of service or admission.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderContractingStatus</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerProviderContractingStatus</t>
   </si>
   <si>
     <t>claimrecvddate</t>
@@ -1890,7 +1890,7 @@
     <t>Often required to capture a particular diagnosis, for example: primary or discharge.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerInpatientinstitutionaldiagnosistype</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBClaimInpatientInstitutionalDiagnosisType</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.onAdmission</t>
@@ -2558,7 +2558,10 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
+    <t>The adjudication codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adjudication</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2618,7 +2621,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationCarinBBValueCodes</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBAdjudication</t>
   </si>
   <si>
     <t>denialreason</t>
@@ -3107,7 +3110,7 @@
     <t>Indicates the in network or out of network payment status of the claim.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatus</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerBenefitPaymentStatus</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment</t>
@@ -3143,7 +3146,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3715,7 +3718,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -29894,11 +29897,13 @@
         <v>43</v>
       </c>
       <c r="W235" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X235" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X235" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="Y235" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29945,7 +29950,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29971,16 +29976,16 @@
         <v>178</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -30008,10 +30013,10 @@
         <v>116</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -30029,7 +30034,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -30058,7 +30063,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30084,16 +30089,16 @@
         <v>760</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30142,7 +30147,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30171,7 +30176,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30197,16 +30202,16 @@
         <v>765</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30255,7 +30260,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30287,7 +30292,7 @@
         <v>797</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C239" t="s" s="2">
         <v>43</v>
@@ -30312,7 +30317,7 @@
         <v>346</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L239" t="s" s="2">
         <v>799</v>
@@ -30794,7 +30799,7 @@
       </c>
       <c r="X243" s="2"/>
       <c r="Y243" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30841,7 +30846,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30867,16 +30872,16 @@
         <v>178</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30904,10 +30909,10 @@
         <v>116</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Z244" t="s" s="2">
         <v>43</v>
@@ -30925,7 +30930,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30954,7 +30959,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30980,16 +30985,16 @@
         <v>760</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -31038,7 +31043,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -31067,7 +31072,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31093,16 +31098,16 @@
         <v>765</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -31151,7 +31156,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31183,7 +31188,7 @@
         <v>797</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C247" t="s" s="2">
         <v>43</v>
@@ -31208,7 +31213,7 @@
         <v>346</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L247" t="s" s="2">
         <v>799</v>
@@ -31671,7 +31676,7 @@
         <v>43</v>
       </c>
       <c r="R251" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>43</v>
@@ -31686,11 +31691,13 @@
         <v>43</v>
       </c>
       <c r="W251" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X251" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X251" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="Y251" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31737,7 +31744,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31763,16 +31770,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31801,7 +31808,7 @@
       </c>
       <c r="X252" s="2"/>
       <c r="Y252" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31819,7 +31826,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31848,7 +31855,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31874,16 +31881,16 @@
         <v>760</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31932,7 +31939,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31961,7 +31968,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31987,16 +31994,16 @@
         <v>765</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -32045,7 +32052,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -32077,7 +32084,7 @@
         <v>797</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C255" t="s" s="2">
         <v>43</v>
@@ -32102,7 +32109,7 @@
         <v>346</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L255" t="s" s="2">
         <v>799</v>
@@ -32565,7 +32572,7 @@
         <v>43</v>
       </c>
       <c r="R259" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>43</v>
@@ -32580,11 +32587,13 @@
         <v>43</v>
       </c>
       <c r="W259" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X259" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X259" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="Y259" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32631,7 +32640,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32657,16 +32666,16 @@
         <v>178</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32694,10 +32703,10 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
@@ -32715,7 +32724,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32744,7 +32753,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32770,16 +32779,16 @@
         <v>760</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32828,7 +32837,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32857,7 +32866,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32883,16 +32892,16 @@
         <v>765</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32941,7 +32950,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32970,7 +32979,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32996,10 +33005,10 @@
         <v>346</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -33050,7 +33059,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -33079,7 +33088,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33188,7 +33197,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33299,7 +33308,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33412,7 +33421,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33441,7 +33450,7 @@
         <v>685</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
@@ -33494,7 +33503,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>50</v>
@@ -33523,7 +33532,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33549,7 +33558,7 @@
         <v>178</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L268" t="s" s="2">
         <v>713</v>
@@ -33584,10 +33593,10 @@
         <v>116</v>
       </c>
       <c r="X268" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
@@ -33605,7 +33614,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33634,7 +33643,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33666,7 +33675,7 @@
         <v>718</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N269" t="s" s="2">
         <v>720</v>
@@ -33718,7 +33727,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33747,7 +33756,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33773,7 +33782,7 @@
         <v>178</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L270" t="s" s="2">
         <v>726</v>
@@ -33810,10 +33819,10 @@
         <v>116</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33831,7 +33840,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>50</v>
@@ -33860,7 +33869,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33886,7 +33895,7 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L271" t="s" s="2">
         <v>732</v>
@@ -33923,10 +33932,10 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33944,7 +33953,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33973,7 +33982,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -34057,7 +34066,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -34086,7 +34095,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34112,7 +34121,7 @@
         <v>755</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L273" t="s" s="2">
         <v>757</v>
@@ -34168,7 +34177,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34197,7 +34206,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34279,7 +34288,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34308,7 +34317,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34392,7 +34401,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34421,7 +34430,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34505,7 +34514,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34534,7 +34543,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34616,7 +34625,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34645,7 +34654,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34671,7 +34680,7 @@
         <v>456</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L278" t="s" s="2">
         <v>795</v>
@@ -34727,7 +34736,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34756,7 +34765,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34782,10 +34791,10 @@
         <v>43</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -34836,7 +34845,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34865,7 +34874,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34891,10 +34900,10 @@
         <v>346</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -34945,7 +34954,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34974,7 +34983,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -35083,7 +35092,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35194,7 +35203,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35307,7 +35316,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35336,7 +35345,7 @@
         <v>685</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
@@ -35389,7 +35398,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>50</v>
@@ -35418,7 +35427,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35444,7 +35453,7 @@
         <v>178</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L285" t="s" s="2">
         <v>713</v>
@@ -35479,10 +35488,10 @@
         <v>116</v>
       </c>
       <c r="X285" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="Z285" t="s" s="2">
         <v>43</v>
@@ -35500,7 +35509,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35529,7 +35538,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35613,7 +35622,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35642,7 +35651,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35668,7 +35677,7 @@
         <v>178</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L287" t="s" s="2">
         <v>726</v>
@@ -35705,10 +35714,10 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
@@ -35726,7 +35735,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35755,7 +35764,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35781,13 +35790,13 @@
         <v>178</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L288" t="s" s="2">
         <v>732</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N288" t="s" s="2">
         <v>734</v>
@@ -35818,10 +35827,10 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
@@ -35839,7 +35848,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35868,7 +35877,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35952,7 +35961,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35981,7 +35990,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -36007,7 +36016,7 @@
         <v>755</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L290" t="s" s="2">
         <v>757</v>
@@ -36063,7 +36072,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -36092,7 +36101,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36174,7 +36183,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36203,7 +36212,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36287,7 +36296,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36316,7 +36325,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36400,7 +36409,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36429,7 +36438,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36511,7 +36520,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36540,7 +36549,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36566,7 +36575,7 @@
         <v>456</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L295" t="s" s="2">
         <v>795</v>
@@ -36622,7 +36631,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36651,7 +36660,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36677,10 +36686,10 @@
         <v>43</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -36731,7 +36740,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36760,7 +36769,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36786,14 +36795,14 @@
         <v>346</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36842,7 +36851,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36871,7 +36880,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36980,7 +36989,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -37091,7 +37100,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -37204,7 +37213,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37230,14 +37239,14 @@
         <v>456</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37286,7 +37295,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37315,7 +37324,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37341,14 +37350,14 @@
         <v>456</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37397,7 +37406,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37426,7 +37435,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37452,14 +37461,14 @@
         <v>456</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37508,7 +37517,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37537,7 +37546,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37560,17 +37569,17 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M304" s="2"/>
       <c r="N304" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37619,7 +37628,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37648,7 +37657,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37674,7 +37683,7 @@
         <v>178</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L305" t="s" s="2">
         <v>726</v>
@@ -37711,10 +37720,10 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37732,7 +37741,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>50</v>
@@ -37761,7 +37770,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37787,7 +37796,7 @@
         <v>178</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L306" t="s" s="2">
         <v>732</v>
@@ -37824,10 +37833,10 @@
         <v>116</v>
       </c>
       <c r="X306" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Z306" t="s" s="2">
         <v>43</v>
@@ -37845,7 +37854,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37874,7 +37883,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37958,7 +37967,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37987,7 +37996,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -38069,7 +38078,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -38098,7 +38107,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38180,7 +38189,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38209,7 +38218,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38235,7 +38244,7 @@
         <v>755</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L310" t="s" s="2">
         <v>757</v>
@@ -38291,7 +38300,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38320,7 +38329,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38402,7 +38411,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38431,7 +38440,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38515,7 +38524,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38544,7 +38553,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38628,7 +38637,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38657,7 +38666,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38689,7 +38698,7 @@
         <v>778</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N314" t="s" s="2">
         <v>780</v>
@@ -38741,7 +38750,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38770,7 +38779,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38852,7 +38861,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38881,7 +38890,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38907,7 +38916,7 @@
         <v>456</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L316" t="s" s="2">
         <v>795</v>
@@ -38963,7 +38972,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38992,7 +39001,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -39018,10 +39027,10 @@
         <v>43</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -39072,7 +39081,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -39101,7 +39110,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39127,10 +39136,10 @@
         <v>346</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -39181,7 +39190,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39210,7 +39219,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39319,7 +39328,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39430,7 +39439,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39543,7 +39552,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39569,7 +39578,7 @@
         <v>178</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L322" t="s" s="2">
         <v>726</v>
@@ -39606,10 +39615,10 @@
         <v>116</v>
       </c>
       <c r="X322" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z322" t="s" s="2">
         <v>43</v>
@@ -39627,7 +39636,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>50</v>
@@ -39656,7 +39665,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39682,7 +39691,7 @@
         <v>178</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L323" t="s" s="2">
         <v>732</v>
@@ -39719,10 +39728,10 @@
         <v>116</v>
       </c>
       <c r="X323" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Y323" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Z323" t="s" s="2">
         <v>43</v>
@@ -39740,7 +39749,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39769,7 +39778,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39795,7 +39804,7 @@
         <v>755</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L324" t="s" s="2">
         <v>757</v>
@@ -39851,7 +39860,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39880,7 +39889,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39962,7 +39971,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39991,7 +40000,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -40075,7 +40084,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -40104,7 +40113,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40188,7 +40197,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40217,7 +40226,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40243,7 +40252,7 @@
         <v>456</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L328" t="s" s="2">
         <v>795</v>
@@ -40299,7 +40308,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40328,7 +40337,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40354,10 +40363,10 @@
         <v>43</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -40408,7 +40417,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40437,7 +40446,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40463,10 +40472,10 @@
         <v>346</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
@@ -40517,7 +40526,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40546,7 +40555,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40655,7 +40664,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40766,7 +40775,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40879,7 +40888,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40905,7 +40914,7 @@
         <v>178</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L334" t="s" s="2">
         <v>726</v>
@@ -40942,10 +40951,10 @@
         <v>116</v>
       </c>
       <c r="X334" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Y334" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Z334" t="s" s="2">
         <v>43</v>
@@ -40963,7 +40972,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>50</v>
@@ -40992,7 +41001,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -41018,7 +41027,7 @@
         <v>178</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L335" t="s" s="2">
         <v>732</v>
@@ -41055,10 +41064,10 @@
         <v>116</v>
       </c>
       <c r="X335" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -41076,7 +41085,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -41105,7 +41114,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41131,7 +41140,7 @@
         <v>755</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L336" t="s" s="2">
         <v>757</v>
@@ -41187,7 +41196,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41216,7 +41225,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41298,7 +41307,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41327,7 +41336,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41411,7 +41420,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41440,7 +41449,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41524,7 +41533,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41553,7 +41562,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41579,7 +41588,7 @@
         <v>456</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L340" t="s" s="2">
         <v>795</v>
@@ -41635,7 +41644,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41664,7 +41673,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41690,10 +41699,10 @@
         <v>43</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -41744,7 +41753,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41773,7 +41782,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41799,14 +41808,14 @@
         <v>346</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41843,7 +41852,7 @@
         <v>43</v>
       </c>
       <c r="AA342" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AB342" t="s" s="2">
         <v>490</v>
@@ -41855,7 +41864,7 @@
         <v>538</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41884,7 +41893,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41993,7 +42002,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -42104,7 +42113,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42217,7 +42226,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42277,11 +42286,13 @@
         <v>43</v>
       </c>
       <c r="W346" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X346" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="Y346" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -42328,7 +42339,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42354,16 +42365,16 @@
         <v>178</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42391,10 +42402,10 @@
         <v>116</v>
       </c>
       <c r="X347" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Y347" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42412,7 +42423,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42441,7 +42452,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42467,16 +42478,16 @@
         <v>760</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42525,7 +42536,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42554,7 +42565,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42580,16 +42591,16 @@
         <v>765</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42638,7 +42649,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42667,10 +42678,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C350" t="s" s="2">
         <v>43</v>
@@ -42695,14 +42706,14 @@
         <v>346</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42751,7 +42762,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42780,7 +42791,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42889,7 +42900,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -43000,7 +43011,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -43111,9 +43122,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="354" hidden="true">
+    <row r="354">
       <c r="A354" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43127,7 +43138,7 @@
         <v>50</v>
       </c>
       <c r="G354" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H354" t="s" s="2">
         <v>43</v>
@@ -43177,7 +43188,7 @@
       </c>
       <c r="X354" s="2"/>
       <c r="Y354" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="Z354" t="s" s="2">
         <v>43</v>
@@ -43224,7 +43235,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43250,16 +43261,16 @@
         <v>178</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43287,10 +43298,10 @@
         <v>116</v>
       </c>
       <c r="X355" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Y355" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Z355" t="s" s="2">
         <v>43</v>
@@ -43308,7 +43319,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43337,7 +43348,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43363,16 +43374,16 @@
         <v>760</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43421,7 +43432,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>41</v>
@@ -43450,7 +43461,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43476,16 +43487,16 @@
         <v>765</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43534,7 +43545,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43563,10 +43574,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C358" t="s" s="2">
         <v>43</v>
@@ -43591,14 +43602,14 @@
         <v>346</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43647,7 +43658,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43676,7 +43687,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43785,7 +43796,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43896,7 +43907,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -44007,9 +44018,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="362" hidden="true">
+    <row r="362">
       <c r="A362" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -44023,7 +44034,7 @@
         <v>50</v>
       </c>
       <c r="G362" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H362" t="s" s="2">
         <v>43</v>
@@ -44054,7 +44065,7 @@
         <v>43</v>
       </c>
       <c r="R362" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="S362" t="s" s="2">
         <v>43</v>
@@ -44069,11 +44080,13 @@
         <v>43</v>
       </c>
       <c r="W362" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X362" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="Y362" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
@@ -44120,7 +44133,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44146,16 +44159,16 @@
         <v>178</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44184,7 +44197,7 @@
       </c>
       <c r="X363" s="2"/>
       <c r="Y363" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44202,7 +44215,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44231,7 +44244,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44257,16 +44270,16 @@
         <v>760</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44315,7 +44328,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44344,7 +44357,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44370,16 +44383,16 @@
         <v>765</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44428,7 +44441,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44457,7 +44470,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44483,16 +44496,16 @@
         <v>346</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44529,7 +44542,7 @@
         <v>43</v>
       </c>
       <c r="AA366" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AB366" t="s" s="2">
         <v>490</v>
@@ -44541,7 +44554,7 @@
         <v>76</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44570,7 +44583,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44679,7 +44692,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44790,7 +44803,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44903,7 +44916,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44932,13 +44945,13 @@
         <v>806</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M370" t="s" s="2">
         <v>808</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44963,11 +44976,13 @@
         <v>43</v>
       </c>
       <c r="W370" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X370" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>810</v>
+      </c>
       <c r="Y370" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44985,7 +45000,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>50</v>
@@ -45014,7 +45029,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -45040,14 +45055,14 @@
         <v>760</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -45096,7 +45111,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>50</v>
@@ -45125,10 +45140,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C372" t="s" s="2">
         <v>43</v>
@@ -45153,16 +45168,16 @@
         <v>346</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45211,7 +45226,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45240,7 +45255,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45349,7 +45364,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45460,7 +45475,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45573,7 +45588,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45602,13 +45617,13 @@
         <v>806</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M376" t="s" s="2">
         <v>808</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45637,7 +45652,7 @@
       </c>
       <c r="X376" s="2"/>
       <c r="Y376" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45655,7 +45670,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>50</v>
@@ -45684,7 +45699,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45710,14 +45725,14 @@
         <v>760</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M377" s="2"/>
       <c r="N377" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45766,7 +45781,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>50</v>
@@ -45795,10 +45810,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C378" t="s" s="2">
         <v>43</v>
@@ -45823,16 +45838,16 @@
         <v>346</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45881,7 +45896,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45910,7 +45925,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -46019,7 +46034,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -46130,7 +46145,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46243,7 +46258,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46269,16 +46284,16 @@
         <v>178</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="M382" t="s" s="2">
         <v>808</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46307,7 +46322,7 @@
       </c>
       <c r="X382" s="2"/>
       <c r="Y382" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
@@ -46325,7 +46340,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>50</v>
@@ -46354,7 +46369,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46380,14 +46395,14 @@
         <v>760</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46436,7 +46451,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>50</v>
@@ -46465,7 +46480,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46491,14 +46506,14 @@
         <v>346</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46547,7 +46562,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46576,7 +46591,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46685,7 +46700,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46796,7 +46811,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46909,7 +46924,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46935,14 +46950,14 @@
         <v>178</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
@@ -46971,7 +46986,7 @@
       </c>
       <c r="X388" s="2"/>
       <c r="Y388" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
@@ -46989,7 +47004,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -47018,7 +47033,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -47044,16 +47059,16 @@
         <v>760</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -47102,7 +47117,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -47131,7 +47146,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47157,14 +47172,14 @@
         <v>178</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M390" s="2"/>
       <c r="N390" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47192,10 +47207,10 @@
         <v>116</v>
       </c>
       <c r="X390" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Y390" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Z390" t="s" s="2">
         <v>43</v>
@@ -47213,7 +47228,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -47242,7 +47257,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47268,14 +47283,14 @@
         <v>536</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47324,7 +47339,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47353,7 +47368,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47379,14 +47394,14 @@
         <v>760</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47435,7 +47450,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47464,7 +47479,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47490,16 +47505,16 @@
         <v>159</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47548,7 +47563,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47577,7 +47592,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47603,16 +47618,16 @@
         <v>178</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47640,10 +47655,10 @@
         <v>116</v>
       </c>
       <c r="X394" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="Y394" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Z394" t="s" s="2">
         <v>43</v>
@@ -47661,7 +47676,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47690,7 +47705,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47713,19 +47728,19 @@
         <v>43</v>
       </c>
       <c r="J395" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47774,7 +47789,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47803,7 +47818,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47829,14 +47844,14 @@
         <v>346</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>43</v>
@@ -47885,7 +47900,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47914,7 +47929,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -48023,7 +48038,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -48134,7 +48149,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48247,7 +48262,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48273,14 +48288,14 @@
         <v>456</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="M400" s="2"/>
       <c r="N400" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48329,7 +48344,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -48358,7 +48373,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48384,14 +48399,14 @@
         <v>126</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48419,10 +48434,10 @@
         <v>172</v>
       </c>
       <c r="X401" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="Y401" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
@@ -48440,7 +48455,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48469,7 +48484,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48495,14 +48510,14 @@
         <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M402" s="2"/>
       <c r="N402" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48551,7 +48566,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48580,7 +48595,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48606,16 +48621,16 @@
         <v>178</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48664,7 +48679,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48693,7 +48708,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48719,16 +48734,16 @@
         <v>205</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48777,7 +48792,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48806,7 +48821,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48832,10 +48847,10 @@
         <v>346</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="M405" s="2"/>
       <c r="N405" s="2"/>
@@ -48886,7 +48901,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48915,7 +48930,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -49024,7 +49039,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -49135,7 +49150,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49248,7 +49263,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49283,7 +49298,7 @@
         <v>719</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -49332,7 +49347,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>50</v>
@@ -49361,7 +49376,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49387,14 +49402,14 @@
         <v>467</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M410" s="2"/>
       <c r="N410" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -49443,7 +49458,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>
@@ -49472,7 +49487,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49498,16 +49513,16 @@
         <v>52</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49556,7 +49571,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
@@ -49585,7 +49600,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49611,16 +49626,16 @@
         <v>52</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49669,7 +49684,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49698,7 +49713,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49724,14 +49739,14 @@
         <v>178</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49759,10 +49774,10 @@
         <v>116</v>
       </c>
       <c r="X413" t="s" s="2">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="Y413" t="s" s="2">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="Z413" t="s" s="2">
         <v>43</v>
@@ -49780,7 +49795,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>
@@ -49809,7 +49824,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49835,14 +49850,14 @@
         <v>178</v>
       </c>
       <c r="K414" t="s" s="2">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="L414" t="s" s="2">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="M414" s="2"/>
       <c r="N414" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="O414" t="s" s="2">
         <v>43</v>
@@ -49870,10 +49885,10 @@
         <v>116</v>
       </c>
       <c r="X414" t="s" s="2">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="Y414" t="s" s="2">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Z414" t="s" s="2">
         <v>43</v>
@@ -49891,7 +49906,7 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
@@ -49920,7 +49935,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49946,14 +49961,14 @@
         <v>178</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M415" s="2"/>
       <c r="N415" t="s" s="2">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="O415" t="s" s="2">
         <v>43</v>
@@ -49981,10 +49996,10 @@
         <v>116</v>
       </c>
       <c r="X415" t="s" s="2">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="Y415" t="s" s="2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="Z415" t="s" s="2">
         <v>43</v>
@@ -50002,7 +50017,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -50031,7 +50046,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
@@ -50057,10 +50072,10 @@
         <v>346</v>
       </c>
       <c r="K416" t="s" s="2">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
@@ -50111,7 +50126,7 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>41</v>
@@ -50140,7 +50155,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50249,7 +50264,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50360,7 +50375,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
@@ -50473,7 +50488,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50502,13 +50517,13 @@
         <v>717</v>
       </c>
       <c r="L420" t="s" s="2">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M420" t="s" s="2">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N420" t="s" s="2">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="O420" t="s" s="2">
         <v>43</v>
@@ -50536,10 +50551,10 @@
         <v>116</v>
       </c>
       <c r="X420" t="s" s="2">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="Y420" t="s" s="2">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="Z420" t="s" s="2">
         <v>43</v>
@@ -50557,7 +50572,7 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="AF420" t="s" s="2">
         <v>50</v>
@@ -50586,7 +50601,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50609,17 +50624,17 @@
         <v>43</v>
       </c>
       <c r="J421" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="K421" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="L421" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M421" s="2"/>
       <c r="N421" t="s" s="2">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
@@ -50668,7 +50683,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50697,7 +50712,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50720,17 +50735,17 @@
         <v>43</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="K422" t="s" s="2">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="L422" t="s" s="2">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="M422" s="2"/>
       <c r="N422" t="s" s="2">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>43</v>
@@ -50779,7 +50794,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
